--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" firstSheet="2" activeTab="7"/>
   </bookViews>
@@ -9912,13 +9917,13 @@
     <t>Señorita</t>
   </si>
   <si>
-    <t>In a discussion of a number of fiddler species near Mazatlan, Mexico, [[Hendrickx1984]] lists three common names next to many of the species: &amp;ldquo;fiddler crab,&amp;rdquo; &amp;ldquo;cangrejo violinista,&amp;rdquo; and, uniquely, &amp;rdquo;señorita.&amp;ldquo The latter name is not explained, but is perhaps a local name for fiddler crabs on the Pacific coast of Mexico.</t>
+    <t>In a discussion of a number of fiddler species near Mazatlan, Mexico, [[Hendrickx1984,.out]] lists three common names next to many of the species: &amp;ldquo;fiddler crab,&amp;rdquo; &amp;ldquo;cangrejo violinista,&amp;rdquo; and, uniquely, &amp;rdquo;señorita.&amp;ldquo; The latter name is not explained, but is perhaps a local name for fiddler crabs on the Pacific coast of Mexico.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -10097,7 +10102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10130,9 +10135,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10165,6 +10187,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10350,13 +10389,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="77" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -15174,9 +15213,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15455,7 +15494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -22453,9 +22492,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="43.75" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -25192,17 +25231,17 @@
       <selection activeCell="I614" sqref="I614"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="15"/>
-    <col min="3" max="3" width="18.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="15" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="15"/>
+    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="15" customWidth="1"/>
     <col min="5" max="6" width="21" style="15" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="15" customWidth="1"/>
-    <col min="9" max="16" width="9.125" style="15"/>
-    <col min="17" max="17" width="9.625" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="9.125" style="15"/>
+    <col min="7" max="7" width="6.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="15" customWidth="1"/>
+    <col min="9" max="16" width="9.140625" style="15"/>
+    <col min="17" max="17" width="9.5703125" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -44219,13 +44258,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -48870,11 +48909,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49720,7 +49759,7 @@
   <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="species_info" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10414" uniqueCount="3297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10414" uniqueCount="3298">
   <si>
     <t>acuta</t>
   </si>
@@ -9918,12 +9913,15 @@
   </si>
   <si>
     <t>In a discussion of a number of fiddler species near Mazatlan, Mexico, [[Hendrickx1984,.out]] lists three common names next to many of the species: &amp;ldquo;fiddler crab,&amp;rdquo; &amp;ldquo;cangrejo violinista,&amp;rdquo; and, uniquely, &amp;rdquo;señorita.&amp;ldquo; The latter name is not explained, but is perhaps a local name for fiddler crabs on the Pacific coast of Mexico.</t>
+  </si>
+  <si>
+    <t>Uruguayan Fiddler Crab, Southwestern Atlantic Fiddler Crab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -10102,7 +10100,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10135,26 +10133,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10187,23 +10168,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10382,20 +10346,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
     <col min="8" max="8" width="77" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -14859,7 +14823,7 @@
         <v>232</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>232</v>
+        <v>3297</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>724</v>
@@ -15213,9 +15177,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15494,7 +15458,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -22492,9 +22456,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -25231,17 +25195,17 @@
       <selection activeCell="I614" sqref="I614"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="15"/>
-    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="15" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="15"/>
+    <col min="3" max="3" width="18.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="15" customWidth="1"/>
     <col min="5" max="6" width="21" style="15" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="15" customWidth="1"/>
-    <col min="9" max="16" width="9.140625" style="15"/>
-    <col min="17" max="17" width="9.5703125" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="15"/>
+    <col min="7" max="7" width="6.75" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="15" customWidth="1"/>
+    <col min="9" max="16" width="9.125" style="15"/>
+    <col min="17" max="17" width="9.625" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="9.125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -44258,13 +44222,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -48909,11 +48873,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49758,7 +49722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="5"/>
   </bookViews>
@@ -15,14 +20,14 @@
     <sheet name="specific_names" sheetId="8" r:id="rId6"/>
     <sheet name="morphology" sheetId="10" r:id="rId7"/>
     <sheet name="common_names" sheetId="11" r:id="rId8"/>
-    <sheet name="common_names (2)" sheetId="12" r:id="rId9"/>
+    <sheet name="species_changes" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10414" uniqueCount="3299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10365" uniqueCount="3285">
   <si>
     <t>acuta</t>
   </si>
@@ -8745,9 +8750,6 @@
     <t>abdomen1.png|abdomen2.png</t>
   </si>
   <si>
-    <t>The abdomen from a ventral view of the crab. Figured modified from Crane (1975).|A comparison between typical male (left) and female (right) abdominal shapes. Figure modified from Crane (1975).</t>
-  </si>
-  <si>
     <t>The abdomen is the third major part of the body of arthropods. In true crabs, the abdomen is normally wrapped under the body and pressed against the thorax (unlike in lobsters, for example, where the abdomen is the tail of the lobster). The width of the abdomen generally varies quite a bit between male and female fiddler crabs. In males, the abdomen is relatively narrow and rectangular and takes up only about a third of the ventral surface of the body. In females, the abdomen is substantially wider and round, taking up most of the ventral surface of the crab. The sex organs (gonopods and gonopores) are located on the hidden side of the abdomen, which can be moved away from the body during mating.</t>
   </si>
   <si>
@@ -8823,9 +8825,6 @@
     <t>The dactyl of the major cheliped, from the dorsal view of the crab. Figure modified from Crane (1975).|The dactyl of the major cheliped, from the exterior view of the claw (strictly speaking, the posterior surface of the claw if the limbs are spread). Figure modified from Crane (1975).</t>
   </si>
   <si>
-    <t>The dactyl is the movable finger of the claw and the final sement of the limb.</t>
-  </si>
-  <si>
     <t>major_ischium.png</t>
   </si>
   <si>
@@ -9288,9 +9287,6 @@
     <t>&lt;em class="species"&gt;Uca schmitti&lt;/em&gt; Crane, 1943, is a junior synonym of &lt;em class="species"&gt;Uca ecuadoriensis&lt;/em&gt; Maccagno, 1928. Barnwell (1988) reported evidence that this may be an independent species; further investigation is warranted.</t>
   </si>
   <si>
-    <t>pugilator;pugillator;pugilatus;pigilator;puqilato</t>
-  </si>
-  <si>
     <t>subcylindrica;sub-cylindricus;subcylindricus;sub-cylindrica</t>
   </si>
   <si>
@@ -9351,9 +9347,6 @@
     <t>The common English term &amp;ldquo;fiddler crab&amp;rdquo; appears to have originated on the East coast of the United States (or more precisely, among the English speaking residents of the British colonies that eventually becamse the U.S.). Although the name is commonly used in English, many people are unaware of why the name is applied to these crabs. Field observation makes it obvious that the name derives from the motion of the small claw when male crabs are feeding. The constant movement of the small claw from the surface to the mouth and back makes it appear as if the crab is moving a bow across the large claw (the fiddle). As is shown below, over time many scientists have struggled to come up with an explanation for this name, with mistaken interpretations at times carrying over from person to person.</t>
   </si>
   <si>
-    <t>The earliest mention of this name appears in &lt;a href=\"references/Lawson1709.html\"&gt;John Lawson's &lt;em&gt;A New Voyage to Carolina&lt;/em&gt;&lt;/a&gt;, published in 1709 (and republished as &lt;a href=\"references/Lawson1714.html\"&gt;&lt;em&gt;The History of Carolina&lt;/em&gt;&lt;/a&gt; in 1714) (p. 121):</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -9366,69 +9359,36 @@
     <t>Fidlars are a sort of small Crabs, that lie in Holes in the Marshes. The Raccoons eat them very much. I never knew any one try, whether they were good Meat or no.</t>
   </si>
   <si>
-    <t>A century later, in discussing &lt;em class=\"species\"&gt;Ocypode pugilator&lt;/em&gt; (&lt;em class=\"species\"&gt;Uca pugilator&lt;/em&gt;), &lt;a href=\"references/Say1817.html\"&gt;Thomas Say (1817)&lt;/a&gt; reports (p. 72):</t>
-  </si>
-  <si>
     <t>This is the animal so well known to the inhabitants of the sea coast under the name of &amp;ldquo;Fiddler,&amp;rdquo; an appellation almost universal, and probably derived from a supposed similitude between the large hand of the male and the fiddler or violin.</t>
   </si>
   <si>
-    <t>Note that he associates the name with the large claw, but without the motion&amp;mdash;a half-correct answer we will see again. &lt;a href=\"references/Gould1841.html\"&gt;Gould (1841)&lt;/a&gt; has a similar explanation when discussing the crab &lt;em class=\"species\"&gt;Gelasimus vocans&lt;/em&gt; (likely both &lt;em class=\"species\"&gt;Uca pugilator&lt;/em&gt; and &lt;em class=\"species\"&gt;U. pugnax&lt;/em&gt;) in Massachusetts (p. 325):</t>
-  </si>
-  <si>
     <t>It is well distinguished by its large claw, which is sometimes on the right side and sometimes on the left, and has gained for it the name of the &amp;ldquo;Fiddler Crab.&amp;rdquo;</t>
   </si>
   <si>
-    <t>&lt;a href=\"references/DeKay1844.html\"&gt;De Kay (1844)&lt;/a&gt; uses the term with respect to the same species in New York, but with a slightly different explanation (p. 14):</t>
-  </si>
-  <si>
     <t>The movable finger is curved, and extends somewhat beyond the tip of the other, which is almost straight ; from this results a figure somewhat resembling the bow of a violin, and has probably suggested its popular name of &lt;em&gt;Fiddler Crab.&lt;/em&gt;</t>
   </si>
   <si>
     <t>His explanation of the origin of the name is unusual: that the curving dactyl on the large claws looks like the bow over the violin (the pollex and manus).</t>
   </si>
   <si>
-    <t>In the book &lt;a href=\"references/Lord1867.html\"&gt;&lt;em&gt;Crab, Shrimp, and Lobster Lore&lt;/em&gt; (1867)&lt;/a&gt;, William Lord reports a different spin on the fishermen's perception of the fiddler crab (p. 29-30):</t>
-  </si>
-  <si>
     <t>These are the &lt;em&gt;swimming Crabs,&lt;/em&gt; of which there are numerous species. These differ materially from the kinds we have described, in habits, appearance, and structure. By the use of their powerful oar-like legs they are enabled to propel themselves through the water with great rapidity and precision, and by darting among the meshes of the fishing-nets they becomes so helplessly entangled, that a &amp;ldquo;&lt;em&gt;Fiddler Crab&lt;/em&gt;&amp;rdquo; (as it is sometimes called from the rapidity with which it works its elbows) in a &lt;em&gt;transel net&lt;/em&gt;, is often used by fishermen as a standard with which to compare the cases of the most utter bewilderment.</t>
   </si>
   <si>
-    <t>Mark Twain also references them in Chapter 48 of &lt;a href=\"references/Twain1883.html\"&gt;&lt;em&gt;Life on the Mississippi&lt;/em&gt; (1883)&lt;/a&gt;:</t>
-  </si>
-  <si>
     <t>The drainage-ditches were everywhere alive with little crabs&amp;mdash;&amp;lsquo;fiddlers.&amp;rsquo; One saw them scampering sidewise in every direction whenever they heard a disturbing noise. Expensive pests, these crabs; for they bore into the levees, and ruin them.</t>
   </si>
   <si>
-    <t>At some point a number of authors come to the erroneous conclusion that the name comes from the waving of the large claw (a concept that makes little sense if one thinks about it). In his 1886 book &lt;a href=\"references/Kingsley1886.html\"&gt;&lt;em&gt;The Standard Natural History&lt;/em&gt;&lt;/a&gt;, John S. Kingsley states (p. 64):</t>
-  </si>
-  <si>
     <t>When these crabs are disturbed their claws are brandished in an amusing manner, strikingly suggestive of the motions of a violinist, whence these forms have received the common name of &amp;ldquo;Fiddler Crabs.&amp;rdquo;</t>
   </si>
   <si>
-    <t>Angelo Heilprin makes an even more confusing explanation in his 1888 book &lt;a href=\"references/Heilprin1888.html\"&gt;&lt;em&gt;The Animal Life of Our Sea-Shore&lt;/em&gt;&lt;/a&gt; (p. 82).</t>
-  </si>
-  <si>
     <t>When provoked, the animal brandishes this claw in a somewhat threatening manner, which has been likened to the pulling of a violin-bow&amp;mdash;hence the name of 'fiddler'&amp;mdash;and by others to the action of beckoning or calling (hence 'calling crabs').</t>
   </si>
   <si>
-    <t>And again in Johnson and Snook's book, &lt;a href=\"references/Johnson1927.html\"&gt;&lt;em&gt;Seashore Animals of the Pacific Cost&lt;/em&gt; (1927)&lt;/a&gt;, p. 400:</t>
-  </si>
-  <si>
     <t>The males are frequently seen to brandish the large claw in a peculiar way. First, they reach out with it as far as it will go, then they bring it toward the body with a sudden movement. This motion which has probably suggested the name &amp;ldquo;fiddler&amp;rdquo; crab is carried on during the breeding season and is persecuted more vigorously when a female crab is nearby.</t>
   </si>
   <si>
-    <t>Similar confusing claims are made by &lt;a href=\"references/Boyce1924.html\"&gt;Boyce (1924)&lt;/a&gt;, while &lt;a href=\"references/Boone1927.html\"&gt;Boone (1927)&lt;/a&gt; returns to the resemblance of the large claw (without associated motion) (see quotes under &amp;ldquo;Calling Crab&amp;rdquo; below).</t>
-  </si>
-  <si>
-    <t>By 1888, Kingsley changes his explanation to a more sensible one in in a paper in &lt;a href=\"references/Kingsley1888.html\"&gt;&lt;em&gt;The American Naturalist&lt;/em&gt; (p. 889-890)&lt;/a&gt;:</t>
-  </si>
-  <si>
     <t>When you draw near the beach where these crabs are abundant, no matter how cautiously you have approached, there is a hurried rush of myraids of these crabs, each scuttling away as fast as four pairs of legs will carry it, to a a place of safety. At such a time the appropriateness of the common name is seen. In every direction are the fiddlers, each playing its small claw across the enormous fellow in the most amusing manner. No matter how often seen, one cannot help thinking of the musician&amp;mdash;usually bald-headed&amp;mdash;away down to the left of the orchestra, who so vigorously saws the bass notes from the viol. Let the latter scamper away, viol and all, as rapidly as does the crab, and the simile would be complete.</t>
   </si>
   <si>
-    <t>&lt;a href=\"references/Paulmier1905.html\"&gt;Paulmier (1905)&lt;/a&gt; gives a similar explanation (p. 148):</t>
-  </si>
-  <si>
     <t>These three species are commonly known as &amp;ldquo;fiddlers&amp;rdquo;; for, when running over the beach with the large claw held out in front of them and the small one sawing in front of it, they ludicrously resemble a man carrying a bass viol.</t>
   </si>
   <si>
@@ -9438,63 +9398,24 @@
     <t>Calling Crab</t>
   </si>
   <si>
-    <t>Less commonly used in English, the term &amp;ldquo;Calling Crab&amp;rdquo; derives from one of the earliest scientific papers to include these crabs, &lt;a href=\"references/Rumphius1705.html\"&gt;Rumphius (1705)&lt;/a&gt;. Rumphius names one of his species &lt;em class=\"species\"&gt;Cancer vocans&lt;/em&gt;  which is Latin for &amp;ldquo;calling crab&amp;rdquo; or &amp;ldquo;gesturing crab.&amp;rdquo; He also reports the name &amp;ldquo;Cattam Pangel&amp;rdquo; which appears to most likely be a form of Malay meaning &amp;ldquo;summoning crab,&amp;rdquo; and is probably from where he derived the Latin name.</t>
-  </si>
-  <si>
-    <t>The Latin name &lt;em class=\"species\"&gt;Cancer vocans&lt;/em&gt; (today &lt;em class=\"species\"&gt;Uca vocans&lt;/em&gt;) was adopted by &lt;a href=\"references/Linnaeus1758.html\"&gt;Linnaeus (1758)&lt;/a&gt; and became the general name under which this group was known in Continental Europe. By 1778, writing in French, &lt;a href=\"references/DeGeer1778.html\"&gt;DeGeer&lt;/a&gt; uses the French translation of this term &amp;ldquo;Crabe appellant,&amp;rdquo; which appears to become a general term for all of these crabs, not just the single species. Similarly, writing in German, &lt;a href=\"references/Herbst1782.html\"&gt;Herbst (1782)&lt;/a&gt; builds off the German word &amp;ldquo;winken&amp;rdquo; (which means wave, beckon, signal or hail) to call two versions of these crabs &amp;ldquo;Der kleine Winker&amp;rdquo; and &amp;ldquo;Der grosse Winker&amp;rdquo; (essentially &amp;ldquo;the little waver&amp;rdquo; and &amp;ldquo;the great waver&amp;rdquo;). Eventually, the entire group of crabs becomes becomes known as &lt;b&gt;Winkerkrabbe&lt;/b&gt; (waving crabs) in German.</t>
-  </si>
-  <si>
-    <t>The term does find its way into English, such as &lt;a href=\"references/Gosse1851.html\"&gt;Gosse (1851)&lt;/a&gt; discussing Jamaica (p. 50-51):</t>
-  </si>
-  <si>
-    <t>At this time it is seen to be pierced with innumerable little holes; and hundres of a tiny Calling-crab (&lt;em class=\"species\"&gt;Gelasimus vocans&lt;/em&gt;) are running over its surface, the males of which hold up their enormous claws in front, as if in defiance. At the approach of an intruder, every one hastens into his burrow, and in a moment the muddy bank, that was alive with the moving atoms, is perfectly still&amp;hellip;The little Crabs are very swift and wary, so that it is difficult to capture them, except by making a sudden rush from a distance among them.</t>
-  </si>
-  <si>
-    <t>or &lt;a href=\"references/Tennent1861.html\"&gt;Tennent (1861)&lt;/a&gt; in Sri Lanka (p. 477-478):</t>
-  </si>
-  <si>
     <t>...the nimble little Calling Crabs scamper over moist sands, carrying aloft the enormous hand (sometimes larger than the rest of the body), which is their peculiar characteristic, and which, from its beckoning gesture has suggested their popular name.</t>
   </si>
   <si>
-    <t>or &lt;a href=\"references/Paulmier1905.html\"&gt;Paulmier (1905)&lt;/a&gt; in New York (p. 148):</t>
-  </si>
-  <si>
     <t>The old specific name vocans was given them because, when the tide was out, they appeared to stand on the beach and wave their great claws, calling it back again.</t>
   </si>
   <si>
-    <t>&lt;a href=\"references/Boyce1924.html\"&gt;Boyce (1924)&lt;/a&gt; prefers &amp;ldquo;Calling Crab&amp;ldquo; to &amp;ldquo;Fiddler Crab&amp;rdquo;, at least in part due to his misunderstanding of where &amp;ldquo;Fiddler Crab&amp;rdquo; comes from (p. 250):</t>
-  </si>
-  <si>
     <t>The enlarged chela is constantly being waived in the air as if beckoning or calling, and this has suggested the term Calling Crab. The alternate name, Fiddler Crab, is less appropriate, for the movement is really not suggestive of the action of a violinist drawing the bow across the strings.</t>
   </si>
   <si>
-    <t>&lt;a href=\"references/Boone1927.html\"&gt;Boone (1927)&lt;/a&gt; also explains both names:</t>
-  </si>
-  <si>
     <t>The odd aspect of this group of crabs, resulting from the strikingly disproportionate size attained by one of the claws in the male and the curious manner in which the little creatures handle the claw, has been a source of comment among the peoples of many lands, which has found expression in a series of quaint common names. Among English-speaking folk, it is known as the &amp;ldquo;calling crab&amp;rdquo; because it seems to be forever beckoning with its huge claws. Another name, and the one by the way, most widely used among the coasts of the southern United States is &amp;ldquo;fiddler&amp;rdquo; crab, from the fancied resemblance of the great claw to this musical instrument.</t>
   </si>
   <si>
     <t>シオマネキ (Shio-maneki)</t>
   </si>
   <si>
-    <t>In 1835, &lt;a href=\"references/deHaan1835.html\"&gt;de Haan&lt;/a&gt; (writing in Latin) reports that the crab he calls &lt;em class=\"species\"&gt;Ocypode (Gelasimus) arcuata&lt;/em&gt; (today &lt;em class=\"species\"&gt;Uca arcuata&lt;/em&gt;) is known as &amp;ldquo;Siho maneki&amp;rdquo; in Japanese (シホマネキ). He translates this into Latin as &amp;ldquo;maris refluxum annuens.&amp;rdquo; This has generally been translated into English as &amp;ldquo;beckoning for the return of the tide&amp;rdquo; or &amp;ldquo;tide caller.&amp;rdquo;</t>
-  </si>
-  <si>
-    <t>This term is first mentioned in English by &lt;a href=\"references/Boone1927.html\"&gt;Boone (1927)&lt;/a&gt; (p. 273):</t>
-  </si>
-  <si>
-    <t>The Japanese have woven a legend around the species of &lt;em class=\"species\"&gt;Uca&lt;/em&gt; common in Japan, and give it the name &lt;em&gt;Siho maneki,&lt;/em&gt; which means &amp;ldquo;beckoning for the return of the tide.&amp;rdquo;</t>
-  </si>
-  <si>
-    <t>Ricketts &amp;amp; Calvin copy this in their book &lt;em&gt;Between Pacific Tides&lt;/em&gt; (probably in the original 1939 edition, but definitely by the revised edition of 1948). For example, in the &lt;a href=\"references/Ricketts1985.html\"&gt;fifth edition (1985)&lt;/a&gt;, on p. 356:</t>
-  </si>
-  <si>
     <t>The Japanese call the fiddler crab &lt;em&gt;siho maneki,&lt;/em&gt; which translates as &amp;ldquo;beckoning for the return of the tide.&amp;rdquo; It is too picturesque a name to quibble over, but one might reasonably ask why Mahomet does not go to the mountain, for the presumably free-willed fiddler digs its burrow as far away from the tide as it can get without abandoning the sea entirely.</t>
   </si>
   <si>
-    <t>Today there is a slight difference in the Japanese spelling (シオマネキ vs. シホマネキ) (note 2&lt;sup&gt;nd&lt;/sup&gt; character) and English transliteration (&amp;ldquo;shio-maneki&amp;rdquo; vs. &amp;ldquo;siho-maneki&amp;rdquo;) than presented by de Haan and subsequent authors. I do not know if this change is due to the way we transliterate or represents an error by &lt;a href=\"references/deHaan1835.html\"&gt;de Haan (1835)&lt;/a&gt; which carried over to later authors.</t>
-  </si>
-  <si>
     <t>Chama-maré</t>
   </si>
   <si>
@@ -9504,30 +9425,18 @@
     <t>Maestro-sastre</t>
   </si>
   <si>
-    <t>Translates to &amp;ldquo;master tailor&amp;rdquo; in English. Rathbun (&lt;a href=\"references/Rathbun1911.html\"&gt;1911&lt;/a&gt;, &lt;a href=\"references/Rathbun1918.2.html\"&gt;1918&lt;/a&gt;) reports this as a local name for &lt;em class=\species\"&gt;Uca princeps&lt;/em&gt; in Peru. Likely derives from the same feeding motion that gave rise to &amp;ldquo;fiddler crab,&amp;rdquo; with the motion of the small claw looking like someone rapidly sewing stitches.</t>
-  </si>
-  <si>
-    <t>&lt;a href=\"references/Boone1927.html\"&gt;Boone (1927)&lt;/a&gt; also reports on this term (p. 273):</t>
-  </si>
-  <si>
     <t>To the Peruvians these crabs are known as &amp;ldquo;&lt;em&gt;maestro-sastre,&lt;/em&gt;&amp;rdquo; (master-tailor). Long before the coming of Columbus to the New World, these little crabs were woven in the folk-lore of the Indians who dwelt along the coast.</t>
   </si>
   <si>
     <t>Deaf Ear Crabs</t>
   </si>
   <si>
-    <t>Common name on Jamaica. Appears to come from the superstition that deafness and earache could be cured by pouring the juice from a crushed living crab into the ear. &lt;a href=\"references/Rathbun1918.2.html\"&gt;Rathbun (1918)&lt;/a&gt; reported hearing this story from P.W. Jarvis of Kingston, specifically in reference to &lt;em class=\"species\"&gt;Uca rapax.&lt;/em&gt; &lt;a href=\"references/Barnwell1986.1.html\"&gt;Barnwell (1986)&lt;/a&gt; reported that the name was generally applied to all fiddler crabs, although modern day residents didn't know the significance, the name apparently having stuck while the folklore apparently was lost.</t>
-  </si>
-  <si>
     <t>Dhobi Crabs</t>
   </si>
   <si>
     <t>Locally the Gelasimi are known as &amp;ldquo;dhobi crabs,&amp;rdquo; doubtless from the resemblance of their beckoning movement to the manner in which the native washerman swings the clothes over his head in the act of pounding them against a flat stone.</t>
   </si>
   <si>
-    <t>&lt;a href=\"references/Henderson1893.html\"&gt;Henderson (1893)&lt;/a&gt; reports this as the local name on the eastern coast of India, near Madras (p. 329):</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -9570,9 +9479,6 @@
     <t>The first use of the specific name &lt;em class="species"&gt;speciosus&lt;/em&gt; with reference to a fiddler crab appears to be &lt;em class="species"&gt;Gonoplax speciosus&lt;/em&gt; from an unpublished manuscript residing in the library of the National Museum of Natural History in Paris by Christophe-Paulin de La Poix de Fréminville, referring specifically to a &amp;ldquo;new&amp;rdquo; species from Senegal. Because the manuscript was never published, the use of this name does not gain priority. The species referenced by Fréminville is today known as &lt;em class="species"&gt;Uca tangeri&lt;/em&gt; (Eydoux 1835).&lt;/p&gt;&lt;p&gt;The same specific name was later used by Ives to describe a new American species, &lt;em class="species"&gt;Gelasimus speciosus.&lt;/em&gt; Because the earlier use is a &lt;em&gt;nomen nudum&lt;/em&gt;, this second use retains priority and is the proper name for the species &lt;em class="species"&gt;Uca speciosa&lt;/em&gt; (Ives 1891).</t>
   </si>
   <si>
-    <t>This name is also mentioned by &lt;a href="\references/Gravely1927.html\"&gt;Gravely (1927)&lt;/a&gt; as &amp;ldquo;Dhobie Crabs.&amp;rdquo;</t>
-  </si>
-  <si>
     <t>Gravely1927</t>
   </si>
   <si>
@@ -9919,12 +9825,69 @@
   </si>
   <si>
     <t>maracoani;moracoani;maraconai</t>
+  </si>
+  <si>
+    <t>The abdomen from a ventral view of the crab. Figured modified from Crane (1975).|A comparison between typical male (right) and female (left) abdominal shapes. Figure modified from Crane (1975).</t>
+  </si>
+  <si>
+    <t>The dactyl is the movable finger of the claw and the final segment of the limb.</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Reference(s)</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Synonym</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Spelling</t>
+  </si>
+  <si>
+    <t>longidigita</t>
+  </si>
+  <si>
+    <t>mjobergi</t>
+  </si>
+  <si>
+    <t>paradussmieri</t>
+  </si>
+  <si>
+    <t>vonHagen1989</t>
+  </si>
+  <si>
+    <t>Kossmann1877;Shih2009;Naderloo2010</t>
+  </si>
+  <si>
+    <t>Pretzmann1971;Shih2009;Naderloo2010</t>
+  </si>
+  <si>
+    <t>Stimpson1858;Shih2012</t>
+  </si>
+  <si>
+    <t>Dai1991;Jones1994</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>pugilator;pugillator;pugilatus;pigilator;puqilato;pugilato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -10003,7 +9966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -10042,6 +10005,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -10103,7 +10067,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10136,9 +10100,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10171,6 +10152,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10356,13 +10354,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="77" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -10397,16 +10395,16 @@
         <v>747</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -10473,7 +10471,7 @@
         <v>411</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2660</v>
@@ -10517,10 +10515,10 @@
         <v>459</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>3179</v>
+        <v>3147</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>3173</v>
+        <v>3141</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>468</v>
@@ -11262,7 +11260,7 @@
         <v>423</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>3297</v>
+        <v>3264</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>509</v>
@@ -11576,7 +11574,7 @@
         <v>518</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>3250</v>
+        <v>3217</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>468</v>
@@ -11866,7 +11864,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="C35" t="s">
         <v>144</v>
@@ -13022,7 +13020,7 @@
         <v>403</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>3170</v>
+        <v>3138</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>727</v>
@@ -13183,28 +13181,28 @@
     </row>
     <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>3172</v>
+        <v>3140</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>3173</v>
+        <v>3141</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>3180</v>
+        <v>3148</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>3180</v>
+        <v>3148</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>3178</v>
+        <v>3146</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>3173</v>
+        <v>3141</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>468</v>
@@ -13450,7 +13448,7 @@
         <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="C71" t="s">
         <v>182</v>
@@ -13682,7 +13680,7 @@
         <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>515</v>
@@ -14342,7 +14340,7 @@
         <v>206</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>3296</v>
+        <v>3263</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>731</v>
@@ -14430,7 +14428,7 @@
         <v>243</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>474</v>
@@ -14826,7 +14824,7 @@
         <v>232</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>3293</v>
+        <v>3260</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>723</v>
@@ -15087,7 +15085,7 @@
         <v>1247</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>3251</v>
+        <v>3218</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>427</v>
@@ -15180,9 +15178,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15199,10 +15197,10 @@
         <v>315</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -15330,7 +15328,7 @@
         <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>3240</v>
+        <v>3207</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -15350,7 +15348,7 @@
         <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>3241</v>
+        <v>3208</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
@@ -15407,16 +15405,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="B12" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="E12" t="s">
         <v>1127</v>
@@ -15427,16 +15425,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="B13" t="s">
-        <v>3242</v>
+        <v>3209</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="E13" t="s">
         <v>1127</v>
@@ -15461,7 +15459,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15549,7 +15547,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3175</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15571,7 +15569,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15604,7 +15602,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15615,7 +15613,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15626,7 +15624,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15637,7 +15635,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15780,7 +15778,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15791,7 +15789,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15802,7 +15800,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15813,7 +15811,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15824,7 +15822,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15835,7 +15833,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15868,7 +15866,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15879,7 +15877,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15890,7 +15888,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15901,7 +15899,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15912,7 +15910,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -16242,7 +16240,7 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -16253,7 +16251,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -16264,7 +16262,7 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -16275,7 +16273,7 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -16286,7 +16284,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -16297,7 +16295,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -16308,7 +16306,7 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -16319,7 +16317,7 @@
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -16330,7 +16328,7 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -16341,7 +16339,7 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -16352,7 +16350,7 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -16363,7 +16361,7 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -16374,7 +16372,7 @@
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -16385,7 +16383,7 @@
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -16396,7 +16394,7 @@
         <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -16407,7 +16405,7 @@
         <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -16418,7 +16416,7 @@
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -16429,7 +16427,7 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -16440,7 +16438,7 @@
         <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -16451,7 +16449,7 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -16462,7 +16460,7 @@
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -16473,7 +16471,7 @@
         <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -16484,7 +16482,7 @@
         <v>25</v>
       </c>
       <c r="C93" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -16495,7 +16493,7 @@
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -16605,7 +16603,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -16616,7 +16614,7 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -16627,7 +16625,7 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -16638,7 +16636,7 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -16649,7 +16647,7 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -16660,7 +16658,7 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -16671,7 +16669,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -16682,7 +16680,7 @@
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -17045,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>3209</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -17056,7 +17054,7 @@
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>3209</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -17067,7 +17065,7 @@
         <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>3209</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -17078,7 +17076,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -17089,7 +17087,7 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -17100,7 +17098,7 @@
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -17111,7 +17109,7 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -17122,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -17133,7 +17131,7 @@
         <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -17144,7 +17142,7 @@
         <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -17155,7 +17153,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -17166,7 +17164,7 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -17177,7 +17175,7 @@
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -17188,7 +17186,7 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -17199,7 +17197,7 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -17210,7 +17208,7 @@
         <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -17221,7 +17219,7 @@
         <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -17397,7 +17395,7 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -17408,7 +17406,7 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -17419,7 +17417,7 @@
         <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -17430,7 +17428,7 @@
         <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -17441,7 +17439,7 @@
         <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -17452,7 +17450,7 @@
         <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -17551,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -17562,7 +17560,7 @@
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -17573,7 +17571,7 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -17584,7 +17582,7 @@
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -17595,7 +17593,7 @@
         <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -17606,7 +17604,7 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -17617,7 +17615,7 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -17628,7 +17626,7 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -17639,7 +17637,7 @@
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -17650,7 +17648,7 @@
         <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -17661,7 +17659,7 @@
         <v>12</v>
       </c>
       <c r="C200" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -17738,7 +17736,7 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -17826,7 +17824,7 @@
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -17837,7 +17835,7 @@
         <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -17848,7 +17846,7 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -17859,7 +17857,7 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -17870,7 +17868,7 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -17881,7 +17879,7 @@
         <v>10</v>
       </c>
       <c r="C220" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -17892,7 +17890,7 @@
         <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -17903,7 +17901,7 @@
         <v>12</v>
       </c>
       <c r="C222" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -17914,7 +17912,7 @@
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -17925,7 +17923,7 @@
         <v>14</v>
       </c>
       <c r="C224" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -17936,7 +17934,7 @@
         <v>15</v>
       </c>
       <c r="C225" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -17947,7 +17945,7 @@
         <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -17958,7 +17956,7 @@
         <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -17969,7 +17967,7 @@
         <v>18</v>
       </c>
       <c r="C228" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -17980,7 +17978,7 @@
         <v>19</v>
       </c>
       <c r="C229" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -18024,7 +18022,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>3276</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -18035,7 +18033,7 @@
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>3276</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -18046,7 +18044,7 @@
         <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -18057,7 +18055,7 @@
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -18068,7 +18066,7 @@
         <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -18079,18 +18077,18 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>3278</v>
+        <v>3245</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>3279</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -18211,7 +18209,7 @@
         <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -18222,7 +18220,7 @@
         <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -18244,7 +18242,7 @@
         <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -18266,7 +18264,7 @@
         <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -18277,7 +18275,7 @@
         <v>3</v>
       </c>
       <c r="C256" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -18288,7 +18286,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -18409,7 +18407,7 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -18420,7 +18418,7 @@
         <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -18431,7 +18429,7 @@
         <v>6</v>
       </c>
       <c r="C270" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -18442,7 +18440,7 @@
         <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -18453,7 +18451,7 @@
         <v>8</v>
       </c>
       <c r="C272" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -18464,7 +18462,7 @@
         <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -18475,7 +18473,7 @@
         <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -18486,7 +18484,7 @@
         <v>11</v>
       </c>
       <c r="C275" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -18497,7 +18495,7 @@
         <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -18508,7 +18506,7 @@
         <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -18519,7 +18517,7 @@
         <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -18541,7 +18539,7 @@
         <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -18574,7 +18572,7 @@
         <v>3</v>
       </c>
       <c r="C283" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -18585,7 +18583,7 @@
         <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -18596,7 +18594,7 @@
         <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -18607,7 +18605,7 @@
         <v>6</v>
       </c>
       <c r="C286" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -19047,7 +19045,7 @@
         <v>5</v>
       </c>
       <c r="C326" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -19190,7 +19188,7 @@
         <v>2</v>
       </c>
       <c r="C339" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -19289,7 +19287,7 @@
         <v>9</v>
       </c>
       <c r="C348" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -19300,7 +19298,7 @@
         <v>10</v>
       </c>
       <c r="C349" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -19311,7 +19309,7 @@
         <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -19322,7 +19320,7 @@
         <v>12</v>
       </c>
       <c r="C351" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -19333,7 +19331,7 @@
         <v>13</v>
       </c>
       <c r="C352" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -19344,7 +19342,7 @@
         <v>14</v>
       </c>
       <c r="C353" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -19355,7 +19353,7 @@
         <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -19366,7 +19364,7 @@
         <v>16</v>
       </c>
       <c r="C355" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -19377,7 +19375,7 @@
         <v>17</v>
       </c>
       <c r="C356" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -19388,7 +19386,7 @@
         <v>18</v>
       </c>
       <c r="C357" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -19399,7 +19397,7 @@
         <v>19</v>
       </c>
       <c r="C358" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -19410,7 +19408,7 @@
         <v>20</v>
       </c>
       <c r="C359" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -19421,7 +19419,7 @@
         <v>21</v>
       </c>
       <c r="C360" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -19432,7 +19430,7 @@
         <v>22</v>
       </c>
       <c r="C361" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -19443,7 +19441,7 @@
         <v>23</v>
       </c>
       <c r="C362" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -19454,7 +19452,7 @@
         <v>24</v>
       </c>
       <c r="C363" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -19465,7 +19463,7 @@
         <v>25</v>
       </c>
       <c r="C364" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -19476,7 +19474,7 @@
         <v>26</v>
       </c>
       <c r="C365" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -19487,7 +19485,7 @@
         <v>27</v>
       </c>
       <c r="C366" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -19498,7 +19496,7 @@
         <v>28</v>
       </c>
       <c r="C367" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -19509,7 +19507,7 @@
         <v>29</v>
       </c>
       <c r="C368" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -19520,7 +19518,7 @@
         <v>30</v>
       </c>
       <c r="C369" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -19531,7 +19529,7 @@
         <v>31</v>
       </c>
       <c r="C370" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -19542,7 +19540,7 @@
         <v>32</v>
       </c>
       <c r="C371" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -19553,7 +19551,7 @@
         <v>1</v>
       </c>
       <c r="C372" t="s">
-        <v>3210</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -19569,7 +19567,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -19580,7 +19578,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="B375">
         <v>2</v>
@@ -19591,7 +19589,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="B376">
         <v>3</v>
@@ -19602,7 +19600,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="B377">
         <v>4</v>
@@ -19613,7 +19611,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="B378">
         <v>5</v>
@@ -19624,7 +19622,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="B379">
         <v>6</v>
@@ -19635,7 +19633,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="B380">
         <v>7</v>
@@ -19646,7 +19644,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="B381">
         <v>8</v>
@@ -19685,7 +19683,7 @@
         <v>3</v>
       </c>
       <c r="C384" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -19696,7 +19694,7 @@
         <v>4</v>
       </c>
       <c r="C385" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -19707,7 +19705,7 @@
         <v>5</v>
       </c>
       <c r="C386" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -19718,7 +19716,7 @@
         <v>6</v>
       </c>
       <c r="C387" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -19729,7 +19727,7 @@
         <v>7</v>
       </c>
       <c r="C388" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -19927,7 +19925,7 @@
         <v>3</v>
       </c>
       <c r="C406" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -19938,7 +19936,7 @@
         <v>4</v>
       </c>
       <c r="C407" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -19949,7 +19947,7 @@
         <v>5</v>
       </c>
       <c r="C408" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -19960,7 +19958,7 @@
         <v>6</v>
       </c>
       <c r="C409" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -19971,7 +19969,7 @@
         <v>7</v>
       </c>
       <c r="C410" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -19982,7 +19980,7 @@
         <v>8</v>
       </c>
       <c r="C411" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -19993,7 +19991,7 @@
         <v>9</v>
       </c>
       <c r="C412" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -20092,7 +20090,7 @@
         <v>9</v>
       </c>
       <c r="C421" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -20235,7 +20233,7 @@
         <v>2</v>
       </c>
       <c r="C434" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -20246,7 +20244,7 @@
         <v>3</v>
       </c>
       <c r="C435" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -20257,7 +20255,7 @@
         <v>4</v>
       </c>
       <c r="C436" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -20268,7 +20266,7 @@
         <v>5</v>
       </c>
       <c r="C437" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -20279,7 +20277,7 @@
         <v>6</v>
       </c>
       <c r="C438" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -20290,7 +20288,7 @@
         <v>7</v>
       </c>
       <c r="C439" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -20301,7 +20299,7 @@
         <v>8</v>
       </c>
       <c r="C440" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -20312,7 +20310,7 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -20323,7 +20321,7 @@
         <v>10</v>
       </c>
       <c r="C442" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -20334,7 +20332,7 @@
         <v>11</v>
       </c>
       <c r="C443" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -20345,7 +20343,7 @@
         <v>12</v>
       </c>
       <c r="C444" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -20675,7 +20673,7 @@
         <v>2</v>
       </c>
       <c r="C474" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -20719,7 +20717,7 @@
         <v>4</v>
       </c>
       <c r="C478" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -20730,7 +20728,7 @@
         <v>5</v>
       </c>
       <c r="C479" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -20741,7 +20739,7 @@
         <v>6</v>
       </c>
       <c r="C480" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -20752,7 +20750,7 @@
         <v>7</v>
       </c>
       <c r="C481" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -20763,7 +20761,7 @@
         <v>8</v>
       </c>
       <c r="C482" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -20774,7 +20772,7 @@
         <v>9</v>
       </c>
       <c r="C483" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -20785,7 +20783,7 @@
         <v>10</v>
       </c>
       <c r="C484" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -20818,7 +20816,7 @@
         <v>3</v>
       </c>
       <c r="C487" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -20829,7 +20827,7 @@
         <v>4</v>
       </c>
       <c r="C488" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -20840,7 +20838,7 @@
         <v>5</v>
       </c>
       <c r="C489" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -20851,7 +20849,7 @@
         <v>6</v>
       </c>
       <c r="C490" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -20862,7 +20860,7 @@
         <v>7</v>
       </c>
       <c r="C491" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -20884,7 +20882,7 @@
         <v>2</v>
       </c>
       <c r="C493" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -20895,7 +20893,7 @@
         <v>3</v>
       </c>
       <c r="C494" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -20906,7 +20904,7 @@
         <v>4</v>
       </c>
       <c r="C495" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -20917,7 +20915,7 @@
         <v>5</v>
       </c>
       <c r="C496" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -20928,7 +20926,7 @@
         <v>6</v>
       </c>
       <c r="C497" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -20939,7 +20937,7 @@
         <v>7</v>
       </c>
       <c r="C498" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -20950,7 +20948,7 @@
         <v>8</v>
       </c>
       <c r="C499" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -20961,7 +20959,7 @@
         <v>9</v>
       </c>
       <c r="C500" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -21170,7 +21168,7 @@
         <v>5</v>
       </c>
       <c r="C519" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -21181,7 +21179,7 @@
         <v>6</v>
       </c>
       <c r="C520" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -21192,7 +21190,7 @@
         <v>7</v>
       </c>
       <c r="C521" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -21203,7 +21201,7 @@
         <v>8</v>
       </c>
       <c r="C522" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -21214,7 +21212,7 @@
         <v>9</v>
       </c>
       <c r="C523" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -21225,7 +21223,7 @@
         <v>10</v>
       </c>
       <c r="C524" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -21236,7 +21234,7 @@
         <v>11</v>
       </c>
       <c r="C525" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -21247,7 +21245,7 @@
         <v>12</v>
       </c>
       <c r="C526" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -21258,7 +21256,7 @@
         <v>13</v>
       </c>
       <c r="C527" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -21291,7 +21289,7 @@
         <v>3</v>
       </c>
       <c r="C530" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -21302,7 +21300,7 @@
         <v>4</v>
       </c>
       <c r="C531" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -21313,7 +21311,7 @@
         <v>5</v>
       </c>
       <c r="C532" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -21324,7 +21322,7 @@
         <v>6</v>
       </c>
       <c r="C533" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -21577,7 +21575,7 @@
         <v>4</v>
       </c>
       <c r="C556" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -21588,7 +21586,7 @@
         <v>5</v>
       </c>
       <c r="C557" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -21599,7 +21597,7 @@
         <v>6</v>
       </c>
       <c r="C558" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -21610,7 +21608,7 @@
         <v>7</v>
       </c>
       <c r="C559" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -21621,7 +21619,7 @@
         <v>8</v>
       </c>
       <c r="C560" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -21632,7 +21630,7 @@
         <v>9</v>
       </c>
       <c r="C561" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -21643,7 +21641,7 @@
         <v>10</v>
       </c>
       <c r="C562" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -21654,7 +21652,7 @@
         <v>11</v>
       </c>
       <c r="C563" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -21665,7 +21663,7 @@
         <v>12</v>
       </c>
       <c r="C564" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -21676,7 +21674,7 @@
         <v>13</v>
       </c>
       <c r="C565" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -21687,7 +21685,7 @@
         <v>14</v>
       </c>
       <c r="C566" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -21698,7 +21696,7 @@
         <v>15</v>
       </c>
       <c r="C567" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -21709,7 +21707,7 @@
         <v>16</v>
       </c>
       <c r="C568" t="s">
-        <v>3273</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -21896,7 +21894,7 @@
         <v>3</v>
       </c>
       <c r="C585" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -21907,7 +21905,7 @@
         <v>1</v>
       </c>
       <c r="C586" t="s">
-        <v>3274</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -21951,7 +21949,7 @@
         <v>6</v>
       </c>
       <c r="C590" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -21962,7 +21960,7 @@
         <v>7</v>
       </c>
       <c r="C591" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -21973,7 +21971,7 @@
         <v>8</v>
       </c>
       <c r="C592" t="s">
-        <v>3277</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -22050,7 +22048,7 @@
         <v>5</v>
       </c>
       <c r="C599" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -22061,7 +22059,7 @@
         <v>6</v>
       </c>
       <c r="C600" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -22281,7 +22279,7 @@
         <v>3</v>
       </c>
       <c r="C620" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -22292,7 +22290,7 @@
         <v>4</v>
       </c>
       <c r="C621" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -22303,7 +22301,7 @@
         <v>5</v>
       </c>
       <c r="C622" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -22314,7 +22312,7 @@
         <v>6</v>
       </c>
       <c r="C623" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -22325,7 +22323,7 @@
         <v>7</v>
       </c>
       <c r="C624" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -22336,7 +22334,7 @@
         <v>8</v>
       </c>
       <c r="C625" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -22347,7 +22345,7 @@
         <v>9</v>
       </c>
       <c r="C626" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -22358,7 +22356,7 @@
         <v>10</v>
       </c>
       <c r="C627" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -22369,7 +22367,7 @@
         <v>11</v>
       </c>
       <c r="C628" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -22380,7 +22378,7 @@
         <v>12</v>
       </c>
       <c r="C629" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -22391,7 +22389,7 @@
         <v>13</v>
       </c>
       <c r="C630" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -22402,7 +22400,7 @@
         <v>14</v>
       </c>
       <c r="C631" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -22413,7 +22411,7 @@
         <v>15</v>
       </c>
       <c r="C632" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -22424,7 +22422,7 @@
         <v>16</v>
       </c>
       <c r="C633" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -22435,7 +22433,7 @@
         <v>17</v>
       </c>
       <c r="C634" t="s">
-        <v>3275</v>
+        <v>3242</v>
       </c>
     </row>
   </sheetData>
@@ -22459,9 +22457,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="43.75" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -25198,17 +25196,17 @@
       <selection activeCell="I614" sqref="I614"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="15"/>
-    <col min="3" max="3" width="18.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="15" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="15"/>
+    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="15" customWidth="1"/>
     <col min="5" max="6" width="21" style="15" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="15" customWidth="1"/>
-    <col min="9" max="16" width="9.125" style="15"/>
-    <col min="17" max="17" width="9.625" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="9.125" style="15"/>
+    <col min="7" max="7" width="6.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="15" customWidth="1"/>
+    <col min="9" max="16" width="9.140625" style="15"/>
+    <col min="17" max="17" width="9.5703125" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -25245,7 +25243,7 @@
         <v>808</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>3204</v>
+        <v>3171</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>779</v>
@@ -25274,7 +25272,7 @@
         <v>808</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>3204</v>
+        <v>3171</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>779</v>
@@ -25303,7 +25301,7 @@
         <v>808</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>3204</v>
+        <v>3171</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>779</v>
@@ -25315,7 +25313,7 @@
         <v>1240</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>799</v>
@@ -25324,7 +25322,7 @@
         <v>821</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -25390,19 +25388,19 @@
         <v>808</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>3261</v>
+        <v>3228</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>3262</v>
+        <v>3229</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>3263</v>
+        <v>3230</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>3264</v>
+        <v>3231</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>3265</v>
+        <v>3232</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>799</v>
@@ -25411,7 +25409,7 @@
         <v>821</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>3266</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -25419,19 +25417,19 @@
         <v>808</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="D8" s="16">
         <v>1743</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>800</v>
@@ -25440,7 +25438,7 @@
         <v>821</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>3203</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -25448,7 +25446,7 @@
         <v>808</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>3205</v>
+        <v>3172</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>782</v>
@@ -25567,16 +25565,16 @@
         <v>821</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>3066</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>3068</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>3070</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>800</v>
@@ -25585,7 +25583,7 @@
         <v>821</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -26028,19 +26026,19 @@
         <v>808</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="D29" s="17">
         <v>1885</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>800</v>
@@ -26049,7 +26047,7 @@
         <v>821</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -26057,19 +26055,19 @@
         <v>808</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="D30" s="17">
         <v>1885</v>
       </c>
       <c r="E30" s="17" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>2980</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>2982</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>800</v>
@@ -26078,7 +26076,7 @@
         <v>821</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -26086,19 +26084,19 @@
         <v>808</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="D31" s="17">
         <v>1885</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>800</v>
@@ -26107,7 +26105,7 @@
         <v>821</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -26173,10 +26171,10 @@
         <v>808</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>3253</v>
+        <v>3220</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>3254</v>
+        <v>3221</v>
       </c>
       <c r="D34" s="17">
         <v>1890</v>
@@ -26185,7 +26183,7 @@
         <v>117</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>3255</v>
+        <v>3222</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>799</v>
@@ -26194,7 +26192,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>3256</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -27333,19 +27331,19 @@
         <v>808</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>3192</v>
+        <v>3159</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>3193</v>
+        <v>3160</v>
       </c>
       <c r="D74" s="17">
         <v>1914</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>3194</v>
+        <v>3161</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>3195</v>
+        <v>3162</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>799</v>
@@ -27354,7 +27352,7 @@
         <v>46</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>3196</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -27470,7 +27468,7 @@
         <v>93</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -27478,19 +27476,19 @@
         <v>808</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>3183</v>
+        <v>3150</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>3185</v>
+        <v>3152</v>
       </c>
       <c r="D79" s="17">
         <v>1927</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>3187</v>
+        <v>3154</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>3191</v>
+        <v>3158</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>799</v>
@@ -27499,7 +27497,7 @@
         <v>32</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>3190</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -27507,7 +27505,7 @@
         <v>808</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>3184</v>
+        <v>3151</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>1584</v>
@@ -27516,10 +27514,10 @@
         <v>1927</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>3186</v>
+        <v>3153</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>3188</v>
+        <v>3155</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>799</v>
@@ -27528,7 +27526,7 @@
         <v>78</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>3189</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -27565,10 +27563,10 @@
         <v>808</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="D82" s="17">
         <v>1934</v>
@@ -27577,7 +27575,7 @@
         <v>1792</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>799</v>
@@ -27586,7 +27584,7 @@
         <v>59</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -27594,10 +27592,10 @@
         <v>808</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="D83" s="17">
         <v>1934</v>
@@ -27606,7 +27604,7 @@
         <v>1792</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="G83" s="17" t="s">
         <v>799</v>
@@ -27615,7 +27613,7 @@
         <v>59</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -28058,10 +28056,10 @@
         <v>808</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>3267</v>
+        <v>3234</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>3268</v>
+        <v>3235</v>
       </c>
       <c r="D99" s="17">
         <v>1939</v>
@@ -28070,7 +28068,7 @@
         <v>1465</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>3269</v>
+        <v>3236</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>799</v>
@@ -28079,7 +28077,7 @@
         <v>91</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>3280</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -28087,19 +28085,19 @@
         <v>808</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>3267</v>
+        <v>3234</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>3268</v>
+        <v>3235</v>
       </c>
       <c r="D100" s="17">
         <v>1939</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>3271</v>
+        <v>3238</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>3270</v>
+        <v>3237</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>799</v>
@@ -28108,7 +28106,7 @@
         <v>39</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>3281</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -28116,10 +28114,10 @@
         <v>808</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>3267</v>
+        <v>3234</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>3268</v>
+        <v>3235</v>
       </c>
       <c r="D101" s="17">
         <v>1939</v>
@@ -28128,7 +28126,7 @@
         <v>108</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>3272</v>
+        <v>3239</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>799</v>
@@ -28137,7 +28135,7 @@
         <v>2</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>3282</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -29584,7 +29582,7 @@
         <v>799</v>
       </c>
       <c r="H151" s="16" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="I151" s="16" t="s">
         <v>1573</v>
@@ -29613,7 +29611,7 @@
         <v>799</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="I152" s="16" t="s">
         <v>1576</v>
@@ -29642,7 +29640,7 @@
         <v>799</v>
       </c>
       <c r="H153" s="16" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="I153" s="16" t="s">
         <v>1604</v>
@@ -29827,10 +29825,10 @@
         <v>808</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>3284</v>
+        <v>3251</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>3285</v>
+        <v>3252</v>
       </c>
       <c r="D160" s="17">
         <v>1951</v>
@@ -29839,7 +29837,7 @@
         <v>1054</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>3283</v>
+        <v>3250</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>799</v>
@@ -29848,7 +29846,7 @@
         <v>78</v>
       </c>
       <c r="I160" s="16" t="s">
-        <v>3286</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -29877,7 +29875,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>3176</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -29906,7 +29904,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="16" t="s">
-        <v>3177</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -29932,7 +29930,7 @@
         <v>799</v>
       </c>
       <c r="H163" s="16" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="I163" s="16" t="s">
         <v>1545</v>
@@ -29961,7 +29959,7 @@
         <v>799</v>
       </c>
       <c r="H164" s="16" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="I164" s="16" t="s">
         <v>1545</v>
@@ -29990,7 +29988,7 @@
         <v>799</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="I165" s="16" t="s">
         <v>1545</v>
@@ -30265,7 +30263,7 @@
         <v>2741</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>3243</v>
+        <v>3210</v>
       </c>
       <c r="D175" s="17">
         <v>1961</v>
@@ -30294,7 +30292,7 @@
         <v>2741</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>3243</v>
+        <v>3210</v>
       </c>
       <c r="D176" s="17">
         <v>1961</v>
@@ -30323,7 +30321,7 @@
         <v>2741</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>3243</v>
+        <v>3210</v>
       </c>
       <c r="D177" s="17">
         <v>1961</v>
@@ -30352,7 +30350,7 @@
         <v>2741</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>3243</v>
+        <v>3210</v>
       </c>
       <c r="D178" s="17">
         <v>1961</v>
@@ -30381,7 +30379,7 @@
         <v>2741</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>3243</v>
+        <v>3210</v>
       </c>
       <c r="D179" s="17">
         <v>1961</v>
@@ -30410,7 +30408,7 @@
         <v>2741</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>3243</v>
+        <v>3210</v>
       </c>
       <c r="D180" s="17">
         <v>1961</v>
@@ -30439,7 +30437,7 @@
         <v>2741</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>3243</v>
+        <v>3210</v>
       </c>
       <c r="D181" s="17">
         <v>1961</v>
@@ -30468,7 +30466,7 @@
         <v>2741</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>3243</v>
+        <v>3210</v>
       </c>
       <c r="D182" s="17">
         <v>1961</v>
@@ -30497,7 +30495,7 @@
         <v>2741</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>3243</v>
+        <v>3210</v>
       </c>
       <c r="D183" s="17">
         <v>1961</v>
@@ -30541,7 +30539,7 @@
         <v>799</v>
       </c>
       <c r="H184" s="16" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="I184" s="16" t="s">
         <v>1512</v>
@@ -30570,7 +30568,7 @@
         <v>799</v>
       </c>
       <c r="H185" s="16" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="I185" s="16" t="s">
         <v>1513</v>
@@ -30599,7 +30597,7 @@
         <v>799</v>
       </c>
       <c r="H186" s="16" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="I186" s="16" t="s">
         <v>1514</v>
@@ -31570,7 +31568,7 @@
         <v>1785</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D220" s="17">
         <v>1968</v>
@@ -31599,7 +31597,7 @@
         <v>1785</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D221" s="17">
         <v>1968</v>
@@ -31628,7 +31626,7 @@
         <v>1785</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D222" s="17">
         <v>1968</v>
@@ -31657,7 +31655,7 @@
         <v>1785</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D223" s="17">
         <v>1968</v>
@@ -31686,7 +31684,7 @@
         <v>1785</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D224" s="17">
         <v>1968</v>
@@ -31715,7 +31713,7 @@
         <v>1785</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D225" s="17">
         <v>1968</v>
@@ -31744,7 +31742,7 @@
         <v>1785</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D226" s="17">
         <v>1968</v>
@@ -31773,7 +31771,7 @@
         <v>1785</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D227" s="17">
         <v>1968</v>
@@ -31802,7 +31800,7 @@
         <v>1785</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D228" s="17">
         <v>1968</v>
@@ -31831,7 +31829,7 @@
         <v>1785</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D229" s="17">
         <v>1968</v>
@@ -31860,7 +31858,7 @@
         <v>1785</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D230" s="17">
         <v>1968</v>
@@ -31889,7 +31887,7 @@
         <v>1785</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D231" s="17">
         <v>1968</v>
@@ -31918,7 +31916,7 @@
         <v>1785</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D232" s="17">
         <v>1968</v>
@@ -31947,7 +31945,7 @@
         <v>1785</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>3244</v>
+        <v>3211</v>
       </c>
       <c r="D233" s="17">
         <v>1968</v>
@@ -32005,7 +32003,7 @@
         <v>2747</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D235" s="17">
         <v>1969</v>
@@ -32034,7 +32032,7 @@
         <v>2747</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D236" s="17">
         <v>1969</v>
@@ -32063,7 +32061,7 @@
         <v>2747</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D237" s="17">
         <v>1969</v>
@@ -32092,7 +32090,7 @@
         <v>2747</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D238" s="17">
         <v>1969</v>
@@ -32121,7 +32119,7 @@
         <v>2747</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D239" s="17">
         <v>1969</v>
@@ -32150,7 +32148,7 @@
         <v>2747</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D240" s="17">
         <v>1969</v>
@@ -32179,7 +32177,7 @@
         <v>2747</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D241" s="17">
         <v>1969</v>
@@ -32208,7 +32206,7 @@
         <v>2747</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D242" s="17">
         <v>1969</v>
@@ -32237,7 +32235,7 @@
         <v>2747</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D243" s="17">
         <v>1969</v>
@@ -32266,7 +32264,7 @@
         <v>2747</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D244" s="17">
         <v>1969</v>
@@ -32295,7 +32293,7 @@
         <v>2747</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="D245" s="17">
         <v>1969</v>
@@ -32603,7 +32601,7 @@
         <v>1086</v>
       </c>
       <c r="I255" s="16" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -33365,19 +33363,19 @@
         <v>808</v>
       </c>
       <c r="B282" s="16" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C282" s="16" t="s">
         <v>3045</v>
-      </c>
-      <c r="C282" s="16" t="s">
-        <v>3047</v>
       </c>
       <c r="D282" s="17">
         <v>1973</v>
       </c>
       <c r="E282" s="17" t="s">
+        <v>3044</v>
+      </c>
+      <c r="F282" s="17" t="s">
         <v>3046</v>
-      </c>
-      <c r="F282" s="17" t="s">
-        <v>3048</v>
       </c>
       <c r="G282" s="17" t="s">
         <v>799</v>
@@ -33386,7 +33384,7 @@
         <v>13</v>
       </c>
       <c r="I282" s="16" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -33394,19 +33392,19 @@
         <v>808</v>
       </c>
       <c r="B283" s="16" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C283" s="16" t="s">
         <v>3045</v>
-      </c>
-      <c r="C283" s="16" t="s">
-        <v>3047</v>
       </c>
       <c r="D283" s="17">
         <v>1973</v>
       </c>
       <c r="E283" s="17" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="F283" s="17" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="G283" s="17" t="s">
         <v>799</v>
@@ -33415,7 +33413,7 @@
         <v>59</v>
       </c>
       <c r="I283" s="16" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -33423,19 +33421,19 @@
         <v>808</v>
       </c>
       <c r="B284" s="16" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C284" s="16" t="s">
         <v>3045</v>
-      </c>
-      <c r="C284" s="16" t="s">
-        <v>3047</v>
       </c>
       <c r="D284" s="17">
         <v>1973</v>
       </c>
       <c r="E284" s="17" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="F284" s="17" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="G284" s="17" t="s">
         <v>799</v>
@@ -33444,7 +33442,7 @@
         <v>59</v>
       </c>
       <c r="I284" s="16" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -33452,19 +33450,19 @@
         <v>808</v>
       </c>
       <c r="B285" s="16" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C285" s="16" t="s">
         <v>3045</v>
-      </c>
-      <c r="C285" s="16" t="s">
-        <v>3047</v>
       </c>
       <c r="D285" s="17">
         <v>1973</v>
       </c>
       <c r="E285" s="17" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="F285" s="17" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="G285" s="17" t="s">
         <v>799</v>
@@ -33473,7 +33471,7 @@
         <v>59</v>
       </c>
       <c r="I285" s="16" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -33481,19 +33479,19 @@
         <v>808</v>
       </c>
       <c r="B286" s="16" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C286" s="16" t="s">
         <v>3045</v>
-      </c>
-      <c r="C286" s="16" t="s">
-        <v>3047</v>
       </c>
       <c r="D286" s="17">
         <v>1973</v>
       </c>
       <c r="E286" s="17" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="F286" s="17" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="G286" s="17" t="s">
         <v>799</v>
@@ -33502,7 +33500,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="16" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -33510,19 +33508,19 @@
         <v>808</v>
       </c>
       <c r="B287" s="16" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C287" s="16" t="s">
         <v>3045</v>
-      </c>
-      <c r="C287" s="16" t="s">
-        <v>3047</v>
       </c>
       <c r="D287" s="17">
         <v>1973</v>
       </c>
       <c r="E287" s="17" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F287" s="17" t="s">
         <v>3051</v>
-      </c>
-      <c r="F287" s="17" t="s">
-        <v>3053</v>
       </c>
       <c r="G287" s="17" t="s">
         <v>799</v>
@@ -33531,7 +33529,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="16" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -33539,19 +33537,19 @@
         <v>808</v>
       </c>
       <c r="B288" s="16" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C288" s="16" t="s">
         <v>3045</v>
-      </c>
-      <c r="C288" s="16" t="s">
-        <v>3047</v>
       </c>
       <c r="D288" s="17">
         <v>1973</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="F288" s="17" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="G288" s="17" t="s">
         <v>799</v>
@@ -33560,7 +33558,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="16" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -33568,19 +33566,19 @@
         <v>808</v>
       </c>
       <c r="B289" s="16" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C289" s="16" t="s">
         <v>3045</v>
-      </c>
-      <c r="C289" s="16" t="s">
-        <v>3047</v>
       </c>
       <c r="D289" s="17">
         <v>1973</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="G289" s="17" t="s">
         <v>799</v>
@@ -33589,7 +33587,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="16" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -33597,19 +33595,19 @@
         <v>808</v>
       </c>
       <c r="B290" s="16" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C290" s="16" t="s">
         <v>3045</v>
-      </c>
-      <c r="C290" s="16" t="s">
-        <v>3047</v>
       </c>
       <c r="D290" s="17">
         <v>1973</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="G290" s="17" t="s">
         <v>799</v>
@@ -33618,7 +33616,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="16" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -33629,7 +33627,7 @@
         <v>2013</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D291" s="17">
         <v>1974</v>
@@ -33658,7 +33656,7 @@
         <v>2013</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D292" s="17">
         <v>1974</v>
@@ -33687,7 +33685,7 @@
         <v>2013</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D293" s="17">
         <v>1974</v>
@@ -33716,7 +33714,7 @@
         <v>2013</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D294" s="17">
         <v>1974</v>
@@ -33745,7 +33743,7 @@
         <v>2013</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D295" s="17">
         <v>1974</v>
@@ -33774,7 +33772,7 @@
         <v>2013</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D296" s="17">
         <v>1974</v>
@@ -33803,7 +33801,7 @@
         <v>2013</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D297" s="17">
         <v>1974</v>
@@ -33832,7 +33830,7 @@
         <v>2013</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D298" s="17">
         <v>1974</v>
@@ -33861,7 +33859,7 @@
         <v>2013</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D299" s="17">
         <v>1974</v>
@@ -33890,7 +33888,7 @@
         <v>2013</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D300" s="17">
         <v>1974</v>
@@ -33919,7 +33917,7 @@
         <v>2013</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D301" s="17">
         <v>1974</v>
@@ -33948,7 +33946,7 @@
         <v>2013</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D302" s="17">
         <v>1974</v>
@@ -33977,7 +33975,7 @@
         <v>2013</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D303" s="17">
         <v>1974</v>
@@ -34006,7 +34004,7 @@
         <v>2013</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>3246</v>
+        <v>3213</v>
       </c>
       <c r="D304" s="17">
         <v>1974</v>
@@ -37417,7 +37415,7 @@
         <v>1086</v>
       </c>
       <c r="I421" s="16" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="422" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -37591,7 +37589,7 @@
         <v>1086</v>
       </c>
       <c r="I427" s="16" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="428" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -41079,10 +41077,10 @@
         <v>808</v>
       </c>
       <c r="B548" s="16" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="C548" s="16" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="D548" s="17">
         <v>1976</v>
@@ -41091,7 +41089,7 @@
         <v>1593</v>
       </c>
       <c r="F548" s="17" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="G548" s="17" t="s">
         <v>799</v>
@@ -41100,7 +41098,7 @@
         <v>16</v>
       </c>
       <c r="I548" s="16" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="549" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -41514,19 +41512,19 @@
         <v>808</v>
       </c>
       <c r="B563" s="15" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="C563" s="16" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="D563" s="17">
         <v>1988</v>
       </c>
       <c r="E563" s="17" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="F563" s="17" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="G563" s="17" t="s">
         <v>799</v>
@@ -41535,7 +41533,7 @@
         <v>91</v>
       </c>
       <c r="I563" s="16" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="564" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -41546,7 +41544,7 @@
         <v>2749</v>
       </c>
       <c r="C564" s="16" t="s">
-        <v>3247</v>
+        <v>3214</v>
       </c>
       <c r="D564" s="16">
         <v>1994</v>
@@ -42521,7 +42519,7 @@
         <v>1086</v>
       </c>
       <c r="I597" s="16" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="598" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -42790,10 +42788,10 @@
         <v>808</v>
       </c>
       <c r="B607" s="16" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="C607" s="16" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="D607" s="17">
         <v>2015</v>
@@ -42802,7 +42800,7 @@
         <v>144</v>
       </c>
       <c r="F607" s="16" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="G607" s="16" t="s">
         <v>799</v>
@@ -42811,7 +42809,7 @@
         <v>28</v>
       </c>
       <c r="I607" s="16" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="608" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -42819,19 +42817,19 @@
         <v>808</v>
       </c>
       <c r="B608" s="16" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="C608" s="16" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="D608" s="17">
         <v>2015</v>
       </c>
       <c r="E608" s="16" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="F608" s="16" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="G608" s="16" t="s">
         <v>799</v>
@@ -42840,7 +42838,7 @@
         <v>43</v>
       </c>
       <c r="I608" s="16" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="609" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -42848,19 +42846,19 @@
         <v>808</v>
       </c>
       <c r="B609" s="16" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="C609" s="16" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="D609" s="17">
         <v>2015</v>
       </c>
       <c r="E609" s="16" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="F609" s="16" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="G609" s="16" t="s">
         <v>799</v>
@@ -42869,7 +42867,7 @@
         <v>6</v>
       </c>
       <c r="I609" s="16" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="610" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -42877,10 +42875,10 @@
         <v>808</v>
       </c>
       <c r="B610" s="16" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="C610" s="16" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="D610" s="17">
         <v>2015</v>
@@ -42889,7 +42887,7 @@
         <v>1615</v>
       </c>
       <c r="F610" s="16" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="G610" s="16" t="s">
         <v>799</v>
@@ -42898,7 +42896,7 @@
         <v>61</v>
       </c>
       <c r="I610" s="16" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="611" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -42985,7 +42983,7 @@
         <v>62</v>
       </c>
       <c r="I613" s="16" t="s">
-        <v>3287</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="614" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -43199,7 +43197,7 @@
         <v>821</v>
       </c>
       <c r="C621" s="16" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="D621" s="16">
         <v>2015</v>
@@ -43208,7 +43206,7 @@
         <v>824</v>
       </c>
       <c r="F621" s="16" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="G621" s="16" t="s">
         <v>800</v>
@@ -43217,7 +43215,7 @@
         <v>2</v>
       </c>
       <c r="I621" s="16" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="622" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -44069,7 +44067,7 @@
         <v>821</v>
       </c>
       <c r="C651" s="16" t="s">
-        <v>3248</v>
+        <v>3215</v>
       </c>
       <c r="D651" s="16">
         <v>1990</v>
@@ -44219,19 +44217,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -44305,25 +44303,25 @@
     </row>
     <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="B4" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1151</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1223</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>3024</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>3026</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -44400,7 +44398,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>3289</v>
+        <v>3256</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -44558,25 +44556,25 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3197</v>
+        <v>3164</v>
       </c>
       <c r="B15" t="s">
-        <v>3197</v>
+        <v>3164</v>
       </c>
       <c r="C15" t="s">
-        <v>3200</v>
+        <v>3167</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3198</v>
+        <v>3165</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>3199</v>
+        <v>3166</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>1127</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>3201</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -44673,16 +44671,16 @@
     </row>
     <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="B20" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="C20" t="s">
         <v>1151</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1223</v>
@@ -44691,7 +44689,7 @@
         <v>1127</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -44780,7 +44778,7 @@
         <v>2016</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>3207</v>
+        <v>3174</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>1127</v>
@@ -45513,7 +45511,7 @@
         <v>1181</v>
       </c>
       <c r="E56" t="s">
-        <v>3202</v>
+        <v>3169</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>1127</v>
@@ -45542,7 +45540,7 @@
         <v>1150</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -45907,7 +45905,7 @@
         <v>1189</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>3294</v>
+        <v>3261</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>1127</v>
@@ -46062,10 +46060,10 @@
         <v>1151</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>1437</v>
@@ -46263,7 +46261,7 @@
         <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="C89" t="s">
         <v>39</v>
@@ -46585,7 +46583,7 @@
         <v>1098</v>
       </c>
       <c r="B103" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
@@ -46608,7 +46606,7 @@
         <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>3298</v>
+        <v>3265</v>
       </c>
       <c r="C104" t="s">
         <v>46</v>
@@ -46677,7 +46675,7 @@
         <v>1099</v>
       </c>
       <c r="B107" t="s">
-        <v>3288</v>
+        <v>3255</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>91</v>
@@ -46769,7 +46767,7 @@
         <v>48</v>
       </c>
       <c r="B111" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="C111" t="s">
         <v>48</v>
@@ -46830,7 +46828,7 @@
         <v>1141</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -46884,7 +46882,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>3291</v>
+        <v>3258</v>
       </c>
       <c r="C116" t="s">
         <v>50</v>
@@ -46930,7 +46928,7 @@
         <v>1321</v>
       </c>
       <c r="B118" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>92</v>
@@ -46991,7 +46989,7 @@
         <v>2012</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -47014,7 +47012,7 @@
         <v>1127</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -47042,22 +47040,22 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>3171</v>
+        <v>3139</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>3172</v>
+        <v>3140</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>3173</v>
+        <v>3141</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>3174</v>
+        <v>3142</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>1127</v>
@@ -47149,7 +47147,7 @@
         <v>1214</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>3208</v>
+        <v>3175</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>1304</v>
@@ -47244,7 +47242,7 @@
         <v>2175</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -47275,7 +47273,7 @@
         <v>56</v>
       </c>
       <c r="B133" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="C133" t="s">
         <v>56</v>
@@ -47620,7 +47618,7 @@
         <v>62</v>
       </c>
       <c r="B148" t="s">
-        <v>3088</v>
+        <v>3284</v>
       </c>
       <c r="C148" t="s">
         <v>62</v>
@@ -47643,7 +47641,7 @@
         <v>63</v>
       </c>
       <c r="B149" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="C149" t="s">
         <v>63</v>
@@ -47842,7 +47840,7 @@
         <v>1127</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -47957,7 +47955,7 @@
         <v>1431</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -48072,7 +48070,7 @@
         <v>1127</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>3181</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -48195,7 +48193,7 @@
         <v>76</v>
       </c>
       <c r="B173" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C173" t="s">
         <v>76</v>
@@ -48241,7 +48239,7 @@
         <v>78</v>
       </c>
       <c r="B175" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="C175" t="s">
         <v>78</v>
@@ -48302,7 +48300,7 @@
         <v>1127</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -48356,7 +48354,7 @@
         <v>81</v>
       </c>
       <c r="B180" t="s">
-        <v>3249</v>
+        <v>3216</v>
       </c>
       <c r="C180" t="s">
         <v>81</v>
@@ -48402,7 +48400,7 @@
         <v>1118</v>
       </c>
       <c r="B182" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>13</v>
@@ -48448,7 +48446,7 @@
         <v>84</v>
       </c>
       <c r="B184" t="s">
-        <v>3290</v>
+        <v>3257</v>
       </c>
       <c r="C184" t="s">
         <v>84</v>
@@ -48670,7 +48668,7 @@
         <v>1127</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -48816,7 +48814,7 @@
         <v>1124</v>
       </c>
       <c r="B200" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>20</v>
@@ -48871,16 +48869,16 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -48928,10 +48926,10 @@
         <v>2906</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2907</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2908</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -48976,7 +48974,7 @@
         <v>1127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2863</v>
@@ -48993,13 +48991,13 @@
         <v>1127</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>2910</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>2911</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>2912</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49010,13 +49008,13 @@
         <v>1127</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>2913</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>2914</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>2915</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49135,7 +49133,7 @@
         <v>2838</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3206</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49231,13 +49229,13 @@
         <v>2763</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>2916</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>2917</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>2918</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49248,13 +49246,13 @@
         <v>2763</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>2919</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>2920</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>2921</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49276,87 +49274,87 @@
     </row>
     <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B24" t="s">
         <v>2764</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>2922</v>
+        <v>2927</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>2924</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2768</v>
+        <v>2773</v>
       </c>
       <c r="B25" t="s">
         <v>2764</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="B26" t="s">
         <v>2764</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2771</v>
+        <v>2767</v>
       </c>
       <c r="B27" t="s">
         <v>2764</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2931</v>
+        <v>2938</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>2932</v>
+        <v>2939</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2933</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2774</v>
+        <v>2768</v>
       </c>
       <c r="B28" t="s">
         <v>2764</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>2934</v>
+        <v>2924</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>2935</v>
+        <v>2925</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>2936</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49367,103 +49365,103 @@
         <v>2764</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>2937</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>2938</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>2939</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="B30" t="s">
         <v>2764</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2942</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="B31" t="s">
         <v>2764</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2943</v>
+        <v>2930</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2944</v>
+        <v>2931</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2997</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B32" t="s">
         <v>2765</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>2924</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2768</v>
+        <v>2773</v>
       </c>
       <c r="B33" t="s">
         <v>2765</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
       <c r="B34" t="s">
         <v>2765</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="B35" t="s">
         <v>2765</v>
@@ -49475,24 +49473,24 @@
         <v>2952</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>2774</v>
+        <v>2767</v>
       </c>
       <c r="B36" t="s">
         <v>2765</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>2936</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49503,47 +49501,47 @@
         <v>2765</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="B38" t="s">
         <v>2765</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>2959</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="B39" t="s">
         <v>2765</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2960</v>
+        <v>2949</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2961</v>
+        <v>2950</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>2997</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49588,10 +49586,10 @@
         <v>2787</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>2862</v>
@@ -49725,7 +49723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -49733,546 +49731,546 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3168</v>
+        <v>3136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3169</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="B2" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B3" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B4" t="s">
-        <v>3231</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B5" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B6" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B7" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B8" t="s">
-        <v>3257</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B9" t="s">
-        <v>3259</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B10" t="s">
-        <v>3258</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B11" t="s">
-        <v>3260</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B12" t="s">
-        <v>3232</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B13" t="s">
         <v>3110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B14" t="s">
-        <v>3233</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B15" t="s">
-        <v>3117</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B16" t="s">
-        <v>3211</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B17" t="s">
-        <v>3119</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B18" t="s">
-        <v>3120</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B19" t="s">
-        <v>3212</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B20" t="s">
-        <v>3122</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B21" t="s">
-        <v>3213</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B22" t="s">
-        <v>3124</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B23" t="s">
-        <v>3214</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B24" t="s">
-        <v>3126</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B25" t="s">
-        <v>3215</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B26" t="s">
-        <v>3128</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B27" t="s">
-        <v>3216</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B28" t="s">
-        <v>3130</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B29" t="s">
-        <v>3217</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B30" t="s">
-        <v>3218</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B31" t="s">
-        <v>3133</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B32" t="s">
-        <v>3219</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B33" t="s">
-        <v>3135</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B34" t="s">
-        <v>3136</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="B36" t="s">
-        <v>3137</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B37" t="s">
-        <v>3252</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B38" t="s">
-        <v>3234</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B39" t="s">
-        <v>3220</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B40" t="s">
-        <v>3235</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B41" t="s">
-        <v>3221</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B42" t="s">
-        <v>3143</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B43" t="s">
-        <v>3222</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B44" t="s">
-        <v>3145</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B45" t="s">
-        <v>3223</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B46" t="s">
-        <v>3147</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B47" t="s">
-        <v>3224</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B48" t="s">
-        <v>3149</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="B50" t="s">
-        <v>3150</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B51" t="s">
-        <v>3236</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B52" t="s">
-        <v>3225</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B53" t="s">
-        <v>3237</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B54" t="s">
-        <v>3226</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B55" t="s">
-        <v>3155</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B56" t="s">
-        <v>3227</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="B58" t="s">
-        <v>3157</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B59" t="s">
-        <v>3158</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="B61" t="s">
-        <v>3159</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B62" t="s">
-        <v>3238</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B63" t="s">
-        <v>3228</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B64" t="s">
-        <v>3162</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="B66" t="s">
-        <v>3163</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B67" t="s">
-        <v>3239</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="B69" t="s">
-        <v>3165</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B70" t="s">
-        <v>3229</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B71" t="s">
-        <v>3166</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B72" t="s">
-        <v>3230</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="B74" t="s">
-        <v>3292</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B75" t="s">
-        <v>3295</v>
+        <v>3262</v>
       </c>
     </row>
   </sheetData>
@@ -50283,508 +50281,295 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3168</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3107</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3107</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3110</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>3111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3107</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3110</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3107</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3110</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3107</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3110</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>3117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3107</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3110</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3107</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3107</v>
+        <v>2865</v>
       </c>
       <c r="B15" t="s">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3110</v>
+        <v>2022</v>
       </c>
       <c r="B20" t="s">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3107</v>
+        <v>2159</v>
       </c>
       <c r="B21" t="s">
-        <v>3127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3110</v>
+        <v>2526</v>
       </c>
       <c r="B22" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3107</v>
+        <v>2018</v>
       </c>
       <c r="B23" t="s">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3277</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3110</v>
+        <v>2168</v>
       </c>
       <c r="B24" t="s">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1086</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3107</v>
+        <v>1318</v>
       </c>
       <c r="B25" t="s">
-        <v>3131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3107</v>
+        <v>3275</v>
       </c>
       <c r="B30" t="s">
-        <v>3136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3182</v>
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3278</v>
       </c>
     </row>
   </sheetData>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="5"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10365" uniqueCount="3285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10365" uniqueCount="3286">
   <si>
     <t>acuta</t>
   </si>
@@ -9882,12 +9877,15 @@
   </si>
   <si>
     <t>pugilator;pugillator;pugilatus;pigilator;puqilato;pugilato</t>
+  </si>
+  <si>
+    <t>flammula;flamula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -10067,7 +10065,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10100,26 +10098,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10152,23 +10133,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10354,13 +10318,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
     <col min="8" max="8" width="77" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -15178,9 +15142,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15459,7 +15423,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -22457,9 +22421,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -25196,17 +25160,17 @@
       <selection activeCell="I614" sqref="I614"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="15"/>
-    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="15" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="15"/>
+    <col min="3" max="3" width="18.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="15" customWidth="1"/>
     <col min="5" max="6" width="21" style="15" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="15" customWidth="1"/>
-    <col min="9" max="16" width="9.140625" style="15"/>
-    <col min="17" max="17" width="9.5703125" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="15"/>
+    <col min="7" max="7" width="6.75" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="15" customWidth="1"/>
+    <col min="9" max="16" width="9.125" style="15"/>
+    <col min="17" max="17" width="9.625" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="9.125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -44217,19 +44181,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="A1:G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -45571,7 +45535,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>3285</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
@@ -48874,11 +48838,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -50289,7 +50253,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="5"/>
+    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="species_info" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10365" uniqueCount="3286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10399" uniqueCount="3292">
   <si>
     <t>acuta</t>
   </si>
@@ -9880,6 +9880,24 @@
   </si>
   <si>
     <t>flammula;flamula</t>
+  </si>
+  <si>
+    <t>Photo from Shih &lt;em&gt;et al.&lt;/em&gt; (2016), Figure 8.</t>
+  </si>
+  <si>
+    <t>Photo from Shih &lt;em&gt;et al.&lt;/em&gt; (2016), Figure 10.</t>
+  </si>
+  <si>
+    <t>Photo from Shih &lt;em&gt;et al.&lt;/em&gt; (2016), Figure 9.</t>
+  </si>
+  <si>
+    <t>Photo from Shih &lt;em&gt;et al.&lt;/em&gt; (2016), Figure 11.</t>
+  </si>
+  <si>
+    <t>Photo from Shih &lt;em&gt;et al.&lt;/em&gt; (2016), Figure 7.</t>
+  </si>
+  <si>
+    <t>Photo from Shih &lt;em&gt;et al.&lt;/em&gt; (2016), Figure 6.</t>
   </si>
 </sst>
 </file>
@@ -15415,10 +15433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C634"/>
+  <dimension ref="A1:C651"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="G193" sqref="G193"/>
+    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
+      <selection activeCell="C645" sqref="A1:C651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15879,24 +15897,24 @@
     </row>
     <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2865</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>2871</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2865</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>2872</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15904,10 +15922,10 @@
         <v>2865</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15915,10 +15933,10 @@
         <v>2865</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15926,10 +15944,10 @@
         <v>2865</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15937,7 +15955,7 @@
         <v>2865</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
         <v>2873</v>
@@ -15948,10 +15966,10 @@
         <v>2865</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15959,10 +15977,10 @@
         <v>2865</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15970,7 +15988,7 @@
         <v>2865</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>2874</v>
@@ -15978,35 +15996,35 @@
     </row>
     <row r="51" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B51">
         <v>8</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
       <c r="C51" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>2865</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>525</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -16014,10 +16032,10 @@
         <v>8</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>525</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -16025,7 +16043,7 @@
         <v>8</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>525</v>
@@ -16036,7 +16054,7 @@
         <v>8</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>525</v>
@@ -16047,7 +16065,7 @@
         <v>8</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>525</v>
@@ -16058,10 +16076,10 @@
         <v>8</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>388</v>
+        <v>525</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -16069,10 +16087,10 @@
         <v>8</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -16080,10 +16098,10 @@
         <v>8</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>524</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -16091,10 +16109,10 @@
         <v>8</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -16102,29 +16120,29 @@
         <v>8</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>388</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>388</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>388</v>
@@ -16132,13 +16150,13 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>388</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -16146,10 +16164,10 @@
         <v>10</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>527</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -16157,10 +16175,10 @@
         <v>10</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>522</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -16168,43 +16186,43 @@
         <v>10</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>724</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>3242</v>
+        <v>724</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -16212,10 +16230,10 @@
         <v>11</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>3242</v>
+        <v>523</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -16223,10 +16241,10 @@
         <v>11</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>3242</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -16234,7 +16252,7 @@
         <v>11</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
         <v>3242</v>
@@ -16245,7 +16263,7 @@
         <v>11</v>
       </c>
       <c r="B75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
         <v>3242</v>
@@ -16256,7 +16274,7 @@
         <v>11</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>3242</v>
@@ -16267,7 +16285,7 @@
         <v>11</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>3242</v>
@@ -16278,7 +16296,7 @@
         <v>11</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>3242</v>
@@ -16289,7 +16307,7 @@
         <v>11</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>3242</v>
@@ -16300,7 +16318,7 @@
         <v>11</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
         <v>3242</v>
@@ -16311,7 +16329,7 @@
         <v>11</v>
       </c>
       <c r="B81">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
         <v>3242</v>
@@ -16322,7 +16340,7 @@
         <v>11</v>
       </c>
       <c r="B82">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
         <v>3242</v>
@@ -16333,7 +16351,7 @@
         <v>11</v>
       </c>
       <c r="B83">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
         <v>3242</v>
@@ -16344,7 +16362,7 @@
         <v>11</v>
       </c>
       <c r="B84">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
         <v>3242</v>
@@ -16355,7 +16373,7 @@
         <v>11</v>
       </c>
       <c r="B85">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>3242</v>
@@ -16366,7 +16384,7 @@
         <v>11</v>
       </c>
       <c r="B86">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
         <v>3242</v>
@@ -16377,7 +16395,7 @@
         <v>11</v>
       </c>
       <c r="B87">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>3242</v>
@@ -16388,7 +16406,7 @@
         <v>11</v>
       </c>
       <c r="B88">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
         <v>3242</v>
@@ -16399,7 +16417,7 @@
         <v>11</v>
       </c>
       <c r="B89">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
         <v>3242</v>
@@ -16410,7 +16428,7 @@
         <v>11</v>
       </c>
       <c r="B90">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
         <v>3242</v>
@@ -16421,7 +16439,7 @@
         <v>11</v>
       </c>
       <c r="B91">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
         <v>3242</v>
@@ -16432,7 +16450,7 @@
         <v>11</v>
       </c>
       <c r="B92">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
         <v>3242</v>
@@ -16443,7 +16461,7 @@
         <v>11</v>
       </c>
       <c r="B93">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
         <v>3242</v>
@@ -16454,7 +16472,7 @@
         <v>11</v>
       </c>
       <c r="B94">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
         <v>3242</v>
@@ -16462,35 +16480,35 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>528</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>528</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>528</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -16498,7 +16516,7 @@
         <v>12</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
         <v>528</v>
@@ -16509,10 +16527,10 @@
         <v>12</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>2874</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -16520,54 +16538,54 @@
         <v>12</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>2874</v>
+        <v>528</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>525</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>524</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>3093</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -16575,10 +16593,10 @@
         <v>13</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>3092</v>
+        <v>479</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -16586,10 +16604,10 @@
         <v>13</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>3244</v>
+        <v>525</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -16597,10 +16615,10 @@
         <v>13</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>3244</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -16608,10 +16626,10 @@
         <v>13</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>3244</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -16619,10 +16637,10 @@
         <v>13</v>
       </c>
       <c r="B109">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>3244</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -16630,7 +16648,7 @@
         <v>13</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>3244</v>
@@ -16641,7 +16659,7 @@
         <v>13</v>
       </c>
       <c r="B111">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>3244</v>
@@ -16649,57 +16667,57 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>448</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>448</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>448</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>448</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>448</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -16707,7 +16725,7 @@
         <v>15</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
         <v>448</v>
@@ -16718,10 +16736,10 @@
         <v>15</v>
       </c>
       <c r="B118">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>717</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -16729,10 +16747,10 @@
         <v>15</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -16740,10 +16758,10 @@
         <v>15</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>530</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -16751,10 +16769,10 @@
         <v>15</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>530</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -16762,10 +16780,10 @@
         <v>15</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>532</v>
+        <v>448</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -16773,10 +16791,10 @@
         <v>15</v>
       </c>
       <c r="B123">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>532</v>
+        <v>717</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -16784,10 +16802,10 @@
         <v>15</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>532</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -16795,10 +16813,10 @@
         <v>15</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -16806,10 +16824,10 @@
         <v>15</v>
       </c>
       <c r="B126">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -16817,7 +16835,7 @@
         <v>15</v>
       </c>
       <c r="B127">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>532</v>
@@ -16828,7 +16846,7 @@
         <v>15</v>
       </c>
       <c r="B128">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
         <v>532</v>
@@ -16839,7 +16857,7 @@
         <v>15</v>
       </c>
       <c r="B129">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
         <v>532</v>
@@ -16850,10 +16868,10 @@
         <v>15</v>
       </c>
       <c r="B130">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -16861,10 +16879,10 @@
         <v>15</v>
       </c>
       <c r="B131">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -16872,10 +16890,10 @@
         <v>15</v>
       </c>
       <c r="B132">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -16883,10 +16901,10 @@
         <v>15</v>
       </c>
       <c r="B133">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -16894,10 +16912,10 @@
         <v>15</v>
       </c>
       <c r="B134">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -16905,10 +16923,10 @@
         <v>15</v>
       </c>
       <c r="B135">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>388</v>
+        <v>531</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -16916,10 +16934,10 @@
         <v>15</v>
       </c>
       <c r="B136">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -16927,10 +16945,10 @@
         <v>15</v>
       </c>
       <c r="B137">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -16938,10 +16956,10 @@
         <v>15</v>
       </c>
       <c r="B138">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -16949,10 +16967,10 @@
         <v>15</v>
       </c>
       <c r="B139">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -16960,10 +16978,10 @@
         <v>15</v>
       </c>
       <c r="B140">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C140" t="s">
-        <v>530</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -16971,10 +16989,10 @@
         <v>15</v>
       </c>
       <c r="B141">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C141" t="s">
-        <v>2874</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -16982,76 +17000,76 @@
         <v>15</v>
       </c>
       <c r="B142">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C142" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="13">
-        <v>32</v>
+      <c r="B143">
+        <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>2874</v>
+        <v>530</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C144" t="s">
-        <v>3176</v>
+        <v>530</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C145" t="s">
-        <v>3176</v>
+        <v>530</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>3176</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C147" t="s">
-        <v>3094</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="B148" s="13">
+        <v>32</v>
       </c>
       <c r="C148" t="s">
-        <v>3095</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -17059,10 +17077,10 @@
         <v>16</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>3096</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -17070,65 +17088,65 @@
         <v>16</v>
       </c>
       <c r="B150">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>3097</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>3001</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>3001</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>3001</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>3001</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="B155">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>3002</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -17136,10 +17154,10 @@
         <v>257</v>
       </c>
       <c r="B156">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -17147,10 +17165,10 @@
         <v>257</v>
       </c>
       <c r="B157">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -17158,10 +17176,10 @@
         <v>257</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -17169,10 +17187,10 @@
         <v>257</v>
       </c>
       <c r="B159">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -17180,175 +17198,175 @@
         <v>257</v>
       </c>
       <c r="B160">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>724</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>479</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>480</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>478</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>554</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>450</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B170">
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B171">
         <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>388</v>
+        <v>554</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>388</v>
+        <v>717</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>524</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B174">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B175">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>717</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -17356,10 +17374,10 @@
         <v>22</v>
       </c>
       <c r="B176">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>3030</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -17367,10 +17385,10 @@
         <v>22</v>
       </c>
       <c r="B177">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>3098</v>
+        <v>388</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -17378,10 +17396,10 @@
         <v>22</v>
       </c>
       <c r="B178">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>3099</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -17389,10 +17407,10 @@
         <v>22</v>
       </c>
       <c r="B179">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>3099</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -17400,10 +17418,10 @@
         <v>22</v>
       </c>
       <c r="B180">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>3244</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -17411,164 +17429,164 @@
         <v>22</v>
       </c>
       <c r="B181">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>3244</v>
+        <v>717</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>477</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>539</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>539</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B185">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>536</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B186">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>536</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B187">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>537</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B188">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>538</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B190">
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>3242</v>
+        <v>539</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B191">
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>3242</v>
+        <v>539</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B192">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>3242</v>
+        <v>536</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B193">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>3242</v>
+        <v>536</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B194">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>3242</v>
+        <v>537</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B195">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>3242</v>
+        <v>538</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -17576,10 +17594,10 @@
         <v>24</v>
       </c>
       <c r="B196">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>3242</v>
+        <v>479</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -17587,7 +17605,7 @@
         <v>24</v>
       </c>
       <c r="B197">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
         <v>3242</v>
@@ -17598,7 +17616,7 @@
         <v>24</v>
       </c>
       <c r="B198">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C198" t="s">
         <v>3242</v>
@@ -17609,7 +17627,7 @@
         <v>24</v>
       </c>
       <c r="B199">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
         <v>3242</v>
@@ -17620,7 +17638,7 @@
         <v>24</v>
       </c>
       <c r="B200">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>3242</v>
@@ -17628,189 +17646,189 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1086</v>
+        <v>24</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>452</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1086</v>
+        <v>24</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>452</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1086</v>
+        <v>24</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>453</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1086</v>
+        <v>24</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>453</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1086</v>
+        <v>24</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>530</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1086</v>
+        <v>24</v>
       </c>
       <c r="B206">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>530</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1086</v>
+        <v>24</v>
       </c>
       <c r="B207">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>3100</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>25</v>
+        <v>1086</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>25</v>
+        <v>1086</v>
       </c>
       <c r="B209">
         <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>25</v>
+        <v>1086</v>
       </c>
       <c r="B210">
         <v>3</v>
       </c>
       <c r="C210" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>26</v>
+        <v>1086</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>26</v>
+        <v>1086</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>26</v>
+        <v>1086</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>26</v>
+        <v>1086</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>541</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>3242</v>
+        <v>477</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B216">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>3242</v>
+        <v>477</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B217">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>3242</v>
+        <v>477</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -17818,10 +17836,10 @@
         <v>26</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>3242</v>
+        <v>479</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -17829,10 +17847,10 @@
         <v>26</v>
       </c>
       <c r="B219">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>3242</v>
+        <v>479</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -17840,10 +17858,10 @@
         <v>26</v>
       </c>
       <c r="B220">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C220" t="s">
-        <v>3242</v>
+        <v>540</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -17851,10 +17869,10 @@
         <v>26</v>
       </c>
       <c r="B221">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>3242</v>
+        <v>541</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -17862,7 +17880,7 @@
         <v>26</v>
       </c>
       <c r="B222">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>3242</v>
@@ -17873,7 +17891,7 @@
         <v>26</v>
       </c>
       <c r="B223">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>3242</v>
@@ -17884,7 +17902,7 @@
         <v>26</v>
       </c>
       <c r="B224">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>3242</v>
@@ -17895,7 +17913,7 @@
         <v>26</v>
       </c>
       <c r="B225">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>3242</v>
@@ -17906,7 +17924,7 @@
         <v>26</v>
       </c>
       <c r="B226">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
         <v>3242</v>
@@ -17917,7 +17935,7 @@
         <v>26</v>
       </c>
       <c r="B227">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C227" t="s">
         <v>3242</v>
@@ -17928,7 +17946,7 @@
         <v>26</v>
       </c>
       <c r="B228">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C228" t="s">
         <v>3242</v>
@@ -17939,7 +17957,7 @@
         <v>26</v>
       </c>
       <c r="B229">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C229" t="s">
         <v>3242</v>
@@ -17947,79 +17965,79 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>388</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>531</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>531</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B234">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B235">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C235" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C236" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -18027,10 +18045,10 @@
         <v>27</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>3244</v>
+        <v>388</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -18038,109 +18056,109 @@
         <v>27</v>
       </c>
       <c r="B238">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>3244</v>
+        <v>531</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>3245</v>
+        <v>27</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C239" t="s">
-        <v>3246</v>
+        <v>531</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>525</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>525</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
-        <v>525</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B243">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>525</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B244">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>525</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B245">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>525</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>28</v>
+        <v>3245</v>
       </c>
       <c r="B246">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>525</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B247">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C247" t="s">
-        <v>525</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -18148,10 +18166,10 @@
         <v>28</v>
       </c>
       <c r="B248">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -18159,10 +18177,10 @@
         <v>28</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>388</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -18170,10 +18188,10 @@
         <v>28</v>
       </c>
       <c r="B250">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>3007</v>
+        <v>525</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -18181,241 +18199,241 @@
         <v>28</v>
       </c>
       <c r="B251">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>3007</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>743</v>
+        <v>28</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>753</v>
+        <v>525</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>743</v>
+        <v>28</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
-        <v>2962</v>
+        <v>525</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>3087</v>
+        <v>525</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>3087</v>
+        <v>524</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B257">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C257" t="s">
-        <v>3087</v>
+        <v>388</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C258" t="s">
-        <v>477</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>388</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>32</v>
+        <v>743</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>528</v>
+        <v>753</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>32</v>
+        <v>743</v>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>528</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>528</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B264">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C264" t="s">
-        <v>528</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>478</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B268">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C268" t="s">
-        <v>2970</v>
+        <v>528</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B269">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C269" t="s">
-        <v>3240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C270" t="s">
-        <v>3240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B271">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>3240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B272">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C272" t="s">
-        <v>3240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -18423,10 +18441,10 @@
         <v>33</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>3240</v>
+        <v>478</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -18434,10 +18452,10 @@
         <v>33</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C274" t="s">
-        <v>3240</v>
+        <v>478</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -18445,10 +18463,10 @@
         <v>33</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C275" t="s">
-        <v>3240</v>
+        <v>478</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -18456,10 +18474,10 @@
         <v>33</v>
       </c>
       <c r="B276">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C276" t="s">
-        <v>3240</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -18467,7 +18485,7 @@
         <v>33</v>
       </c>
       <c r="B277">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C277" t="s">
         <v>3240</v>
@@ -18478,7 +18496,7 @@
         <v>33</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C278" t="s">
         <v>3240</v>
@@ -18486,54 +18504,54 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>479</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C280" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>478</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B282">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>478</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B283">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C283" t="s">
         <v>3240</v>
@@ -18541,10 +18559,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B284">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C284" t="s">
         <v>3240</v>
@@ -18552,10 +18570,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B285">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C285" t="s">
         <v>3240</v>
@@ -18563,10 +18581,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B286">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
         <v>3240</v>
@@ -18574,211 +18592,211 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B288">
         <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>478</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B289">
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B290">
         <v>2</v>
       </c>
       <c r="C290" t="s">
-        <v>528</v>
+        <v>478</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B291">
         <v>3</v>
       </c>
       <c r="C291" t="s">
-        <v>528</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B292">
         <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>528</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>483</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>483</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="B295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>483</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="B296">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C297" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="B298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>449</v>
+        <v>388</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="B299">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C299" t="s">
-        <v>449</v>
+        <v>528</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="B300">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C300" t="s">
-        <v>449</v>
+        <v>528</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="B301">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C301" t="s">
-        <v>449</v>
+        <v>528</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B303">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C303" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B304">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C304" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B305">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -18786,10 +18804,10 @@
         <v>260</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -18797,10 +18815,10 @@
         <v>260</v>
       </c>
       <c r="B307">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C307" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -18808,10 +18826,10 @@
         <v>260</v>
       </c>
       <c r="B308">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C308" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -18819,10 +18837,10 @@
         <v>260</v>
       </c>
       <c r="B309">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C309" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -18830,109 +18848,109 @@
         <v>260</v>
       </c>
       <c r="B310">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C310" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C311" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="B312">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C313" t="s">
-        <v>525</v>
+        <v>450</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="B314">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>525</v>
+        <v>450</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="B315">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C315" t="s">
-        <v>525</v>
+        <v>450</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="B316">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="B317">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C317" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="B318">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C318" t="s">
-        <v>525</v>
+        <v>450</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C319" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -18940,10 +18958,10 @@
         <v>39</v>
       </c>
       <c r="B320">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C320" t="s">
-        <v>388</v>
+        <v>485</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -18951,117 +18969,117 @@
         <v>39</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C321" t="s">
-        <v>388</v>
+        <v>485</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C322" t="s">
-        <v>724</v>
+        <v>525</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C323" t="s">
-        <v>1485</v>
+        <v>525</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B324">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C324" t="s">
-        <v>1485</v>
+        <v>525</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B325">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C325" t="s">
-        <v>1485</v>
+        <v>388</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C326" t="s">
-        <v>3037</v>
+        <v>388</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C327" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C328" t="s">
-        <v>543</v>
+        <v>388</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B329">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>544</v>
+        <v>388</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C330" t="s">
-        <v>542</v>
+        <v>388</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C331" t="s">
         <v>724</v>
@@ -19069,200 +19087,200 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C332" t="s">
-        <v>542</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C333" t="s">
-        <v>542</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C334" t="s">
-        <v>545</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B335">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>546</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B336">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C336" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B337">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>2894</v>
+        <v>44</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C338" t="s">
-        <v>2905</v>
+        <v>544</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2894</v>
+        <v>45</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>2963</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B340">
         <v>1</v>
       </c>
       <c r="C340" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B341">
         <v>2</v>
       </c>
       <c r="C341" t="s">
-        <v>484</v>
+        <v>724</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B342">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B343">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C344" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B345">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C345" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B346">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C346" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B347">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C347" t="s">
-        <v>717</v>
+        <v>545</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>49</v>
+        <v>2894</v>
       </c>
       <c r="B348">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C348" t="s">
-        <v>3242</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>49</v>
+        <v>2894</v>
       </c>
       <c r="B349">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C349" t="s">
-        <v>3242</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -19270,10 +19288,10 @@
         <v>49</v>
       </c>
       <c r="B350">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C350" t="s">
-        <v>3242</v>
+        <v>484</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -19281,10 +19299,10 @@
         <v>49</v>
       </c>
       <c r="B351">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C351" t="s">
-        <v>3242</v>
+        <v>484</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -19292,10 +19310,10 @@
         <v>49</v>
       </c>
       <c r="B352">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C352" t="s">
-        <v>3242</v>
+        <v>484</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -19303,10 +19321,10 @@
         <v>49</v>
       </c>
       <c r="B353">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C353" t="s">
-        <v>3242</v>
+        <v>531</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -19314,10 +19332,10 @@
         <v>49</v>
       </c>
       <c r="B354">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C354" t="s">
-        <v>3242</v>
+        <v>531</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -19325,10 +19343,10 @@
         <v>49</v>
       </c>
       <c r="B355">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C355" t="s">
-        <v>3242</v>
+        <v>531</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -19336,10 +19354,10 @@
         <v>49</v>
       </c>
       <c r="B356">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C356" t="s">
-        <v>3242</v>
+        <v>547</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -19347,10 +19365,10 @@
         <v>49</v>
       </c>
       <c r="B357">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C357" t="s">
-        <v>3242</v>
+        <v>717</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -19358,7 +19376,7 @@
         <v>49</v>
       </c>
       <c r="B358">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C358" t="s">
         <v>3242</v>
@@ -19369,7 +19387,7 @@
         <v>49</v>
       </c>
       <c r="B359">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C359" t="s">
         <v>3242</v>
@@ -19380,7 +19398,7 @@
         <v>49</v>
       </c>
       <c r="B360">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C360" t="s">
         <v>3242</v>
@@ -19391,7 +19409,7 @@
         <v>49</v>
       </c>
       <c r="B361">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C361" t="s">
         <v>3242</v>
@@ -19402,7 +19420,7 @@
         <v>49</v>
       </c>
       <c r="B362">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C362" t="s">
         <v>3242</v>
@@ -19413,7 +19431,7 @@
         <v>49</v>
       </c>
       <c r="B363">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C363" t="s">
         <v>3242</v>
@@ -19424,7 +19442,7 @@
         <v>49</v>
       </c>
       <c r="B364">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C364" t="s">
         <v>3242</v>
@@ -19435,7 +19453,7 @@
         <v>49</v>
       </c>
       <c r="B365">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C365" t="s">
         <v>3242</v>
@@ -19446,7 +19464,7 @@
         <v>49</v>
       </c>
       <c r="B366">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C366" t="s">
         <v>3242</v>
@@ -19457,7 +19475,7 @@
         <v>49</v>
       </c>
       <c r="B367">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C367" t="s">
         <v>3242</v>
@@ -19468,7 +19486,7 @@
         <v>49</v>
       </c>
       <c r="B368">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C368" t="s">
         <v>3242</v>
@@ -19479,7 +19497,7 @@
         <v>49</v>
       </c>
       <c r="B369">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C369" t="s">
         <v>3242</v>
@@ -19490,7 +19508,7 @@
         <v>49</v>
       </c>
       <c r="B370">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C370" t="s">
         <v>3242</v>
@@ -19501,7 +19519,7 @@
         <v>49</v>
       </c>
       <c r="B371">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C371" t="s">
         <v>3242</v>
@@ -19509,227 +19527,227 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C372" t="s">
-        <v>3177</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C373" t="s">
-        <v>724</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>3139</v>
+        <v>49</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C374" t="s">
-        <v>528</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>3139</v>
+        <v>49</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C375" t="s">
-        <v>528</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>3139</v>
+        <v>49</v>
       </c>
       <c r="B376">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C376" t="s">
-        <v>528</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>3139</v>
+        <v>49</v>
       </c>
       <c r="B377">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C377" t="s">
-        <v>528</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>3139</v>
+        <v>49</v>
       </c>
       <c r="B378">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C378" t="s">
-        <v>528</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>3139</v>
+        <v>49</v>
       </c>
       <c r="B379">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C379" t="s">
-        <v>528</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>3139</v>
+        <v>49</v>
       </c>
       <c r="B380">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C380" t="s">
-        <v>484</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>3139</v>
+        <v>49</v>
       </c>
       <c r="B381">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C381" t="s">
-        <v>484</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B382">
         <v>1</v>
       </c>
       <c r="C382" t="s">
-        <v>478</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C383" t="s">
-        <v>478</v>
+        <v>724</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>54</v>
+        <v>3139</v>
       </c>
       <c r="B384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C384" t="s">
-        <v>3240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>54</v>
+        <v>3139</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C385" t="s">
-        <v>3240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>54</v>
+        <v>3139</v>
       </c>
       <c r="B386">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C386" t="s">
-        <v>3240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>54</v>
+        <v>3139</v>
       </c>
       <c r="B387">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C387" t="s">
-        <v>3240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>54</v>
+        <v>3139</v>
       </c>
       <c r="B388">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C388" t="s">
-        <v>3240</v>
+        <v>528</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>696</v>
+        <v>3139</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C389" t="s">
-        <v>697</v>
+        <v>528</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>740</v>
+        <v>3139</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C390" t="s">
-        <v>751</v>
+        <v>484</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>740</v>
+        <v>3139</v>
       </c>
       <c r="B391">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C391" t="s">
-        <v>752</v>
+        <v>484</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -19740,7 +19758,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B393">
         <v>2</v>
@@ -19751,420 +19769,420 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B394">
         <v>3</v>
       </c>
       <c r="C394" t="s">
-        <v>478</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B395">
         <v>4</v>
       </c>
       <c r="C395" t="s">
-        <v>478</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C396" t="s">
-        <v>455</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C397" t="s">
-        <v>455</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C398" t="s">
-        <v>455</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>264</v>
+        <v>696</v>
       </c>
       <c r="B399">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C399" t="s">
-        <v>455</v>
+        <v>697</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>264</v>
+        <v>740</v>
       </c>
       <c r="B400">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C400" t="s">
-        <v>455</v>
+        <v>751</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>264</v>
+        <v>740</v>
       </c>
       <c r="B401">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C401" t="s">
-        <v>455</v>
+        <v>752</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B402">
         <v>1</v>
       </c>
       <c r="C402" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B403">
         <v>2</v>
       </c>
       <c r="C403" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C404" t="s">
-        <v>549</v>
+        <v>478</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B405">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C405" t="s">
-        <v>549</v>
+        <v>478</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B406">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C406" t="s">
-        <v>3240</v>
+        <v>455</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B407">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C407" t="s">
-        <v>3240</v>
+        <v>455</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C408" t="s">
-        <v>3240</v>
+        <v>455</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B409">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C409" t="s">
-        <v>3240</v>
+        <v>455</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B410">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C410" t="s">
-        <v>3240</v>
+        <v>455</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B411">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C411" t="s">
-        <v>3240</v>
+        <v>455</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B412">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C412" t="s">
-        <v>3240</v>
+        <v>548</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C413" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C414" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C415" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B416">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C416" t="s">
-        <v>550</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C417" t="s">
-        <v>772</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B418">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C418" t="s">
-        <v>772</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B419">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C419" t="s">
-        <v>772</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B420">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C420" t="s">
-        <v>772</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B421">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C421" t="s">
-        <v>3028</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C422" t="s">
-        <v>485</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C423" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C424" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B425">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C425" t="s">
-        <v>485</v>
+        <v>550</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B426">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C426" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B427">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C427" t="s">
-        <v>521</v>
+        <v>772</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B428">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C428" t="s">
-        <v>530</v>
+        <v>772</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B429">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C429" t="s">
-        <v>530</v>
+        <v>772</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B430">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C430" t="s">
-        <v>524</v>
+        <v>772</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B431">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C431" t="s">
-        <v>534</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -20172,120 +20190,120 @@
         <v>59</v>
       </c>
       <c r="B432">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C432" t="s">
-        <v>717</v>
+        <v>485</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C433" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B434">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C434" t="s">
-        <v>3242</v>
+        <v>485</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B435">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C435" t="s">
-        <v>3242</v>
+        <v>485</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B436">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C436" t="s">
-        <v>3242</v>
+        <v>521</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B437">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C437" t="s">
-        <v>3242</v>
+        <v>521</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B438">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C438" t="s">
-        <v>3242</v>
+        <v>530</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B439">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C439" t="s">
-        <v>3242</v>
+        <v>530</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B440">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C440" t="s">
-        <v>3242</v>
+        <v>524</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B441">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C441" t="s">
-        <v>3242</v>
+        <v>534</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B442">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C442" t="s">
-        <v>3242</v>
+        <v>717</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -20293,10 +20311,10 @@
         <v>60</v>
       </c>
       <c r="B443">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C443" t="s">
-        <v>3242</v>
+        <v>479</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -20304,7 +20322,7 @@
         <v>60</v>
       </c>
       <c r="B444">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C444" t="s">
         <v>3242</v>
@@ -20312,167 +20330,167 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C445" t="s">
-        <v>478</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B446">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C446" t="s">
-        <v>552</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B447">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C447" t="s">
-        <v>553</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>62</v>
-      </c>
-      <c r="B448" s="4">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="B448">
+        <v>6</v>
       </c>
       <c r="C448" t="s">
-        <v>387</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B449">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C449" t="s">
-        <v>388</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B450">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C450" t="s">
-        <v>388</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C451" t="s">
-        <v>388</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B452">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C452" t="s">
-        <v>382</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B453">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C453" t="s">
-        <v>382</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B454">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C454" t="s">
-        <v>382</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B455">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C455" t="s">
-        <v>382</v>
+        <v>478</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B456">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C456" t="s">
-        <v>382</v>
+        <v>552</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B457">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C457" t="s">
-        <v>383</v>
+        <v>553</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B458">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C458" t="s">
-        <v>384</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>62</v>
       </c>
-      <c r="B459">
-        <v>14</v>
+      <c r="B459" s="4">
+        <v>2</v>
       </c>
       <c r="C459" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -20480,10 +20498,10 @@
         <v>62</v>
       </c>
       <c r="B460">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C460" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -20491,10 +20509,10 @@
         <v>62</v>
       </c>
       <c r="B461">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C461" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -20502,10 +20520,10 @@
         <v>62</v>
       </c>
       <c r="B462">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C462" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -20513,10 +20531,10 @@
         <v>62</v>
       </c>
       <c r="B463">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C463" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -20524,18 +20542,18 @@
         <v>62</v>
       </c>
       <c r="B464">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C464" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B465">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C465" t="s">
         <v>382</v>
@@ -20543,384 +20561,384 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B466">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C466" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B467">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C467" t="s">
-        <v>545</v>
+        <v>382</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C468" t="s">
-        <v>555</v>
+        <v>383</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B469">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C469" t="s">
-        <v>545</v>
+        <v>384</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B470">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C470" t="s">
-        <v>724</v>
+        <v>388</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B471">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C471" t="s">
-        <v>556</v>
+        <v>385</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B472">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C472" t="s">
-        <v>556</v>
+        <v>385</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C473" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C474" t="s">
-        <v>3029</v>
+        <v>386</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C475" t="s">
-        <v>478</v>
+        <v>386</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B476">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C476" t="s">
-        <v>478</v>
+        <v>382</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B477">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C477" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B478">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C478" t="s">
-        <v>3240</v>
+        <v>545</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B479">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C479" t="s">
-        <v>3240</v>
+        <v>555</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B480">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C480" t="s">
-        <v>3240</v>
+        <v>545</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B481">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C481" t="s">
-        <v>3240</v>
+        <v>724</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B482">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C482" t="s">
-        <v>3240</v>
+        <v>556</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B483">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C483" t="s">
-        <v>3240</v>
+        <v>556</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B484">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C484" t="s">
-        <v>3240</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B485">
         <v>1</v>
       </c>
       <c r="C485" t="s">
-        <v>479</v>
+        <v>388</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B486">
         <v>2</v>
       </c>
       <c r="C486" t="s">
-        <v>479</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B487">
         <v>3</v>
       </c>
       <c r="C487" t="s">
-        <v>3242</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B488">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C488" t="s">
-        <v>3242</v>
+        <v>478</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B489">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C489" t="s">
-        <v>3242</v>
+        <v>478</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B490">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C490" t="s">
-        <v>3242</v>
+        <v>478</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B491">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C491" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C492" t="s">
-        <v>479</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C493" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B494">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C494" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B495">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C495" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B496">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C496" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B497">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C497" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B498">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C498" t="s">
-        <v>3242</v>
+        <v>479</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B499">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C499" t="s">
-        <v>3242</v>
+        <v>479</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B500">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C500" t="s">
         <v>3242</v>
@@ -20928,530 +20946,530 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C501" t="s">
-        <v>545</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C502" t="s">
-        <v>555</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>441</v>
+        <v>69</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C503" t="s">
-        <v>444</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>441</v>
+        <v>69</v>
       </c>
       <c r="B504">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C504" t="s">
-        <v>444</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C505" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="B506">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C506" t="s">
-        <v>445</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="B507">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C507" t="s">
-        <v>445</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="B508">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C508" t="s">
-        <v>446</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="B509">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C509" t="s">
-        <v>446</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="B510">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C510" t="s">
-        <v>446</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="B511">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C511" t="s">
-        <v>447</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="B512">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C512" t="s">
-        <v>2874</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="B513">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C513" t="s">
-        <v>2874</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>441</v>
+        <v>71</v>
       </c>
       <c r="B514">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C514" t="s">
-        <v>2874</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B515">
         <v>1</v>
       </c>
       <c r="C515" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C516" t="s">
-        <v>478</v>
+        <v>555</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B517">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C517" t="s">
-        <v>529</v>
+        <v>444</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B518">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C518" t="s">
-        <v>529</v>
+        <v>444</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B519">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C519" t="s">
-        <v>2970</v>
+        <v>444</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B520">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C520" t="s">
-        <v>3240</v>
+        <v>445</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B521">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C521" t="s">
-        <v>3240</v>
+        <v>445</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B522">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C522" t="s">
-        <v>3240</v>
+        <v>446</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B523">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C523" t="s">
-        <v>3240</v>
+        <v>446</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B524">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C524" t="s">
-        <v>3240</v>
+        <v>446</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B525">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C525" t="s">
-        <v>3240</v>
+        <v>447</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B526">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C526" t="s">
-        <v>3240</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B527">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C527" t="s">
-        <v>3240</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>75</v>
+        <v>441</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C528" t="s">
-        <v>478</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C529" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C530" t="s">
-        <v>2970</v>
+        <v>478</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C531" t="s">
-        <v>3240</v>
+        <v>529</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B532">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C532" t="s">
-        <v>3240</v>
+        <v>529</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B533">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C533" t="s">
-        <v>3240</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B534">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C534" t="s">
-        <v>557</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C535" t="s">
-        <v>558</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B536">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C536" t="s">
-        <v>558</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C537" t="s">
-        <v>559</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B538">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C538" t="s">
-        <v>559</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B539">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C539" t="s">
-        <v>559</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B540">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C540" t="s">
-        <v>559</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B541">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C541" t="s">
-        <v>559</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B542">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C542" t="s">
-        <v>559</v>
+        <v>478</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B543">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C543" t="s">
-        <v>559</v>
+        <v>481</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B544">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C544" t="s">
-        <v>560</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B545">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C545" t="s">
-        <v>560</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B546">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C546" t="s">
-        <v>560</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B547">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C547" t="s">
-        <v>561</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C548" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -21459,10 +21477,10 @@
         <v>78</v>
       </c>
       <c r="B549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C549" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -21470,186 +21488,186 @@
         <v>78</v>
       </c>
       <c r="B550">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C550" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C551" t="s">
-        <v>478</v>
+        <v>559</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B552">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C552" t="s">
-        <v>478</v>
+        <v>559</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C553" t="s">
-        <v>482</v>
+        <v>559</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B554">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C554" t="s">
-        <v>478</v>
+        <v>559</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C555" t="s">
-        <v>725</v>
+        <v>559</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B556">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C556" t="s">
-        <v>3240</v>
+        <v>559</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B557">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C557" t="s">
-        <v>3240</v>
+        <v>559</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C558" t="s">
-        <v>3240</v>
+        <v>560</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B559">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C559" t="s">
-        <v>3240</v>
+        <v>560</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B560">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C560" t="s">
-        <v>3240</v>
+        <v>560</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B561">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C561" t="s">
-        <v>3240</v>
+        <v>561</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B562">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C562" t="s">
-        <v>3240</v>
+        <v>561</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B563">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C563" t="s">
-        <v>3240</v>
+        <v>561</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B564">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C564" t="s">
-        <v>3240</v>
+        <v>561</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B565">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C565" t="s">
-        <v>3240</v>
+        <v>478</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B566">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C566" t="s">
-        <v>3240</v>
+        <v>478</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -21657,10 +21675,10 @@
         <v>80</v>
       </c>
       <c r="B567">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C567" t="s">
-        <v>3240</v>
+        <v>482</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -21668,172 +21686,172 @@
         <v>80</v>
       </c>
       <c r="B568">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C568" t="s">
-        <v>3240</v>
+        <v>478</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C569" t="s">
-        <v>388</v>
+        <v>725</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B570">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C570" t="s">
-        <v>388</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B571">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C571" t="s">
-        <v>528</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B572">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C572" t="s">
-        <v>562</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B573">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C573" t="s">
-        <v>562</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B574">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C574" t="s">
-        <v>562</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B575">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C575" t="s">
-        <v>562</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B576">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C576" t="s">
-        <v>531</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B577">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C577" t="s">
-        <v>531</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B578">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C578" t="s">
-        <v>531</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B579">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C579" t="s">
-        <v>531</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B580">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C580" t="s">
-        <v>533</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B581">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C581" t="s">
-        <v>533</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B582">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C582" t="s">
-        <v>717</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B583">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C583" t="s">
         <v>388</v>
@@ -21841,164 +21859,164 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B584">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C584" t="s">
-        <v>724</v>
+        <v>388</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B585">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C585" t="s">
-        <v>2970</v>
+        <v>528</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C586" t="s">
-        <v>3241</v>
+        <v>562</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C587" t="s">
-        <v>479</v>
+        <v>562</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C588" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B589">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C589" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B590">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C590" t="s">
-        <v>3244</v>
+        <v>531</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B591">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C591" t="s">
-        <v>3244</v>
+        <v>531</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B592">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C592" t="s">
-        <v>3244</v>
+        <v>531</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C593" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B594">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C594" t="s">
-        <v>450</v>
+        <v>533</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C595" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B596">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C596" t="s">
-        <v>564</v>
+        <v>717</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B597">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C597" t="s">
-        <v>564</v>
+        <v>388</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B598">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C598" t="s">
         <v>724</v>
@@ -22006,397 +22024,584 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B599">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C599" t="s">
-        <v>3037</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B600">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C600" t="s">
-        <v>3101</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B601">
         <v>1</v>
       </c>
       <c r="C601" t="s">
-        <v>388</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C602" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C603" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B604">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C604" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B605">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C605" t="s">
-        <v>565</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B606">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C606" t="s">
-        <v>565</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B607">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C607" t="s">
-        <v>566</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B608">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C608" t="s">
-        <v>566</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B609">
         <v>1</v>
       </c>
       <c r="C609" t="s">
-        <v>724</v>
+        <v>450</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C610" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B611">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C611" t="s">
-        <v>451</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B612">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C612" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B613">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C613" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B614">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C614" t="s">
-        <v>388</v>
+        <v>564</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B615">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C615" t="s">
-        <v>533</v>
+        <v>724</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B616">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C616" t="s">
-        <v>717</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C617" t="s">
-        <v>724</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B618">
         <v>1</v>
       </c>
       <c r="C618" t="s">
-        <v>479</v>
+        <v>388</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B619">
         <v>2</v>
       </c>
       <c r="C619" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B620">
         <v>3</v>
       </c>
       <c r="C620" t="s">
-        <v>3242</v>
+        <v>528</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B621">
         <v>4</v>
       </c>
       <c r="C621" t="s">
-        <v>3242</v>
+        <v>528</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B622">
         <v>5</v>
       </c>
       <c r="C622" t="s">
-        <v>3242</v>
+        <v>565</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B623">
         <v>6</v>
       </c>
       <c r="C623" t="s">
-        <v>3242</v>
+        <v>565</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B624">
         <v>7</v>
       </c>
       <c r="C624" t="s">
-        <v>3242</v>
+        <v>566</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B625">
         <v>8</v>
       </c>
       <c r="C625" t="s">
-        <v>3242</v>
+        <v>566</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B626">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C626" t="s">
-        <v>3242</v>
+        <v>724</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B627">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C627" t="s">
-        <v>3242</v>
+        <v>451</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B628">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C628" t="s">
-        <v>3242</v>
+        <v>451</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B629">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C629" t="s">
-        <v>3242</v>
+        <v>567</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B630">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C630" t="s">
-        <v>3242</v>
+        <v>567</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B631">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C631" t="s">
-        <v>3242</v>
+        <v>388</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B632">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C632" t="s">
-        <v>3242</v>
+        <v>533</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B633">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C633" t="s">
-        <v>3242</v>
+        <v>717</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>92</v>
+      </c>
+      <c r="B634">
+        <v>1</v>
+      </c>
+      <c r="C634" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
         <v>93</v>
       </c>
-      <c r="B634">
+      <c r="B635">
+        <v>1</v>
+      </c>
+      <c r="C635" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>93</v>
+      </c>
+      <c r="B636">
+        <v>2</v>
+      </c>
+      <c r="C636" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>93</v>
+      </c>
+      <c r="B637">
+        <v>3</v>
+      </c>
+      <c r="C637" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>93</v>
+      </c>
+      <c r="B638">
+        <v>4</v>
+      </c>
+      <c r="C638" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>93</v>
+      </c>
+      <c r="B639">
+        <v>5</v>
+      </c>
+      <c r="C639" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>93</v>
+      </c>
+      <c r="B640">
+        <v>6</v>
+      </c>
+      <c r="C640" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>93</v>
+      </c>
+      <c r="B641">
+        <v>7</v>
+      </c>
+      <c r="C641" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>93</v>
+      </c>
+      <c r="B642">
+        <v>8</v>
+      </c>
+      <c r="C642" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>93</v>
+      </c>
+      <c r="B643">
+        <v>9</v>
+      </c>
+      <c r="C643" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>93</v>
+      </c>
+      <c r="B644">
+        <v>10</v>
+      </c>
+      <c r="C644" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>93</v>
+      </c>
+      <c r="B645">
+        <v>11</v>
+      </c>
+      <c r="C645" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>93</v>
+      </c>
+      <c r="B646">
+        <v>12</v>
+      </c>
+      <c r="C646" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>93</v>
+      </c>
+      <c r="B647">
+        <v>13</v>
+      </c>
+      <c r="C647" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>93</v>
+      </c>
+      <c r="B648">
+        <v>14</v>
+      </c>
+      <c r="C648" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>93</v>
+      </c>
+      <c r="B649">
+        <v>15</v>
+      </c>
+      <c r="C649" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>93</v>
+      </c>
+      <c r="B650">
+        <v>16</v>
+      </c>
+      <c r="C650" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>93</v>
+      </c>
+      <c r="B651">
         <v>17</v>
       </c>
-      <c r="C634" t="s">
+      <c r="C651" t="s">
         <v>3242</v>
       </c>
     </row>
@@ -44181,8 +44386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="A1:G201"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10399" uniqueCount="3292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10421" uniqueCount="3294">
   <si>
     <t>acuta</t>
   </si>
@@ -9898,6 +9898,12 @@
   </si>
   <si>
     <t>Photo from Shih &lt;em&gt;et al.&lt;/em&gt; (2016), Figure 6.</t>
+  </si>
+  <si>
+    <t>Photo by &lt;a href="https://www.inaturalist.org/observations/8606515"&gt;Ryan O'Donnell, posted on iNaturalist&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Sanya, China. Photo provided by Jeff Zhang.</t>
   </si>
 </sst>
 </file>
@@ -15433,10 +15439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C651"/>
+  <dimension ref="A1:C662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="C645" sqref="A1:C651"/>
+    <sheetView tabSelected="1" topLeftCell="A598" workbookViewId="0">
+      <selection activeCell="B613" sqref="B613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19659,13 +19665,13 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>3139</v>
+        <v>52</v>
       </c>
       <c r="B384">
         <v>1</v>
       </c>
       <c r="C384" t="s">
-        <v>528</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -19673,7 +19679,7 @@
         <v>3139</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C385" t="s">
         <v>528</v>
@@ -19684,7 +19690,7 @@
         <v>3139</v>
       </c>
       <c r="B386">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C386" t="s">
         <v>528</v>
@@ -19695,7 +19701,7 @@
         <v>3139</v>
       </c>
       <c r="B387">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C387" t="s">
         <v>528</v>
@@ -19706,7 +19712,7 @@
         <v>3139</v>
       </c>
       <c r="B388">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C388" t="s">
         <v>528</v>
@@ -19717,7 +19723,7 @@
         <v>3139</v>
       </c>
       <c r="B389">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C389" t="s">
         <v>528</v>
@@ -19728,10 +19734,10 @@
         <v>3139</v>
       </c>
       <c r="B390">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C390" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -19739,7 +19745,7 @@
         <v>3139</v>
       </c>
       <c r="B391">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C391" t="s">
         <v>484</v>
@@ -19747,13 +19753,13 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>54</v>
+        <v>3139</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C392" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -19761,7 +19767,7 @@
         <v>54</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C393" t="s">
         <v>478</v>
@@ -19772,10 +19778,10 @@
         <v>54</v>
       </c>
       <c r="B394">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C394" t="s">
-        <v>3240</v>
+        <v>478</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -19783,7 +19789,7 @@
         <v>54</v>
       </c>
       <c r="B395">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C395" t="s">
         <v>3240</v>
@@ -19794,7 +19800,7 @@
         <v>54</v>
       </c>
       <c r="B396">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C396" t="s">
         <v>3240</v>
@@ -19805,7 +19811,7 @@
         <v>54</v>
       </c>
       <c r="B397">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C397" t="s">
         <v>3240</v>
@@ -19816,7 +19822,7 @@
         <v>54</v>
       </c>
       <c r="B398">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C398" t="s">
         <v>3240</v>
@@ -19824,24 +19830,24 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>696</v>
+        <v>54</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C399" t="s">
-        <v>697</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>740</v>
+        <v>696</v>
       </c>
       <c r="B400">
         <v>1</v>
       </c>
       <c r="C400" t="s">
-        <v>751</v>
+        <v>697</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -19849,21 +19855,21 @@
         <v>740</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C401" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>55</v>
+        <v>740</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C402" t="s">
-        <v>478</v>
+        <v>752</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -19871,7 +19877,7 @@
         <v>55</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C403" t="s">
         <v>478</v>
@@ -19882,7 +19888,7 @@
         <v>55</v>
       </c>
       <c r="B404">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C404" t="s">
         <v>478</v>
@@ -19893,7 +19899,7 @@
         <v>55</v>
       </c>
       <c r="B405">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C405" t="s">
         <v>478</v>
@@ -19901,13 +19907,13 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C406" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -19915,7 +19921,7 @@
         <v>264</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C407" t="s">
         <v>455</v>
@@ -19926,7 +19932,7 @@
         <v>264</v>
       </c>
       <c r="B408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C408" t="s">
         <v>455</v>
@@ -19937,7 +19943,7 @@
         <v>264</v>
       </c>
       <c r="B409">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C409" t="s">
         <v>455</v>
@@ -19948,7 +19954,7 @@
         <v>264</v>
       </c>
       <c r="B410">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C410" t="s">
         <v>455</v>
@@ -19959,7 +19965,7 @@
         <v>264</v>
       </c>
       <c r="B411">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C411" t="s">
         <v>455</v>
@@ -19967,13 +19973,13 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C412" t="s">
-        <v>548</v>
+        <v>455</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -19981,7 +19987,7 @@
         <v>56</v>
       </c>
       <c r="B413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C413" t="s">
         <v>548</v>
@@ -19989,13 +19995,13 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C414" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -20003,7 +20009,7 @@
         <v>57</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C415" t="s">
         <v>549</v>
@@ -20014,10 +20020,10 @@
         <v>57</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C416" t="s">
-        <v>3240</v>
+        <v>549</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -20025,7 +20031,7 @@
         <v>57</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C417" t="s">
         <v>3240</v>
@@ -20036,7 +20042,7 @@
         <v>57</v>
       </c>
       <c r="B418">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C418" t="s">
         <v>3240</v>
@@ -20047,7 +20053,7 @@
         <v>57</v>
       </c>
       <c r="B419">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C419" t="s">
         <v>3240</v>
@@ -20058,7 +20064,7 @@
         <v>57</v>
       </c>
       <c r="B420">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C420" t="s">
         <v>3240</v>
@@ -20069,7 +20075,7 @@
         <v>57</v>
       </c>
       <c r="B421">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C421" t="s">
         <v>3240</v>
@@ -20080,7 +20086,7 @@
         <v>57</v>
       </c>
       <c r="B422">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C422" t="s">
         <v>3240</v>
@@ -20088,13 +20094,13 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C423" t="s">
-        <v>551</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -20102,7 +20108,7 @@
         <v>58</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C424" t="s">
         <v>551</v>
@@ -20113,10 +20119,10 @@
         <v>58</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C425" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -20124,7 +20130,7 @@
         <v>58</v>
       </c>
       <c r="B426">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C426" t="s">
         <v>550</v>
@@ -20135,10 +20141,10 @@
         <v>58</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C427" t="s">
-        <v>772</v>
+        <v>550</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -20146,7 +20152,7 @@
         <v>58</v>
       </c>
       <c r="B428">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C428" t="s">
         <v>772</v>
@@ -20157,7 +20163,7 @@
         <v>58</v>
       </c>
       <c r="B429">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C429" t="s">
         <v>772</v>
@@ -20168,7 +20174,7 @@
         <v>58</v>
       </c>
       <c r="B430">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C430" t="s">
         <v>772</v>
@@ -20179,21 +20185,21 @@
         <v>58</v>
       </c>
       <c r="B431">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C431" t="s">
-        <v>3028</v>
+        <v>772</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C432" t="s">
-        <v>485</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -20201,7 +20207,7 @@
         <v>59</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C433" t="s">
         <v>485</v>
@@ -20212,7 +20218,7 @@
         <v>59</v>
       </c>
       <c r="B434">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C434" t="s">
         <v>485</v>
@@ -20223,7 +20229,7 @@
         <v>59</v>
       </c>
       <c r="B435">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C435" t="s">
         <v>485</v>
@@ -20234,10 +20240,10 @@
         <v>59</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C436" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -20245,7 +20251,7 @@
         <v>59</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C437" t="s">
         <v>521</v>
@@ -20256,10 +20262,10 @@
         <v>59</v>
       </c>
       <c r="B438">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C438" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -20267,7 +20273,7 @@
         <v>59</v>
       </c>
       <c r="B439">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C439" t="s">
         <v>530</v>
@@ -20278,10 +20284,10 @@
         <v>59</v>
       </c>
       <c r="B440">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C440" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -20289,10 +20295,10 @@
         <v>59</v>
       </c>
       <c r="B441">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -20300,21 +20306,21 @@
         <v>59</v>
       </c>
       <c r="B442">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C442" t="s">
-        <v>717</v>
+        <v>534</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C443" t="s">
-        <v>479</v>
+        <v>717</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -20322,10 +20328,10 @@
         <v>60</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C444" t="s">
-        <v>3242</v>
+        <v>479</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -20333,7 +20339,7 @@
         <v>60</v>
       </c>
       <c r="B445">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C445" t="s">
         <v>3242</v>
@@ -20344,7 +20350,7 @@
         <v>60</v>
       </c>
       <c r="B446">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C446" t="s">
         <v>3242</v>
@@ -20355,7 +20361,7 @@
         <v>60</v>
       </c>
       <c r="B447">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C447" t="s">
         <v>3242</v>
@@ -20366,7 +20372,7 @@
         <v>60</v>
       </c>
       <c r="B448">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C448" t="s">
         <v>3242</v>
@@ -20377,7 +20383,7 @@
         <v>60</v>
       </c>
       <c r="B449">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C449" t="s">
         <v>3242</v>
@@ -20388,7 +20394,7 @@
         <v>60</v>
       </c>
       <c r="B450">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C450" t="s">
         <v>3242</v>
@@ -20399,7 +20405,7 @@
         <v>60</v>
       </c>
       <c r="B451">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C451" t="s">
         <v>3242</v>
@@ -20410,7 +20416,7 @@
         <v>60</v>
       </c>
       <c r="B452">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C452" t="s">
         <v>3242</v>
@@ -20421,7 +20427,7 @@
         <v>60</v>
       </c>
       <c r="B453">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C453" t="s">
         <v>3242</v>
@@ -20432,7 +20438,7 @@
         <v>60</v>
       </c>
       <c r="B454">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C454" t="s">
         <v>3242</v>
@@ -20440,13 +20446,13 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C455" t="s">
-        <v>478</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -20454,10 +20460,10 @@
         <v>61</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C456" t="s">
-        <v>552</v>
+        <v>478</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -20465,10 +20471,10 @@
         <v>61</v>
       </c>
       <c r="B457">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C457" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -20476,32 +20482,32 @@
         <v>61</v>
       </c>
       <c r="B458">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C458" t="s">
-        <v>3291</v>
+        <v>553</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>62</v>
-      </c>
-      <c r="B459" s="4">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="B459">
+        <v>4</v>
       </c>
       <c r="C459" t="s">
-        <v>387</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>62</v>
       </c>
-      <c r="B460">
-        <v>3</v>
+      <c r="B460" s="4">
+        <v>2</v>
       </c>
       <c r="C460" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -20509,7 +20515,7 @@
         <v>62</v>
       </c>
       <c r="B461">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C461" t="s">
         <v>388</v>
@@ -20520,7 +20526,7 @@
         <v>62</v>
       </c>
       <c r="B462">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C462" t="s">
         <v>388</v>
@@ -20531,10 +20537,10 @@
         <v>62</v>
       </c>
       <c r="B463">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C463" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -20542,7 +20548,7 @@
         <v>62</v>
       </c>
       <c r="B464">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C464" t="s">
         <v>382</v>
@@ -20553,7 +20559,7 @@
         <v>62</v>
       </c>
       <c r="B465">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C465" t="s">
         <v>382</v>
@@ -20564,7 +20570,7 @@
         <v>62</v>
       </c>
       <c r="B466">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C466" t="s">
         <v>382</v>
@@ -20575,7 +20581,7 @@
         <v>62</v>
       </c>
       <c r="B467">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C467" t="s">
         <v>382</v>
@@ -20586,10 +20592,10 @@
         <v>62</v>
       </c>
       <c r="B468">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C468" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -20597,10 +20603,10 @@
         <v>62</v>
       </c>
       <c r="B469">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C469" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -20608,10 +20614,10 @@
         <v>62</v>
       </c>
       <c r="B470">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C470" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -20619,10 +20625,10 @@
         <v>62</v>
       </c>
       <c r="B471">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C471" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -20630,7 +20636,7 @@
         <v>62</v>
       </c>
       <c r="B472">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C472" t="s">
         <v>385</v>
@@ -20641,10 +20647,10 @@
         <v>62</v>
       </c>
       <c r="B473">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C473" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -20652,7 +20658,7 @@
         <v>62</v>
       </c>
       <c r="B474">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C474" t="s">
         <v>386</v>
@@ -20663,7 +20669,7 @@
         <v>62</v>
       </c>
       <c r="B475">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C475" t="s">
         <v>386</v>
@@ -20671,13 +20677,13 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B476">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C476" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -20685,10 +20691,10 @@
         <v>63</v>
       </c>
       <c r="B477">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C477" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -20696,21 +20702,21 @@
         <v>63</v>
       </c>
       <c r="B478">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C478" t="s">
-        <v>545</v>
+        <v>388</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C479" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -20718,10 +20724,10 @@
         <v>65</v>
       </c>
       <c r="B480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C480" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -20729,10 +20735,10 @@
         <v>65</v>
       </c>
       <c r="B481">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C481" t="s">
-        <v>724</v>
+        <v>545</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -20740,10 +20746,10 @@
         <v>65</v>
       </c>
       <c r="B482">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C482" t="s">
-        <v>556</v>
+        <v>724</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -20751,7 +20757,7 @@
         <v>65</v>
       </c>
       <c r="B483">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C483" t="s">
         <v>556</v>
@@ -20759,24 +20765,24 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C484" t="s">
-        <v>3289</v>
+        <v>556</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B485">
         <v>1</v>
       </c>
       <c r="C485" t="s">
-        <v>388</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -20784,10 +20790,10 @@
         <v>67</v>
       </c>
       <c r="B486">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C486" t="s">
-        <v>3029</v>
+        <v>388</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -20795,21 +20801,21 @@
         <v>67</v>
       </c>
       <c r="B487">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C487" t="s">
-        <v>3289</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C488" t="s">
-        <v>478</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -20817,7 +20823,7 @@
         <v>68</v>
       </c>
       <c r="B489">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C489" t="s">
         <v>478</v>
@@ -20828,7 +20834,7 @@
         <v>68</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C490" t="s">
         <v>478</v>
@@ -20839,10 +20845,10 @@
         <v>68</v>
       </c>
       <c r="B491">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C491" t="s">
-        <v>3240</v>
+        <v>478</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -20850,7 +20856,7 @@
         <v>68</v>
       </c>
       <c r="B492">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C492" t="s">
         <v>3240</v>
@@ -20861,7 +20867,7 @@
         <v>68</v>
       </c>
       <c r="B493">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C493" t="s">
         <v>3240</v>
@@ -20872,7 +20878,7 @@
         <v>68</v>
       </c>
       <c r="B494">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C494" t="s">
         <v>3240</v>
@@ -20883,7 +20889,7 @@
         <v>68</v>
       </c>
       <c r="B495">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C495" t="s">
         <v>3240</v>
@@ -20894,7 +20900,7 @@
         <v>68</v>
       </c>
       <c r="B496">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C496" t="s">
         <v>3240</v>
@@ -20905,7 +20911,7 @@
         <v>68</v>
       </c>
       <c r="B497">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C497" t="s">
         <v>3240</v>
@@ -20913,13 +20919,13 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C498" t="s">
-        <v>479</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -20927,7 +20933,7 @@
         <v>69</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C499" t="s">
         <v>479</v>
@@ -20938,10 +20944,10 @@
         <v>69</v>
       </c>
       <c r="B500">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C500" t="s">
-        <v>3242</v>
+        <v>479</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -20949,7 +20955,7 @@
         <v>69</v>
       </c>
       <c r="B501">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C501" t="s">
         <v>3242</v>
@@ -20960,7 +20966,7 @@
         <v>69</v>
       </c>
       <c r="B502">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C502" t="s">
         <v>3242</v>
@@ -20971,7 +20977,7 @@
         <v>69</v>
       </c>
       <c r="B503">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C503" t="s">
         <v>3242</v>
@@ -20982,7 +20988,7 @@
         <v>69</v>
       </c>
       <c r="B504">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C504" t="s">
         <v>3242</v>
@@ -20990,13 +20996,13 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C505" t="s">
-        <v>479</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -21004,10 +21010,10 @@
         <v>70</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C506" t="s">
-        <v>3242</v>
+        <v>479</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -21015,7 +21021,7 @@
         <v>70</v>
       </c>
       <c r="B507">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C507" t="s">
         <v>3242</v>
@@ -21026,7 +21032,7 @@
         <v>70</v>
       </c>
       <c r="B508">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C508" t="s">
         <v>3242</v>
@@ -21037,7 +21043,7 @@
         <v>70</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C509" t="s">
         <v>3242</v>
@@ -21048,7 +21054,7 @@
         <v>70</v>
       </c>
       <c r="B510">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C510" t="s">
         <v>3242</v>
@@ -21059,7 +21065,7 @@
         <v>70</v>
       </c>
       <c r="B511">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C511" t="s">
         <v>3242</v>
@@ -21070,7 +21076,7 @@
         <v>70</v>
       </c>
       <c r="B512">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C512" t="s">
         <v>3242</v>
@@ -21081,7 +21087,7 @@
         <v>70</v>
       </c>
       <c r="B513">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C513" t="s">
         <v>3242</v>
@@ -21089,46 +21095,46 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C514" t="s">
-        <v>3286</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B515">
         <v>1</v>
       </c>
       <c r="C515" t="s">
-        <v>545</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B516">
         <v>1</v>
       </c>
       <c r="C516" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>441</v>
+        <v>73</v>
       </c>
       <c r="B517">
         <v>1</v>
       </c>
       <c r="C517" t="s">
-        <v>444</v>
+        <v>555</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -21136,7 +21142,7 @@
         <v>441</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C518" t="s">
         <v>444</v>
@@ -21147,7 +21153,7 @@
         <v>441</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C519" t="s">
         <v>444</v>
@@ -21158,10 +21164,10 @@
         <v>441</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C520" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -21169,7 +21175,7 @@
         <v>441</v>
       </c>
       <c r="B521">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C521" t="s">
         <v>445</v>
@@ -21180,10 +21186,10 @@
         <v>441</v>
       </c>
       <c r="B522">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C522" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -21191,7 +21197,7 @@
         <v>441</v>
       </c>
       <c r="B523">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C523" t="s">
         <v>446</v>
@@ -21202,7 +21208,7 @@
         <v>441</v>
       </c>
       <c r="B524">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C524" t="s">
         <v>446</v>
@@ -21213,10 +21219,10 @@
         <v>441</v>
       </c>
       <c r="B525">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C525" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -21224,10 +21230,10 @@
         <v>441</v>
       </c>
       <c r="B526">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C526" t="s">
-        <v>2874</v>
+        <v>447</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -21235,7 +21241,7 @@
         <v>441</v>
       </c>
       <c r="B527">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C527" t="s">
         <v>2874</v>
@@ -21246,7 +21252,7 @@
         <v>441</v>
       </c>
       <c r="B528">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C528" t="s">
         <v>2874</v>
@@ -21254,13 +21260,13 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C529" t="s">
-        <v>478</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -21268,7 +21274,7 @@
         <v>74</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C530" t="s">
         <v>478</v>
@@ -21279,10 +21285,10 @@
         <v>74</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C531" t="s">
-        <v>529</v>
+        <v>478</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -21290,7 +21296,7 @@
         <v>74</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C532" t="s">
         <v>529</v>
@@ -21301,10 +21307,10 @@
         <v>74</v>
       </c>
       <c r="B533">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C533" t="s">
-        <v>2970</v>
+        <v>529</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -21312,10 +21318,10 @@
         <v>74</v>
       </c>
       <c r="B534">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C534" t="s">
-        <v>3240</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -21323,7 +21329,7 @@
         <v>74</v>
       </c>
       <c r="B535">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C535" t="s">
         <v>3240</v>
@@ -21334,7 +21340,7 @@
         <v>74</v>
       </c>
       <c r="B536">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C536" t="s">
         <v>3240</v>
@@ -21345,7 +21351,7 @@
         <v>74</v>
       </c>
       <c r="B537">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C537" t="s">
         <v>3240</v>
@@ -21356,7 +21362,7 @@
         <v>74</v>
       </c>
       <c r="B538">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C538" t="s">
         <v>3240</v>
@@ -21367,7 +21373,7 @@
         <v>74</v>
       </c>
       <c r="B539">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C539" t="s">
         <v>3240</v>
@@ -21378,7 +21384,7 @@
         <v>74</v>
       </c>
       <c r="B540">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C540" t="s">
         <v>3240</v>
@@ -21389,7 +21395,7 @@
         <v>74</v>
       </c>
       <c r="B541">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C541" t="s">
         <v>3240</v>
@@ -21397,13 +21403,13 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C542" t="s">
-        <v>478</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -21411,10 +21417,10 @@
         <v>75</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C543" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -21422,10 +21428,10 @@
         <v>75</v>
       </c>
       <c r="B544">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C544" t="s">
-        <v>2970</v>
+        <v>481</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -21433,10 +21439,10 @@
         <v>75</v>
       </c>
       <c r="B545">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C545" t="s">
-        <v>3240</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -21444,7 +21450,7 @@
         <v>75</v>
       </c>
       <c r="B546">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C546" t="s">
         <v>3240</v>
@@ -21455,7 +21461,7 @@
         <v>75</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C547" t="s">
         <v>3240</v>
@@ -21463,24 +21469,24 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C548" t="s">
-        <v>557</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B549">
         <v>1</v>
       </c>
       <c r="C549" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -21488,7 +21494,7 @@
         <v>78</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C550" t="s">
         <v>558</v>
@@ -21499,10 +21505,10 @@
         <v>78</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C551" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -21510,7 +21516,7 @@
         <v>78</v>
       </c>
       <c r="B552">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C552" t="s">
         <v>559</v>
@@ -21521,7 +21527,7 @@
         <v>78</v>
       </c>
       <c r="B553">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C553" t="s">
         <v>559</v>
@@ -21532,7 +21538,7 @@
         <v>78</v>
       </c>
       <c r="B554">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C554" t="s">
         <v>559</v>
@@ -21543,7 +21549,7 @@
         <v>78</v>
       </c>
       <c r="B555">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C555" t="s">
         <v>559</v>
@@ -21554,7 +21560,7 @@
         <v>78</v>
       </c>
       <c r="B556">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C556" t="s">
         <v>559</v>
@@ -21565,7 +21571,7 @@
         <v>78</v>
       </c>
       <c r="B557">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C557" t="s">
         <v>559</v>
@@ -21576,10 +21582,10 @@
         <v>78</v>
       </c>
       <c r="B558">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C558" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -21587,7 +21593,7 @@
         <v>78</v>
       </c>
       <c r="B559">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C559" t="s">
         <v>560</v>
@@ -21598,7 +21604,7 @@
         <v>78</v>
       </c>
       <c r="B560">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C560" t="s">
         <v>560</v>
@@ -21609,10 +21615,10 @@
         <v>78</v>
       </c>
       <c r="B561">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C561" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -21620,7 +21626,7 @@
         <v>78</v>
       </c>
       <c r="B562">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C562" t="s">
         <v>561</v>
@@ -21631,7 +21637,7 @@
         <v>78</v>
       </c>
       <c r="B563">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C563" t="s">
         <v>561</v>
@@ -21642,7 +21648,7 @@
         <v>78</v>
       </c>
       <c r="B564">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C564" t="s">
         <v>561</v>
@@ -21650,13 +21656,13 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C565" t="s">
-        <v>478</v>
+        <v>561</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -21664,7 +21670,7 @@
         <v>79</v>
       </c>
       <c r="B566">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C566" t="s">
         <v>478</v>
@@ -21672,13 +21678,13 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C567" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -21686,10 +21692,10 @@
         <v>80</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C568" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -21697,10 +21703,10 @@
         <v>80</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C569" t="s">
-        <v>725</v>
+        <v>478</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -21708,10 +21714,10 @@
         <v>80</v>
       </c>
       <c r="B570">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C570" t="s">
-        <v>3240</v>
+        <v>725</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -21719,7 +21725,7 @@
         <v>80</v>
       </c>
       <c r="B571">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C571" t="s">
         <v>3240</v>
@@ -21730,7 +21736,7 @@
         <v>80</v>
       </c>
       <c r="B572">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C572" t="s">
         <v>3240</v>
@@ -21741,7 +21747,7 @@
         <v>80</v>
       </c>
       <c r="B573">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C573" t="s">
         <v>3240</v>
@@ -21752,7 +21758,7 @@
         <v>80</v>
       </c>
       <c r="B574">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C574" t="s">
         <v>3240</v>
@@ -21763,7 +21769,7 @@
         <v>80</v>
       </c>
       <c r="B575">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C575" t="s">
         <v>3240</v>
@@ -21774,7 +21780,7 @@
         <v>80</v>
       </c>
       <c r="B576">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C576" t="s">
         <v>3240</v>
@@ -21785,7 +21791,7 @@
         <v>80</v>
       </c>
       <c r="B577">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C577" t="s">
         <v>3240</v>
@@ -21796,7 +21802,7 @@
         <v>80</v>
       </c>
       <c r="B578">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C578" t="s">
         <v>3240</v>
@@ -21807,7 +21813,7 @@
         <v>80</v>
       </c>
       <c r="B579">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C579" t="s">
         <v>3240</v>
@@ -21818,7 +21824,7 @@
         <v>80</v>
       </c>
       <c r="B580">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C580" t="s">
         <v>3240</v>
@@ -21829,7 +21835,7 @@
         <v>80</v>
       </c>
       <c r="B581">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C581" t="s">
         <v>3240</v>
@@ -21840,7 +21846,7 @@
         <v>80</v>
       </c>
       <c r="B582">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C582" t="s">
         <v>3240</v>
@@ -21848,13 +21854,13 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B583">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C583" t="s">
-        <v>388</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -21862,7 +21868,7 @@
         <v>81</v>
       </c>
       <c r="B584">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C584" t="s">
         <v>388</v>
@@ -21873,10 +21879,10 @@
         <v>81</v>
       </c>
       <c r="B585">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C585" t="s">
-        <v>528</v>
+        <v>388</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -21884,10 +21890,10 @@
         <v>81</v>
       </c>
       <c r="B586">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C586" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -21895,7 +21901,7 @@
         <v>81</v>
       </c>
       <c r="B587">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C587" t="s">
         <v>562</v>
@@ -21906,7 +21912,7 @@
         <v>81</v>
       </c>
       <c r="B588">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C588" t="s">
         <v>562</v>
@@ -21917,7 +21923,7 @@
         <v>81</v>
       </c>
       <c r="B589">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C589" t="s">
         <v>562</v>
@@ -21928,10 +21934,10 @@
         <v>81</v>
       </c>
       <c r="B590">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C590" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -21939,7 +21945,7 @@
         <v>81</v>
       </c>
       <c r="B591">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C591" t="s">
         <v>531</v>
@@ -21950,7 +21956,7 @@
         <v>81</v>
       </c>
       <c r="B592">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C592" t="s">
         <v>531</v>
@@ -21961,7 +21967,7 @@
         <v>81</v>
       </c>
       <c r="B593">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C593" t="s">
         <v>531</v>
@@ -21972,10 +21978,10 @@
         <v>81</v>
       </c>
       <c r="B594">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C594" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -21983,7 +21989,7 @@
         <v>81</v>
       </c>
       <c r="B595">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C595" t="s">
         <v>533</v>
@@ -21994,21 +22000,21 @@
         <v>81</v>
       </c>
       <c r="B596">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C596" t="s">
-        <v>717</v>
+        <v>533</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C597" t="s">
-        <v>388</v>
+        <v>717</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -22016,10 +22022,10 @@
         <v>82</v>
       </c>
       <c r="B598">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C598" t="s">
-        <v>724</v>
+        <v>388</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -22027,10 +22033,10 @@
         <v>82</v>
       </c>
       <c r="B599">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C599" t="s">
-        <v>2970</v>
+        <v>724</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -22038,32 +22044,32 @@
         <v>82</v>
       </c>
       <c r="B600">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C600" t="s">
-        <v>3288</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C601" t="s">
-        <v>3241</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B602">
         <v>1</v>
       </c>
       <c r="C602" t="s">
-        <v>479</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -22071,10 +22077,10 @@
         <v>84</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C603" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -22082,10 +22088,10 @@
         <v>84</v>
       </c>
       <c r="B604">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C604" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -22093,10 +22099,10 @@
         <v>84</v>
       </c>
       <c r="B605">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C605" t="s">
-        <v>3244</v>
+        <v>524</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -22104,7 +22110,7 @@
         <v>84</v>
       </c>
       <c r="B606">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C606" t="s">
         <v>3244</v>
@@ -22115,7 +22121,7 @@
         <v>84</v>
       </c>
       <c r="B607">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C607" t="s">
         <v>3244</v>
@@ -22126,21 +22132,21 @@
         <v>84</v>
       </c>
       <c r="B608">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C608" t="s">
-        <v>3286</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C609" t="s">
-        <v>450</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -22148,7 +22154,7 @@
         <v>85</v>
       </c>
       <c r="B610">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C610" t="s">
         <v>450</v>
@@ -22156,175 +22162,175 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C611" t="s">
-        <v>3288</v>
+        <v>450</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C612" t="s">
-        <v>563</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C613" t="s">
-        <v>564</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B614">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C614" t="s">
-        <v>564</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B615">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C615" t="s">
-        <v>724</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B616">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C616" t="s">
-        <v>3037</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B617">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C617" t="s">
-        <v>3101</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B618">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C618" t="s">
-        <v>388</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B619">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C619" t="s">
-        <v>528</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B620">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C620" t="s">
-        <v>528</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B621">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C621" t="s">
-        <v>528</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B622">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C622" t="s">
-        <v>565</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B623">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C623" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B624">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C624" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B625">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C625" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C626" t="s">
         <v>724</v>
@@ -22332,211 +22338,211 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C627" t="s">
-        <v>451</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B628">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C628" t="s">
-        <v>451</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B629">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C629" t="s">
-        <v>567</v>
+        <v>388</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B630">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C630" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B631">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C631" t="s">
-        <v>388</v>
+        <v>528</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B632">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C632" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B633">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C633" t="s">
-        <v>717</v>
+        <v>565</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B634">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C634" t="s">
-        <v>724</v>
+        <v>565</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C635" t="s">
-        <v>479</v>
+        <v>566</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B636">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C636" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B637">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C637" t="s">
-        <v>3242</v>
+        <v>724</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B638">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C638" t="s">
-        <v>3242</v>
+        <v>451</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B639">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C639" t="s">
-        <v>3242</v>
+        <v>451</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B640">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C640" t="s">
-        <v>3242</v>
+        <v>567</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B641">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C641" t="s">
-        <v>3242</v>
+        <v>567</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B642">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C642" t="s">
-        <v>3242</v>
+        <v>388</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B643">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C643" t="s">
-        <v>3242</v>
+        <v>533</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B644">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C644" t="s">
-        <v>3242</v>
+        <v>717</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B645">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C645" t="s">
-        <v>3242</v>
+        <v>724</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -22544,10 +22550,10 @@
         <v>93</v>
       </c>
       <c r="B646">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C646" t="s">
-        <v>3242</v>
+        <v>479</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -22555,10 +22561,10 @@
         <v>93</v>
       </c>
       <c r="B647">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C647" t="s">
-        <v>3242</v>
+        <v>568</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -22566,7 +22572,7 @@
         <v>93</v>
       </c>
       <c r="B648">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C648" t="s">
         <v>3242</v>
@@ -22577,7 +22583,7 @@
         <v>93</v>
       </c>
       <c r="B649">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C649" t="s">
         <v>3242</v>
@@ -22588,7 +22594,7 @@
         <v>93</v>
       </c>
       <c r="B650">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C650" t="s">
         <v>3242</v>
@@ -22599,9 +22605,130 @@
         <v>93</v>
       </c>
       <c r="B651">
+        <v>6</v>
+      </c>
+      <c r="C651" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>93</v>
+      </c>
+      <c r="B652">
+        <v>7</v>
+      </c>
+      <c r="C652" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>93</v>
+      </c>
+      <c r="B653">
+        <v>8</v>
+      </c>
+      <c r="C653" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>93</v>
+      </c>
+      <c r="B654">
+        <v>9</v>
+      </c>
+      <c r="C654" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>93</v>
+      </c>
+      <c r="B655">
+        <v>10</v>
+      </c>
+      <c r="C655" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>93</v>
+      </c>
+      <c r="B656">
+        <v>11</v>
+      </c>
+      <c r="C656" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>93</v>
+      </c>
+      <c r="B657">
+        <v>12</v>
+      </c>
+      <c r="C657" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>93</v>
+      </c>
+      <c r="B658">
+        <v>13</v>
+      </c>
+      <c r="C658" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>93</v>
+      </c>
+      <c r="B659">
+        <v>14</v>
+      </c>
+      <c r="C659" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>93</v>
+      </c>
+      <c r="B660">
+        <v>15</v>
+      </c>
+      <c r="C660" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>93</v>
+      </c>
+      <c r="B661">
+        <v>16</v>
+      </c>
+      <c r="C661" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>93</v>
+      </c>
+      <c r="B662">
         <v>17</v>
       </c>
-      <c r="C651" t="s">
+      <c r="C662" t="s">
         <v>3242</v>
       </c>
     </row>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="2"/>
+    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="species_info" sheetId="1" r:id="rId1"/>
@@ -9681,9 +9681,6 @@
     <t>Southern Calling Fiddler Crab; Two-toned Fiddler Crab</t>
   </si>
   <si>
-    <t>Less commonly used in English, the term &amp;ldquo;Calling Crab&amp;rdquo; derives from one of the earliest scientific papers to include these crabs, [[Rumphius1705,.out]]. Rumphius names one of his species &lt;em class="species"&gt;Cancer vocans&lt;/em&gt;  which is Latin for &amp;ldquo;calling crab&amp;rdquo; or &amp;ldquo;gesturing crab.&amp;rdquo; He also reports the name &amp;ldquo;Cattam Pangel&amp;rdquo; which appears to most likely be a form of Malay meaning &amp;ldquo;summoning crab,&amp;rdquo; and is probably from where he derived the Latin name. In a later work [[Rumphius1711,.in]] he includes a Dutch name &amp;ldquo;Roepende Krabbe,&amp;rdquo; which also translates to Calling Crab.</t>
-  </si>
-  <si>
     <t>Blanchard1890</t>
   </si>
   <si>
@@ -9904,6 +9901,9 @@
   </si>
   <si>
     <t>Sanya, China. Photo provided by Jeff Zhang.</t>
+  </si>
+  <si>
+    <t>Less commonly used in English, the term &amp;ldquo;Calling Crab&amp;rdquo; derives from one of the earliest scientific papers to include these crabs, [[Rumphius1705,.out]]. Rumphius names one of his species &lt;em class="species"&gt;Cancer vocans&lt;/em&gt;  which is Latin for &amp;ldquo;calling crab&amp;rdquo; or &amp;ldquo;gesturing crab.&amp;rdquo; He also reports the name &amp;ldquo;Cattam Pangel&amp;rdquo; which appears to most likely be a form of Malay meaning &amp;ldquo;summoning crab,&amp;rdquo; and is probably from where he derived the Latin name. In a later work ([[Rumphius1711,.in]]) he includes a Dutch name &amp;ldquo;Roepende Krabbe,&amp;rdquo; which also translates to Calling Crab.</t>
   </si>
 </sst>
 </file>
@@ -11248,7 +11248,7 @@
         <v>423</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>509</v>
@@ -14328,7 +14328,7 @@
         <v>206</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>731</v>
@@ -14812,7 +14812,7 @@
         <v>232</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>723</v>
@@ -15441,7 +15441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A598" workbookViewId="0">
+    <sheetView topLeftCell="A598" workbookViewId="0">
       <selection activeCell="B613" sqref="B613"/>
     </sheetView>
   </sheetViews>
@@ -15557,7 +15557,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15766,7 +15766,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15777,7 +15777,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15788,7 +15788,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15799,7 +15799,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15810,7 +15810,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15821,7 +15821,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15865,7 +15865,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15876,7 +15876,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15887,7 +15887,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15898,7 +15898,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15909,7 +15909,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15920,7 +15920,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -16261,7 +16261,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -16272,7 +16272,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -16283,7 +16283,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -16294,7 +16294,7 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -16305,7 +16305,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -16316,7 +16316,7 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -16327,7 +16327,7 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -16338,7 +16338,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -16349,7 +16349,7 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -16360,7 +16360,7 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -16371,7 +16371,7 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -16382,7 +16382,7 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -16393,7 +16393,7 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -16404,7 +16404,7 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -16415,7 +16415,7 @@
         <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -16426,7 +16426,7 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -16437,7 +16437,7 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -16448,7 +16448,7 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -16459,7 +16459,7 @@
         <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -16470,7 +16470,7 @@
         <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -16481,7 +16481,7 @@
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -16492,7 +16492,7 @@
         <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -16503,7 +16503,7 @@
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -16514,7 +16514,7 @@
         <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -16591,7 +16591,7 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -16657,7 +16657,7 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -16668,7 +16668,7 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -16679,7 +16679,7 @@
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -16690,7 +16690,7 @@
         <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -16701,7 +16701,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -16712,7 +16712,7 @@
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -16723,7 +16723,7 @@
         <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -17295,7 +17295,7 @@
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -17493,7 +17493,7 @@
         <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -17504,7 +17504,7 @@
         <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -17515,7 +17515,7 @@
         <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -17614,7 +17614,7 @@
         <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -17625,7 +17625,7 @@
         <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -17636,7 +17636,7 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -17647,7 +17647,7 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -17658,7 +17658,7 @@
         <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -17669,7 +17669,7 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -17680,7 +17680,7 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -17691,7 +17691,7 @@
         <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -17702,7 +17702,7 @@
         <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -17713,7 +17713,7 @@
         <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -17724,7 +17724,7 @@
         <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -17889,7 +17889,7 @@
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -17900,7 +17900,7 @@
         <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -17911,7 +17911,7 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -17922,7 +17922,7 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -17933,7 +17933,7 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -17944,7 +17944,7 @@
         <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -17955,7 +17955,7 @@
         <v>11</v>
       </c>
       <c r="C228" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -17966,7 +17966,7 @@
         <v>12</v>
       </c>
       <c r="C229" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -17977,7 +17977,7 @@
         <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -17988,7 +17988,7 @@
         <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -17999,7 +17999,7 @@
         <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -18010,7 +18010,7 @@
         <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -18021,7 +18021,7 @@
         <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -18032,7 +18032,7 @@
         <v>18</v>
       </c>
       <c r="C235" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -18043,7 +18043,7 @@
         <v>19</v>
       </c>
       <c r="C236" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -18087,7 +18087,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -18098,7 +18098,7 @@
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -18109,7 +18109,7 @@
         <v>6</v>
       </c>
       <c r="C242" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -18120,7 +18120,7 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -18131,7 +18131,7 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -18142,18 +18142,18 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -18164,7 +18164,7 @@
         <v>10</v>
       </c>
       <c r="C247" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -18494,7 +18494,7 @@
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -18505,7 +18505,7 @@
         <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -18516,7 +18516,7 @@
         <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -18527,7 +18527,7 @@
         <v>8</v>
       </c>
       <c r="C280" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -18538,7 +18538,7 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -18549,7 +18549,7 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -18560,7 +18560,7 @@
         <v>11</v>
       </c>
       <c r="C283" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -18571,7 +18571,7 @@
         <v>12</v>
       </c>
       <c r="C284" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -18582,7 +18582,7 @@
         <v>13</v>
       </c>
       <c r="C285" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -18593,7 +18593,7 @@
         <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -18615,7 +18615,7 @@
         <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -18648,7 +18648,7 @@
         <v>3</v>
       </c>
       <c r="C291" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -18659,7 +18659,7 @@
         <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -18670,7 +18670,7 @@
         <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -18681,7 +18681,7 @@
         <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -18692,7 +18692,7 @@
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -19176,7 +19176,7 @@
         <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -19385,7 +19385,7 @@
         <v>9</v>
       </c>
       <c r="C358" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -19396,7 +19396,7 @@
         <v>10</v>
       </c>
       <c r="C359" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -19407,7 +19407,7 @@
         <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -19418,7 +19418,7 @@
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -19429,7 +19429,7 @@
         <v>13</v>
       </c>
       <c r="C362" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -19440,7 +19440,7 @@
         <v>14</v>
       </c>
       <c r="C363" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -19451,7 +19451,7 @@
         <v>15</v>
       </c>
       <c r="C364" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -19462,7 +19462,7 @@
         <v>16</v>
       </c>
       <c r="C365" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -19473,7 +19473,7 @@
         <v>17</v>
       </c>
       <c r="C366" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -19484,7 +19484,7 @@
         <v>18</v>
       </c>
       <c r="C367" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -19495,7 +19495,7 @@
         <v>19</v>
       </c>
       <c r="C368" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -19506,7 +19506,7 @@
         <v>20</v>
       </c>
       <c r="C369" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -19517,7 +19517,7 @@
         <v>21</v>
       </c>
       <c r="C370" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -19528,7 +19528,7 @@
         <v>22</v>
       </c>
       <c r="C371" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -19539,7 +19539,7 @@
         <v>23</v>
       </c>
       <c r="C372" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -19550,7 +19550,7 @@
         <v>24</v>
       </c>
       <c r="C373" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -19561,7 +19561,7 @@
         <v>25</v>
       </c>
       <c r="C374" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -19572,7 +19572,7 @@
         <v>26</v>
       </c>
       <c r="C375" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -19583,7 +19583,7 @@
         <v>27</v>
       </c>
       <c r="C376" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -19594,7 +19594,7 @@
         <v>28</v>
       </c>
       <c r="C377" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -19605,7 +19605,7 @@
         <v>29</v>
       </c>
       <c r="C378" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -19616,7 +19616,7 @@
         <v>30</v>
       </c>
       <c r="C379" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -19627,7 +19627,7 @@
         <v>31</v>
       </c>
       <c r="C380" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -19638,7 +19638,7 @@
         <v>32</v>
       </c>
       <c r="C381" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -19671,7 +19671,7 @@
         <v>1</v>
       </c>
       <c r="C384" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -19792,7 +19792,7 @@
         <v>3</v>
       </c>
       <c r="C395" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -19803,7 +19803,7 @@
         <v>4</v>
       </c>
       <c r="C396" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -19814,7 +19814,7 @@
         <v>5</v>
       </c>
       <c r="C397" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -19825,7 +19825,7 @@
         <v>6</v>
       </c>
       <c r="C398" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -19836,7 +19836,7 @@
         <v>7</v>
       </c>
       <c r="C399" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -20034,7 +20034,7 @@
         <v>3</v>
       </c>
       <c r="C417" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -20045,7 +20045,7 @@
         <v>4</v>
       </c>
       <c r="C418" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -20056,7 +20056,7 @@
         <v>5</v>
       </c>
       <c r="C419" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -20067,7 +20067,7 @@
         <v>6</v>
       </c>
       <c r="C420" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -20078,7 +20078,7 @@
         <v>7</v>
       </c>
       <c r="C421" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -20089,7 +20089,7 @@
         <v>8</v>
       </c>
       <c r="C422" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -20100,7 +20100,7 @@
         <v>9</v>
       </c>
       <c r="C423" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -20342,7 +20342,7 @@
         <v>2</v>
       </c>
       <c r="C445" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -20353,7 +20353,7 @@
         <v>3</v>
       </c>
       <c r="C446" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -20364,7 +20364,7 @@
         <v>4</v>
       </c>
       <c r="C447" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -20375,7 +20375,7 @@
         <v>5</v>
       </c>
       <c r="C448" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -20386,7 +20386,7 @@
         <v>6</v>
       </c>
       <c r="C449" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -20397,7 +20397,7 @@
         <v>7</v>
       </c>
       <c r="C450" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -20408,7 +20408,7 @@
         <v>8</v>
       </c>
       <c r="C451" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -20419,7 +20419,7 @@
         <v>9</v>
       </c>
       <c r="C452" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -20430,7 +20430,7 @@
         <v>10</v>
       </c>
       <c r="C453" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -20441,7 +20441,7 @@
         <v>11</v>
       </c>
       <c r="C454" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -20452,7 +20452,7 @@
         <v>12</v>
       </c>
       <c r="C455" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -20496,7 +20496,7 @@
         <v>4</v>
       </c>
       <c r="C459" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -20782,7 +20782,7 @@
         <v>1</v>
       </c>
       <c r="C485" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -20815,7 +20815,7 @@
         <v>3</v>
       </c>
       <c r="C488" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -20859,7 +20859,7 @@
         <v>4</v>
       </c>
       <c r="C492" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -20870,7 +20870,7 @@
         <v>5</v>
       </c>
       <c r="C493" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -20881,7 +20881,7 @@
         <v>6</v>
       </c>
       <c r="C494" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -20892,7 +20892,7 @@
         <v>7</v>
       </c>
       <c r="C495" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -20903,7 +20903,7 @@
         <v>8</v>
       </c>
       <c r="C496" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -20914,7 +20914,7 @@
         <v>9</v>
       </c>
       <c r="C497" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -20925,7 +20925,7 @@
         <v>10</v>
       </c>
       <c r="C498" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -20958,7 +20958,7 @@
         <v>3</v>
       </c>
       <c r="C501" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -20969,7 +20969,7 @@
         <v>4</v>
       </c>
       <c r="C502" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -20980,7 +20980,7 @@
         <v>5</v>
       </c>
       <c r="C503" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -20991,7 +20991,7 @@
         <v>6</v>
       </c>
       <c r="C504" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -21002,7 +21002,7 @@
         <v>7</v>
       </c>
       <c r="C505" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -21024,7 +21024,7 @@
         <v>2</v>
       </c>
       <c r="C507" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -21035,7 +21035,7 @@
         <v>3</v>
       </c>
       <c r="C508" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -21046,7 +21046,7 @@
         <v>4</v>
       </c>
       <c r="C509" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -21057,7 +21057,7 @@
         <v>5</v>
       </c>
       <c r="C510" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -21068,7 +21068,7 @@
         <v>6</v>
       </c>
       <c r="C511" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -21079,7 +21079,7 @@
         <v>7</v>
       </c>
       <c r="C512" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -21090,7 +21090,7 @@
         <v>8</v>
       </c>
       <c r="C513" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -21101,7 +21101,7 @@
         <v>9</v>
       </c>
       <c r="C514" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -21112,7 +21112,7 @@
         <v>1</v>
       </c>
       <c r="C515" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -21332,7 +21332,7 @@
         <v>6</v>
       </c>
       <c r="C535" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -21343,7 +21343,7 @@
         <v>7</v>
       </c>
       <c r="C536" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -21354,7 +21354,7 @@
         <v>8</v>
       </c>
       <c r="C537" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -21365,7 +21365,7 @@
         <v>9</v>
       </c>
       <c r="C538" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -21376,7 +21376,7 @@
         <v>10</v>
       </c>
       <c r="C539" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -21387,7 +21387,7 @@
         <v>11</v>
       </c>
       <c r="C540" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -21398,7 +21398,7 @@
         <v>12</v>
       </c>
       <c r="C541" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -21409,7 +21409,7 @@
         <v>13</v>
       </c>
       <c r="C542" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -21453,7 +21453,7 @@
         <v>4</v>
       </c>
       <c r="C546" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -21464,7 +21464,7 @@
         <v>5</v>
       </c>
       <c r="C547" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -21475,7 +21475,7 @@
         <v>6</v>
       </c>
       <c r="C548" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -21728,7 +21728,7 @@
         <v>4</v>
       </c>
       <c r="C571" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -21739,7 +21739,7 @@
         <v>5</v>
       </c>
       <c r="C572" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -21750,7 +21750,7 @@
         <v>6</v>
       </c>
       <c r="C573" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -21761,7 +21761,7 @@
         <v>7</v>
       </c>
       <c r="C574" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -21772,7 +21772,7 @@
         <v>8</v>
       </c>
       <c r="C575" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -21783,7 +21783,7 @@
         <v>9</v>
       </c>
       <c r="C576" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -21794,7 +21794,7 @@
         <v>10</v>
       </c>
       <c r="C577" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -21805,7 +21805,7 @@
         <v>11</v>
       </c>
       <c r="C578" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -21816,7 +21816,7 @@
         <v>12</v>
       </c>
       <c r="C579" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -21827,7 +21827,7 @@
         <v>13</v>
       </c>
       <c r="C580" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -21838,7 +21838,7 @@
         <v>14</v>
       </c>
       <c r="C581" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -21849,7 +21849,7 @@
         <v>15</v>
       </c>
       <c r="C582" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -21860,7 +21860,7 @@
         <v>16</v>
       </c>
       <c r="C583" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -22058,7 +22058,7 @@
         <v>4</v>
       </c>
       <c r="C601" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -22069,7 +22069,7 @@
         <v>1</v>
       </c>
       <c r="C602" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -22113,7 +22113,7 @@
         <v>6</v>
       </c>
       <c r="C606" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -22124,7 +22124,7 @@
         <v>7</v>
       </c>
       <c r="C607" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -22135,7 +22135,7 @@
         <v>8</v>
       </c>
       <c r="C608" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -22146,7 +22146,7 @@
         <v>9</v>
       </c>
       <c r="C609" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -22179,7 +22179,7 @@
         <v>3</v>
       </c>
       <c r="C612" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -22190,7 +22190,7 @@
         <v>4</v>
       </c>
       <c r="C613" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -22201,7 +22201,7 @@
         <v>5</v>
       </c>
       <c r="C614" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -22212,7 +22212,7 @@
         <v>6</v>
       </c>
       <c r="C615" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -22223,7 +22223,7 @@
         <v>7</v>
       </c>
       <c r="C616" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -22234,7 +22234,7 @@
         <v>8</v>
       </c>
       <c r="C617" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -22245,7 +22245,7 @@
         <v>9</v>
       </c>
       <c r="C618" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -22256,7 +22256,7 @@
         <v>10</v>
       </c>
       <c r="C619" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -22267,7 +22267,7 @@
         <v>11</v>
       </c>
       <c r="C620" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -22278,7 +22278,7 @@
         <v>12</v>
       </c>
       <c r="C621" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -22289,7 +22289,7 @@
         <v>1</v>
       </c>
       <c r="C622" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -22575,7 +22575,7 @@
         <v>3</v>
       </c>
       <c r="C648" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -22586,7 +22586,7 @@
         <v>4</v>
       </c>
       <c r="C649" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -22597,7 +22597,7 @@
         <v>5</v>
       </c>
       <c r="C650" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -22608,7 +22608,7 @@
         <v>6</v>
       </c>
       <c r="C651" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -22619,7 +22619,7 @@
         <v>7</v>
       </c>
       <c r="C652" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -22630,7 +22630,7 @@
         <v>8</v>
       </c>
       <c r="C653" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -22641,7 +22641,7 @@
         <v>9</v>
       </c>
       <c r="C654" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -22652,7 +22652,7 @@
         <v>10</v>
       </c>
       <c r="C655" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -22663,7 +22663,7 @@
         <v>11</v>
       </c>
       <c r="C656" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -22674,7 +22674,7 @@
         <v>12</v>
       </c>
       <c r="C657" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -22685,7 +22685,7 @@
         <v>13</v>
       </c>
       <c r="C658" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -22696,7 +22696,7 @@
         <v>14</v>
       </c>
       <c r="C659" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -22707,7 +22707,7 @@
         <v>15</v>
       </c>
       <c r="C660" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -22718,7 +22718,7 @@
         <v>16</v>
       </c>
       <c r="C661" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
@@ -22729,7 +22729,7 @@
         <v>17</v>
       </c>
       <c r="C662" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
   </sheetData>
@@ -25684,19 +25684,19 @@
         <v>808</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>3228</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>3229</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>3230</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>3231</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>3232</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>799</v>
@@ -25705,7 +25705,7 @@
         <v>821</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -26467,10 +26467,10 @@
         <v>808</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>3220</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>3221</v>
       </c>
       <c r="D34" s="17">
         <v>1890</v>
@@ -26479,7 +26479,7 @@
         <v>117</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>799</v>
@@ -26488,7 +26488,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -28352,10 +28352,10 @@
         <v>808</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C99" s="16" t="s">
         <v>3234</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>3235</v>
       </c>
       <c r="D99" s="17">
         <v>1939</v>
@@ -28364,7 +28364,7 @@
         <v>1465</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>799</v>
@@ -28373,7 +28373,7 @@
         <v>91</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -28381,19 +28381,19 @@
         <v>808</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C100" s="16" t="s">
         <v>3234</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>3235</v>
       </c>
       <c r="D100" s="17">
         <v>1939</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>799</v>
@@ -28402,7 +28402,7 @@
         <v>39</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -28410,10 +28410,10 @@
         <v>808</v>
       </c>
       <c r="B101" s="16" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C101" s="16" t="s">
         <v>3234</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>3235</v>
       </c>
       <c r="D101" s="17">
         <v>1939</v>
@@ -28422,7 +28422,7 @@
         <v>108</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>799</v>
@@ -28431,7 +28431,7 @@
         <v>2</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -30121,10 +30121,10 @@
         <v>808</v>
       </c>
       <c r="B160" s="16" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C160" s="16" t="s">
         <v>3251</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>3252</v>
       </c>
       <c r="D160" s="17">
         <v>1951</v>
@@ -30133,7 +30133,7 @@
         <v>1054</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>799</v>
@@ -30142,7 +30142,7 @@
         <v>78</v>
       </c>
       <c r="I160" s="16" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -43279,7 +43279,7 @@
         <v>62</v>
       </c>
       <c r="I613" s="16" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="614" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -44694,7 +44694,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -45867,7 +45867,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
@@ -46201,7 +46201,7 @@
         <v>1189</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>1127</v>
@@ -46902,7 +46902,7 @@
         <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="C104" t="s">
         <v>46</v>
@@ -46971,7 +46971,7 @@
         <v>1099</v>
       </c>
       <c r="B107" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>91</v>
@@ -47178,7 +47178,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="C116" t="s">
         <v>50</v>
@@ -47914,7 +47914,7 @@
         <v>62</v>
       </c>
       <c r="B148" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="C148" t="s">
         <v>62</v>
@@ -48742,7 +48742,7 @@
         <v>84</v>
       </c>
       <c r="B184" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="C184" t="s">
         <v>84</v>
@@ -49222,7 +49222,7 @@
         <v>2906</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2907</v>
@@ -49701,7 +49701,7 @@
         <v>2931</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49837,7 +49837,7 @@
         <v>2950</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -50019,11 +50019,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="8.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -50086,7 +50089,7 @@
         <v>3104</v>
       </c>
       <c r="B8" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -50094,7 +50097,7 @@
         <v>3106</v>
       </c>
       <c r="B9" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -50102,7 +50105,7 @@
         <v>3104</v>
       </c>
       <c r="B10" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -50110,7 +50113,7 @@
         <v>3106</v>
       </c>
       <c r="B11" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -50310,7 +50313,7 @@
         <v>3104</v>
       </c>
       <c r="B37" t="s">
-        <v>3219</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -50558,7 +50561,7 @@
         <v>3102</v>
       </c>
       <c r="B74" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -50566,7 +50569,7 @@
         <v>3104</v>
       </c>
       <c r="B75" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
     </row>
   </sheetData>
@@ -50591,18 +50594,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>821</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -50679,7 +50682,7 @@
         <v>1127</v>
       </c>
       <c r="C9" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -50690,7 +50693,7 @@
         <v>1127</v>
       </c>
       <c r="C10" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -50734,7 +50737,7 @@
         <v>1127</v>
       </c>
       <c r="C14" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -50750,18 +50753,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>3272</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>3273</v>
-      </c>
       <c r="C19" s="22" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -50794,7 +50797,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -50802,10 +50805,10 @@
         <v>2018</v>
       </c>
       <c r="B23" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="C23" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -50832,40 +50835,40 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
     </row>
   </sheetData>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="7"/>
+    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="species_info" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10421" uniqueCount="3294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10421" uniqueCount="3295">
   <si>
     <t>acuta</t>
   </si>
@@ -9904,6 +9904,9 @@
   </si>
   <si>
     <t>Less commonly used in English, the term &amp;ldquo;Calling Crab&amp;rdquo; derives from one of the earliest scientific papers to include these crabs, [[Rumphius1705,.out]]. Rumphius names one of his species &lt;em class="species"&gt;Cancer vocans&lt;/em&gt;  which is Latin for &amp;ldquo;calling crab&amp;rdquo; or &amp;ldquo;gesturing crab.&amp;rdquo; He also reports the name &amp;ldquo;Cattam Pangel&amp;rdquo; which appears to most likely be a form of Malay meaning &amp;ldquo;summoning crab,&amp;rdquo; and is probably from where he derived the Latin name. In a later work ([[Rumphius1711,.in]]) he includes a Dutch name &amp;ldquo;Roepende Krabbe,&amp;rdquo; which also translates to Calling Crab.</t>
+  </si>
+  <si>
+    <t>seismella;siesmella</t>
   </si>
 </sst>
 </file>
@@ -44513,8 +44516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48259,7 +48262,7 @@
         <v>69</v>
       </c>
       <c r="B163" t="s">
-        <v>69</v>
+        <v>3294</v>
       </c>
       <c r="C163" t="s">
         <v>69</v>
@@ -50019,7 +50022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="5"/>
+    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="species_info" sheetId="1" r:id="rId1"/>
@@ -9387,9 +9387,6 @@
     <t>These three species are commonly known as &amp;ldquo;fiddlers&amp;rdquo;; for, when running over the beach with the large claw held out in front of them and the small one sawing in front of it, they ludicrously resemble a man carrying a bass viol.</t>
   </si>
   <si>
-    <t>Some non-English speakers have picked up this term and translated fiddler crab into their own language, such as &lt;b&gt;Cangrejo Violinista&lt;/b&gt; in Latin-American Spanish and &lt;b&gt;Caranguejo Violinista&lt;/b&gt; in Brazilian Portuguese.</t>
-  </si>
-  <si>
     <t>Calling Crab</t>
   </si>
   <si>
@@ -9627,9 +9624,6 @@
     <t>Note that he associates the name with the large claw, but without the motion&amp;mdash;a half-correct answer we will see again. [[Gould1841,.out]] has a similar explanation when discussing the crab &lt;em class="species"&gt;Gelasimus vocans&lt;/em&gt; (likely both &lt;em class="species"&gt;Uca pugilator&lt;/em&gt; and &lt;em class="species"&gt;U. pugnax&lt;/em&gt;) in Massachusetts (p. 325):</t>
   </si>
   <si>
-    <t>The Latin name &lt;em class="species"&gt;Cancer vocans&lt;/em&gt; (today &lt;em class="species"&gt;Uca vocans&lt;/em&gt;) was adopted by [[Linnaeus1758,.out]] and became the general name under which this group was known in Continental Europe. By 1778, writing in French, [[DeGeer1778,DeGeer]] uses the French translation of this term &amp;ldquo;Crabe appellant,&amp;rdquo; which appears to become a general term for all of these crabs, not just the single species. Similarly, writing in German, [[Herbst1782,.out]] builds off the German word &amp;ldquo;winken&amp;rdquo; (which means wave, beckon, signal or hail) to call two versions of these crabs &amp;ldquo;Der kleine Winker&amp;rdquo; and &amp;ldquo;Der grosse Winker&amp;rdquo; (essentially &amp;ldquo;the little waver&amp;rdquo; and &amp;ldquo;the great waver&amp;rdquo;). Eventually, the entire group of crabs becomes becomes known as &lt;b&gt;Winkerkrabbe&lt;/b&gt; (waving crabs) in German.</t>
-  </si>
-  <si>
     <t>At this time it is seen to be pierced with innumerable little holes; and hundres of a tiny Calling-crab (&lt;em class="species"&gt;Gelasimus vocans&lt;/em&gt;) are running over its surface, the males of which hold up their enormous claws in front, as if in defiance. At the approach of an intruder, every one hastens into his burrow, and in a moment the muddy bank, that was alive with the moving atoms, is perfectly still&amp;hellip;The little Crabs are very swift and wary, so that it is difficult to capture them, except by making a sudden rush from a distance among them.</t>
   </si>
   <si>
@@ -9907,6 +9901,12 @@
   </si>
   <si>
     <t>seismella;siesmella</t>
+  </si>
+  <si>
+    <t>Some non-English speakers have picked up this term and translated fiddler crab into their own language, such as &lt;strong&gt;Cangrejo Violinista&lt;/strong&gt; in Latin-American Spanish, &lt;strong&gt;Caranguejo Violinista&lt;/strong&gt; in Brazilian Portuguese, or &lt;strong&gt;Crabes-violonistes&lt;/strong&gt; in French.</t>
+  </si>
+  <si>
+    <t>The Latin name &lt;em class="species"&gt;Cancer vocans&lt;/em&gt; (today &lt;em class="species"&gt;Uca vocans&lt;/em&gt;) was adopted by [[Linnaeus1758,.out]] and became the general name under which this group was known in Continental Europe. By 1778, writing in French, [[DeGeer1778,DeGeer]] uses the French translation of this term &amp;ldquo;Crabe appellant,&amp;rdquo; which appears to become a general term for all of these crabs, not just the single species. Similarly, writing in German, [[Herbst1782,.out]] builds off the German word &amp;ldquo;winken&amp;rdquo; (which means wave, beckon, signal or hail) to call two versions of these crabs &amp;ldquo;Der kleine Winker&amp;rdquo; and &amp;ldquo;Der grosse Winker&amp;rdquo; (essentially &amp;ldquo;the little waver&amp;rdquo; and &amp;ldquo;the great waver&amp;rdquo;). Eventually, the entire group of crabs becomes becomes known as &lt;strong&gt;Winkerkrabbe&lt;/strong&gt; (waving crabs) in German.</t>
   </si>
 </sst>
 </file>
@@ -10506,10 +10506,10 @@
         <v>459</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>468</v>
@@ -11251,7 +11251,7 @@
         <v>423</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>509</v>
@@ -11565,7 +11565,7 @@
         <v>518</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>468</v>
@@ -13011,7 +13011,7 @@
         <v>403</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>727</v>
@@ -13172,28 +13172,28 @@
     </row>
     <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>3140</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>3141</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>468</v>
@@ -14331,7 +14331,7 @@
         <v>206</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>731</v>
@@ -14815,7 +14815,7 @@
         <v>232</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>723</v>
@@ -15076,7 +15076,7 @@
         <v>1247</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>427</v>
@@ -15319,7 +15319,7 @@
         <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -15339,7 +15339,7 @@
         <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
@@ -15419,7 +15419,7 @@
         <v>3071</v>
       </c>
       <c r="B13" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -15538,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15560,7 +15560,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15769,7 +15769,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15780,7 +15780,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15791,7 +15791,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15802,7 +15802,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15813,7 +15813,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15824,7 +15824,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15868,7 +15868,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15879,7 +15879,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15890,7 +15890,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15901,7 +15901,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15912,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -15923,7 +15923,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -16264,7 +16264,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -16275,7 +16275,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -16286,7 +16286,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -16297,7 +16297,7 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -16308,7 +16308,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -16319,7 +16319,7 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -16330,7 +16330,7 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -16341,7 +16341,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -16352,7 +16352,7 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -16363,7 +16363,7 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -16374,7 +16374,7 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -16385,7 +16385,7 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -16396,7 +16396,7 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -16407,7 +16407,7 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -16418,7 +16418,7 @@
         <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -16429,7 +16429,7 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -16440,7 +16440,7 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -16451,7 +16451,7 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -16462,7 +16462,7 @@
         <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -16473,7 +16473,7 @@
         <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -16484,7 +16484,7 @@
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -16495,7 +16495,7 @@
         <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -16506,7 +16506,7 @@
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -16517,7 +16517,7 @@
         <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -16594,7 +16594,7 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -16660,7 +16660,7 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -16671,7 +16671,7 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -16682,7 +16682,7 @@
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -16693,7 +16693,7 @@
         <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -16704,7 +16704,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -16715,7 +16715,7 @@
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -16726,7 +16726,7 @@
         <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -17089,7 +17089,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -17100,7 +17100,7 @@
         <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -17111,7 +17111,7 @@
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -17298,7 +17298,7 @@
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>3289</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -17496,7 +17496,7 @@
         <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -17507,7 +17507,7 @@
         <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -17518,7 +17518,7 @@
         <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -17617,7 +17617,7 @@
         <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -17628,7 +17628,7 @@
         <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -17639,7 +17639,7 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -17650,7 +17650,7 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -17661,7 +17661,7 @@
         <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -17672,7 +17672,7 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -17683,7 +17683,7 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -17694,7 +17694,7 @@
         <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -17705,7 +17705,7 @@
         <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -17716,7 +17716,7 @@
         <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -17727,7 +17727,7 @@
         <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -17892,7 +17892,7 @@
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -17903,7 +17903,7 @@
         <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -17914,7 +17914,7 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -17925,7 +17925,7 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -17936,7 +17936,7 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -17947,7 +17947,7 @@
         <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -17958,7 +17958,7 @@
         <v>11</v>
       </c>
       <c r="C228" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -17969,7 +17969,7 @@
         <v>12</v>
       </c>
       <c r="C229" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -17980,7 +17980,7 @@
         <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -17991,7 +17991,7 @@
         <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -18002,7 +18002,7 @@
         <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -18013,7 +18013,7 @@
         <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -18024,7 +18024,7 @@
         <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -18035,7 +18035,7 @@
         <v>18</v>
       </c>
       <c r="C235" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -18046,7 +18046,7 @@
         <v>19</v>
       </c>
       <c r="C236" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -18090,7 +18090,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -18101,7 +18101,7 @@
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -18112,7 +18112,7 @@
         <v>6</v>
       </c>
       <c r="C242" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -18123,7 +18123,7 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -18134,7 +18134,7 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -18145,18 +18145,18 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -18167,7 +18167,7 @@
         <v>10</v>
       </c>
       <c r="C247" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -18497,7 +18497,7 @@
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -18508,7 +18508,7 @@
         <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -18519,7 +18519,7 @@
         <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -18530,7 +18530,7 @@
         <v>8</v>
       </c>
       <c r="C280" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -18541,7 +18541,7 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -18552,7 +18552,7 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -18563,7 +18563,7 @@
         <v>11</v>
       </c>
       <c r="C283" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -18574,7 +18574,7 @@
         <v>12</v>
       </c>
       <c r="C284" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -18585,7 +18585,7 @@
         <v>13</v>
       </c>
       <c r="C285" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -18596,7 +18596,7 @@
         <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -18618,7 +18618,7 @@
         <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -18651,7 +18651,7 @@
         <v>3</v>
       </c>
       <c r="C291" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -18662,7 +18662,7 @@
         <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -18673,7 +18673,7 @@
         <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -18684,7 +18684,7 @@
         <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -18695,7 +18695,7 @@
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -19179,7 +19179,7 @@
         <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -19388,7 +19388,7 @@
         <v>9</v>
       </c>
       <c r="C358" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -19399,7 +19399,7 @@
         <v>10</v>
       </c>
       <c r="C359" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -19410,7 +19410,7 @@
         <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -19421,7 +19421,7 @@
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -19432,7 +19432,7 @@
         <v>13</v>
       </c>
       <c r="C362" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -19443,7 +19443,7 @@
         <v>14</v>
       </c>
       <c r="C363" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -19454,7 +19454,7 @@
         <v>15</v>
       </c>
       <c r="C364" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -19465,7 +19465,7 @@
         <v>16</v>
       </c>
       <c r="C365" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -19476,7 +19476,7 @@
         <v>17</v>
       </c>
       <c r="C366" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -19487,7 +19487,7 @@
         <v>18</v>
       </c>
       <c r="C367" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -19498,7 +19498,7 @@
         <v>19</v>
       </c>
       <c r="C368" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -19509,7 +19509,7 @@
         <v>20</v>
       </c>
       <c r="C369" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -19520,7 +19520,7 @@
         <v>21</v>
       </c>
       <c r="C370" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -19531,7 +19531,7 @@
         <v>22</v>
       </c>
       <c r="C371" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -19542,7 +19542,7 @@
         <v>23</v>
       </c>
       <c r="C372" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -19553,7 +19553,7 @@
         <v>24</v>
       </c>
       <c r="C373" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -19564,7 +19564,7 @@
         <v>25</v>
       </c>
       <c r="C374" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -19575,7 +19575,7 @@
         <v>26</v>
       </c>
       <c r="C375" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -19586,7 +19586,7 @@
         <v>27</v>
       </c>
       <c r="C376" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -19597,7 +19597,7 @@
         <v>28</v>
       </c>
       <c r="C377" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -19608,7 +19608,7 @@
         <v>29</v>
       </c>
       <c r="C378" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -19619,7 +19619,7 @@
         <v>30</v>
       </c>
       <c r="C379" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -19630,7 +19630,7 @@
         <v>31</v>
       </c>
       <c r="C380" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -19641,7 +19641,7 @@
         <v>32</v>
       </c>
       <c r="C381" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -19652,7 +19652,7 @@
         <v>1</v>
       </c>
       <c r="C382" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -19674,12 +19674,12 @@
         <v>1</v>
       </c>
       <c r="C384" t="s">
-        <v>3291</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -19690,7 +19690,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -19701,7 +19701,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B387">
         <v>3</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B388">
         <v>4</v>
@@ -19723,7 +19723,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B389">
         <v>5</v>
@@ -19734,7 +19734,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B390">
         <v>6</v>
@@ -19745,7 +19745,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B391">
         <v>7</v>
@@ -19756,7 +19756,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B392">
         <v>8</v>
@@ -19795,7 +19795,7 @@
         <v>3</v>
       </c>
       <c r="C395" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -19806,7 +19806,7 @@
         <v>4</v>
       </c>
       <c r="C396" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -19817,7 +19817,7 @@
         <v>5</v>
       </c>
       <c r="C397" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -19828,7 +19828,7 @@
         <v>6</v>
       </c>
       <c r="C398" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -19839,7 +19839,7 @@
         <v>7</v>
       </c>
       <c r="C399" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -20037,7 +20037,7 @@
         <v>3</v>
       </c>
       <c r="C417" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -20048,7 +20048,7 @@
         <v>4</v>
       </c>
       <c r="C418" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -20059,7 +20059,7 @@
         <v>5</v>
       </c>
       <c r="C419" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -20070,7 +20070,7 @@
         <v>6</v>
       </c>
       <c r="C420" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -20081,7 +20081,7 @@
         <v>7</v>
       </c>
       <c r="C421" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -20092,7 +20092,7 @@
         <v>8</v>
       </c>
       <c r="C422" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -20103,7 +20103,7 @@
         <v>9</v>
       </c>
       <c r="C423" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -20345,7 +20345,7 @@
         <v>2</v>
       </c>
       <c r="C445" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -20356,7 +20356,7 @@
         <v>3</v>
       </c>
       <c r="C446" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -20367,7 +20367,7 @@
         <v>4</v>
       </c>
       <c r="C447" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -20378,7 +20378,7 @@
         <v>5</v>
       </c>
       <c r="C448" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -20389,7 +20389,7 @@
         <v>6</v>
       </c>
       <c r="C449" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -20400,7 +20400,7 @@
         <v>7</v>
       </c>
       <c r="C450" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -20411,7 +20411,7 @@
         <v>8</v>
       </c>
       <c r="C451" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -20422,7 +20422,7 @@
         <v>9</v>
       </c>
       <c r="C452" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -20433,7 +20433,7 @@
         <v>10</v>
       </c>
       <c r="C453" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -20444,7 +20444,7 @@
         <v>11</v>
       </c>
       <c r="C454" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -20455,7 +20455,7 @@
         <v>12</v>
       </c>
       <c r="C455" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -20499,7 +20499,7 @@
         <v>4</v>
       </c>
       <c r="C459" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -20785,7 +20785,7 @@
         <v>1</v>
       </c>
       <c r="C485" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -20818,7 +20818,7 @@
         <v>3</v>
       </c>
       <c r="C488" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -20862,7 +20862,7 @@
         <v>4</v>
       </c>
       <c r="C492" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -20873,7 +20873,7 @@
         <v>5</v>
       </c>
       <c r="C493" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -20884,7 +20884,7 @@
         <v>6</v>
       </c>
       <c r="C494" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -20895,7 +20895,7 @@
         <v>7</v>
       </c>
       <c r="C495" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -20906,7 +20906,7 @@
         <v>8</v>
       </c>
       <c r="C496" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -20917,7 +20917,7 @@
         <v>9</v>
       </c>
       <c r="C497" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -20928,7 +20928,7 @@
         <v>10</v>
       </c>
       <c r="C498" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -20961,7 +20961,7 @@
         <v>3</v>
       </c>
       <c r="C501" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -20972,7 +20972,7 @@
         <v>4</v>
       </c>
       <c r="C502" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -20983,7 +20983,7 @@
         <v>5</v>
       </c>
       <c r="C503" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -20994,7 +20994,7 @@
         <v>6</v>
       </c>
       <c r="C504" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -21005,7 +21005,7 @@
         <v>7</v>
       </c>
       <c r="C505" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -21027,7 +21027,7 @@
         <v>2</v>
       </c>
       <c r="C507" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -21038,7 +21038,7 @@
         <v>3</v>
       </c>
       <c r="C508" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -21049,7 +21049,7 @@
         <v>4</v>
       </c>
       <c r="C509" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -21060,7 +21060,7 @@
         <v>5</v>
       </c>
       <c r="C510" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -21071,7 +21071,7 @@
         <v>6</v>
       </c>
       <c r="C511" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -21082,7 +21082,7 @@
         <v>7</v>
       </c>
       <c r="C512" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -21093,7 +21093,7 @@
         <v>8</v>
       </c>
       <c r="C513" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -21104,7 +21104,7 @@
         <v>9</v>
       </c>
       <c r="C514" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -21115,7 +21115,7 @@
         <v>1</v>
       </c>
       <c r="C515" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -21335,7 +21335,7 @@
         <v>6</v>
       </c>
       <c r="C535" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -21346,7 +21346,7 @@
         <v>7</v>
       </c>
       <c r="C536" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -21357,7 +21357,7 @@
         <v>8</v>
       </c>
       <c r="C537" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -21368,7 +21368,7 @@
         <v>9</v>
       </c>
       <c r="C538" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -21379,7 +21379,7 @@
         <v>10</v>
       </c>
       <c r="C539" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -21390,7 +21390,7 @@
         <v>11</v>
       </c>
       <c r="C540" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -21401,7 +21401,7 @@
         <v>12</v>
       </c>
       <c r="C541" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -21412,7 +21412,7 @@
         <v>13</v>
       </c>
       <c r="C542" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -21456,7 +21456,7 @@
         <v>4</v>
       </c>
       <c r="C546" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -21467,7 +21467,7 @@
         <v>5</v>
       </c>
       <c r="C547" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -21478,7 +21478,7 @@
         <v>6</v>
       </c>
       <c r="C548" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -21731,7 +21731,7 @@
         <v>4</v>
       </c>
       <c r="C571" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -21742,7 +21742,7 @@
         <v>5</v>
       </c>
       <c r="C572" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -21753,7 +21753,7 @@
         <v>6</v>
       </c>
       <c r="C573" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -21764,7 +21764,7 @@
         <v>7</v>
       </c>
       <c r="C574" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -21775,7 +21775,7 @@
         <v>8</v>
       </c>
       <c r="C575" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -21786,7 +21786,7 @@
         <v>9</v>
       </c>
       <c r="C576" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -21797,7 +21797,7 @@
         <v>10</v>
       </c>
       <c r="C577" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -21808,7 +21808,7 @@
         <v>11</v>
       </c>
       <c r="C578" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -21819,7 +21819,7 @@
         <v>12</v>
       </c>
       <c r="C579" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -21830,7 +21830,7 @@
         <v>13</v>
       </c>
       <c r="C580" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -21841,7 +21841,7 @@
         <v>14</v>
       </c>
       <c r="C581" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -21852,7 +21852,7 @@
         <v>15</v>
       </c>
       <c r="C582" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -21863,7 +21863,7 @@
         <v>16</v>
       </c>
       <c r="C583" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -22061,7 +22061,7 @@
         <v>4</v>
       </c>
       <c r="C601" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -22072,7 +22072,7 @@
         <v>1</v>
       </c>
       <c r="C602" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -22116,7 +22116,7 @@
         <v>6</v>
       </c>
       <c r="C606" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -22127,7 +22127,7 @@
         <v>7</v>
       </c>
       <c r="C607" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -22138,7 +22138,7 @@
         <v>8</v>
       </c>
       <c r="C608" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -22149,7 +22149,7 @@
         <v>9</v>
       </c>
       <c r="C609" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -22182,7 +22182,7 @@
         <v>3</v>
       </c>
       <c r="C612" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -22193,7 +22193,7 @@
         <v>4</v>
       </c>
       <c r="C613" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -22204,7 +22204,7 @@
         <v>5</v>
       </c>
       <c r="C614" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -22215,7 +22215,7 @@
         <v>6</v>
       </c>
       <c r="C615" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -22226,7 +22226,7 @@
         <v>7</v>
       </c>
       <c r="C616" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -22237,7 +22237,7 @@
         <v>8</v>
       </c>
       <c r="C617" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -22248,7 +22248,7 @@
         <v>9</v>
       </c>
       <c r="C618" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -22259,7 +22259,7 @@
         <v>10</v>
       </c>
       <c r="C619" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -22270,7 +22270,7 @@
         <v>11</v>
       </c>
       <c r="C620" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -22281,7 +22281,7 @@
         <v>12</v>
       </c>
       <c r="C621" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -22292,7 +22292,7 @@
         <v>1</v>
       </c>
       <c r="C622" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -22578,7 +22578,7 @@
         <v>3</v>
       </c>
       <c r="C648" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -22589,7 +22589,7 @@
         <v>4</v>
       </c>
       <c r="C649" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -22600,7 +22600,7 @@
         <v>5</v>
       </c>
       <c r="C650" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -22611,7 +22611,7 @@
         <v>6</v>
       </c>
       <c r="C651" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -22622,7 +22622,7 @@
         <v>7</v>
       </c>
       <c r="C652" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -22633,7 +22633,7 @@
         <v>8</v>
       </c>
       <c r="C653" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -22644,7 +22644,7 @@
         <v>9</v>
       </c>
       <c r="C654" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -22655,7 +22655,7 @@
         <v>10</v>
       </c>
       <c r="C655" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -22666,7 +22666,7 @@
         <v>11</v>
       </c>
       <c r="C656" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -22677,7 +22677,7 @@
         <v>12</v>
       </c>
       <c r="C657" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -22688,7 +22688,7 @@
         <v>13</v>
       </c>
       <c r="C658" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -22699,7 +22699,7 @@
         <v>14</v>
       </c>
       <c r="C659" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -22710,7 +22710,7 @@
         <v>15</v>
       </c>
       <c r="C660" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -22721,7 +22721,7 @@
         <v>16</v>
       </c>
       <c r="C661" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
@@ -22732,7 +22732,7 @@
         <v>17</v>
       </c>
       <c r="C662" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
   </sheetData>
@@ -25542,7 +25542,7 @@
         <v>808</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>779</v>
@@ -25571,7 +25571,7 @@
         <v>808</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>779</v>
@@ -25600,7 +25600,7 @@
         <v>808</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>779</v>
@@ -25687,19 +25687,19 @@
         <v>808</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>3227</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>3228</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>3229</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>3230</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>3231</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>799</v>
@@ -25708,7 +25708,7 @@
         <v>821</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -25737,7 +25737,7 @@
         <v>821</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -25745,7 +25745,7 @@
         <v>808</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>782</v>
@@ -26470,10 +26470,10 @@
         <v>808</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="D34" s="17">
         <v>1890</v>
@@ -26482,7 +26482,7 @@
         <v>117</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>799</v>
@@ -26491,7 +26491,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -27630,19 +27630,19 @@
         <v>808</v>
       </c>
       <c r="B74" s="16" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>3159</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>3160</v>
       </c>
       <c r="D74" s="17">
         <v>1914</v>
       </c>
       <c r="E74" s="16" t="s">
+        <v>3160</v>
+      </c>
+      <c r="F74" s="16" t="s">
         <v>3161</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>3162</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>799</v>
@@ -27651,7 +27651,7 @@
         <v>46</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -27775,19 +27775,19 @@
         <v>808</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="D79" s="17">
         <v>1927</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>799</v>
@@ -27796,7 +27796,7 @@
         <v>32</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -27804,7 +27804,7 @@
         <v>808</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>1584</v>
@@ -27813,10 +27813,10 @@
         <v>1927</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>799</v>
@@ -27825,7 +27825,7 @@
         <v>78</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -28355,10 +28355,10 @@
         <v>808</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="D99" s="17">
         <v>1939</v>
@@ -28367,7 +28367,7 @@
         <v>1465</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>799</v>
@@ -28376,7 +28376,7 @@
         <v>91</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -28384,19 +28384,19 @@
         <v>808</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="D100" s="17">
         <v>1939</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>3237</v>
+        <v>3235</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>799</v>
@@ -28405,7 +28405,7 @@
         <v>39</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -28413,10 +28413,10 @@
         <v>808</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="D101" s="17">
         <v>1939</v>
@@ -28425,7 +28425,7 @@
         <v>108</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>799</v>
@@ -28434,7 +28434,7 @@
         <v>2</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -29881,7 +29881,7 @@
         <v>799</v>
       </c>
       <c r="H151" s="16" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="I151" s="16" t="s">
         <v>1573</v>
@@ -29910,7 +29910,7 @@
         <v>799</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="I152" s="16" t="s">
         <v>1576</v>
@@ -29939,7 +29939,7 @@
         <v>799</v>
       </c>
       <c r="H153" s="16" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="I153" s="16" t="s">
         <v>1604</v>
@@ -30124,10 +30124,10 @@
         <v>808</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="D160" s="17">
         <v>1951</v>
@@ -30136,7 +30136,7 @@
         <v>1054</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>799</v>
@@ -30145,7 +30145,7 @@
         <v>78</v>
       </c>
       <c r="I160" s="16" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -30174,7 +30174,7 @@
         <v>32</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -30203,7 +30203,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="16" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -30229,7 +30229,7 @@
         <v>799</v>
       </c>
       <c r="H163" s="16" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="I163" s="16" t="s">
         <v>1545</v>
@@ -30258,7 +30258,7 @@
         <v>799</v>
       </c>
       <c r="H164" s="16" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="I164" s="16" t="s">
         <v>1545</v>
@@ -30287,7 +30287,7 @@
         <v>799</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="I165" s="16" t="s">
         <v>1545</v>
@@ -30562,7 +30562,7 @@
         <v>2741</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="D175" s="17">
         <v>1961</v>
@@ -30591,7 +30591,7 @@
         <v>2741</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="D176" s="17">
         <v>1961</v>
@@ -30620,7 +30620,7 @@
         <v>2741</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="D177" s="17">
         <v>1961</v>
@@ -30649,7 +30649,7 @@
         <v>2741</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="D178" s="17">
         <v>1961</v>
@@ -30678,7 +30678,7 @@
         <v>2741</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="D179" s="17">
         <v>1961</v>
@@ -30707,7 +30707,7 @@
         <v>2741</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="D180" s="17">
         <v>1961</v>
@@ -30736,7 +30736,7 @@
         <v>2741</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="D181" s="17">
         <v>1961</v>
@@ -30765,7 +30765,7 @@
         <v>2741</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="D182" s="17">
         <v>1961</v>
@@ -30794,7 +30794,7 @@
         <v>2741</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="D183" s="17">
         <v>1961</v>
@@ -30838,7 +30838,7 @@
         <v>799</v>
       </c>
       <c r="H184" s="16" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="I184" s="16" t="s">
         <v>1512</v>
@@ -30867,7 +30867,7 @@
         <v>799</v>
       </c>
       <c r="H185" s="16" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="I185" s="16" t="s">
         <v>1513</v>
@@ -30896,7 +30896,7 @@
         <v>799</v>
       </c>
       <c r="H186" s="16" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="I186" s="16" t="s">
         <v>1514</v>
@@ -31867,7 +31867,7 @@
         <v>1785</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D220" s="17">
         <v>1968</v>
@@ -31896,7 +31896,7 @@
         <v>1785</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D221" s="17">
         <v>1968</v>
@@ -31925,7 +31925,7 @@
         <v>1785</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D222" s="17">
         <v>1968</v>
@@ -31954,7 +31954,7 @@
         <v>1785</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D223" s="17">
         <v>1968</v>
@@ -31983,7 +31983,7 @@
         <v>1785</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D224" s="17">
         <v>1968</v>
@@ -32012,7 +32012,7 @@
         <v>1785</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D225" s="17">
         <v>1968</v>
@@ -32041,7 +32041,7 @@
         <v>1785</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D226" s="17">
         <v>1968</v>
@@ -32070,7 +32070,7 @@
         <v>1785</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D227" s="17">
         <v>1968</v>
@@ -32099,7 +32099,7 @@
         <v>1785</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D228" s="17">
         <v>1968</v>
@@ -32128,7 +32128,7 @@
         <v>1785</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D229" s="17">
         <v>1968</v>
@@ -32157,7 +32157,7 @@
         <v>1785</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D230" s="17">
         <v>1968</v>
@@ -32186,7 +32186,7 @@
         <v>1785</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D231" s="17">
         <v>1968</v>
@@ -32215,7 +32215,7 @@
         <v>1785</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D232" s="17">
         <v>1968</v>
@@ -32244,7 +32244,7 @@
         <v>1785</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D233" s="17">
         <v>1968</v>
@@ -32302,7 +32302,7 @@
         <v>2747</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D235" s="17">
         <v>1969</v>
@@ -32331,7 +32331,7 @@
         <v>2747</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D236" s="17">
         <v>1969</v>
@@ -32360,7 +32360,7 @@
         <v>2747</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D237" s="17">
         <v>1969</v>
@@ -32389,7 +32389,7 @@
         <v>2747</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D238" s="17">
         <v>1969</v>
@@ -32418,7 +32418,7 @@
         <v>2747</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D239" s="17">
         <v>1969</v>
@@ -32447,7 +32447,7 @@
         <v>2747</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D240" s="17">
         <v>1969</v>
@@ -32476,7 +32476,7 @@
         <v>2747</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D241" s="17">
         <v>1969</v>
@@ -32505,7 +32505,7 @@
         <v>2747</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D242" s="17">
         <v>1969</v>
@@ -32534,7 +32534,7 @@
         <v>2747</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D243" s="17">
         <v>1969</v>
@@ -32563,7 +32563,7 @@
         <v>2747</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D244" s="17">
         <v>1969</v>
@@ -32592,7 +32592,7 @@
         <v>2747</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D245" s="17">
         <v>1969</v>
@@ -33926,7 +33926,7 @@
         <v>2013</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D291" s="17">
         <v>1974</v>
@@ -33955,7 +33955,7 @@
         <v>2013</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D292" s="17">
         <v>1974</v>
@@ -33984,7 +33984,7 @@
         <v>2013</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D293" s="17">
         <v>1974</v>
@@ -34013,7 +34013,7 @@
         <v>2013</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D294" s="17">
         <v>1974</v>
@@ -34042,7 +34042,7 @@
         <v>2013</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D295" s="17">
         <v>1974</v>
@@ -34071,7 +34071,7 @@
         <v>2013</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D296" s="17">
         <v>1974</v>
@@ -34100,7 +34100,7 @@
         <v>2013</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D297" s="17">
         <v>1974</v>
@@ -34129,7 +34129,7 @@
         <v>2013</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D298" s="17">
         <v>1974</v>
@@ -34158,7 +34158,7 @@
         <v>2013</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D299" s="17">
         <v>1974</v>
@@ -34187,7 +34187,7 @@
         <v>2013</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D300" s="17">
         <v>1974</v>
@@ -34216,7 +34216,7 @@
         <v>2013</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D301" s="17">
         <v>1974</v>
@@ -34245,7 +34245,7 @@
         <v>2013</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D302" s="17">
         <v>1974</v>
@@ -34274,7 +34274,7 @@
         <v>2013</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D303" s="17">
         <v>1974</v>
@@ -34303,7 +34303,7 @@
         <v>2013</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D304" s="17">
         <v>1974</v>
@@ -41843,7 +41843,7 @@
         <v>2749</v>
       </c>
       <c r="C564" s="16" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="D564" s="16">
         <v>1994</v>
@@ -43282,7 +43282,7 @@
         <v>62</v>
       </c>
       <c r="I613" s="16" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="614" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -44366,7 +44366,7 @@
         <v>821</v>
       </c>
       <c r="C651" s="16" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="D651" s="16">
         <v>1990</v>
@@ -44516,7 +44516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
@@ -44697,7 +44697,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -44855,25 +44855,25 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>3164</v>
       </c>
-      <c r="B15" t="s">
-        <v>3164</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3167</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="15" t="s">
         <v>3165</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>3166</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>1127</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -45077,7 +45077,7 @@
         <v>2016</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>1127</v>
@@ -45810,7 +45810,7 @@
         <v>1181</v>
       </c>
       <c r="E56" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>1127</v>
@@ -45870,7 +45870,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
@@ -46204,7 +46204,7 @@
         <v>1189</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>1127</v>
@@ -46905,7 +46905,7 @@
         <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="C104" t="s">
         <v>46</v>
@@ -46974,7 +46974,7 @@
         <v>1099</v>
       </c>
       <c r="B107" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>91</v>
@@ -47181,7 +47181,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
       <c r="C116" t="s">
         <v>50</v>
@@ -47339,22 +47339,22 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>3139</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>3139</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>3139</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>3140</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>3141</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>3142</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>1127</v>
@@ -47446,7 +47446,7 @@
         <v>1214</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>1304</v>
@@ -47917,7 +47917,7 @@
         <v>62</v>
       </c>
       <c r="B148" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
       <c r="C148" t="s">
         <v>62</v>
@@ -48262,7 +48262,7 @@
         <v>69</v>
       </c>
       <c r="B163" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="C163" t="s">
         <v>69</v>
@@ -48369,7 +48369,7 @@
         <v>1127</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -48653,7 +48653,7 @@
         <v>81</v>
       </c>
       <c r="B180" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="C180" t="s">
         <v>81</v>
@@ -48745,7 +48745,7 @@
         <v>84</v>
       </c>
       <c r="B184" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="C184" t="s">
         <v>84</v>
@@ -49225,7 +49225,7 @@
         <v>2906</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3265</v>
+        <v>3263</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2907</v>
@@ -49432,7 +49432,7 @@
         <v>2838</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49704,7 +49704,7 @@
         <v>2931</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -49840,7 +49840,7 @@
         <v>2950</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -50022,8 +50022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50033,10 +50033,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3136</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -50060,7 +50060,7 @@
         <v>3104</v>
       </c>
       <c r="B4" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -50092,7 +50092,7 @@
         <v>3104</v>
       </c>
       <c r="B8" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -50100,7 +50100,7 @@
         <v>3106</v>
       </c>
       <c r="B9" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -50108,7 +50108,7 @@
         <v>3104</v>
       </c>
       <c r="B10" t="s">
-        <v>3224</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -50116,7 +50116,7 @@
         <v>3106</v>
       </c>
       <c r="B11" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -50124,7 +50124,7 @@
         <v>3104</v>
       </c>
       <c r="B12" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -50140,7 +50140,7 @@
         <v>3104</v>
       </c>
       <c r="B14" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -50156,7 +50156,7 @@
         <v>3104</v>
       </c>
       <c r="B16" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -50180,7 +50180,7 @@
         <v>3104</v>
       </c>
       <c r="B19" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -50196,7 +50196,7 @@
         <v>3104</v>
       </c>
       <c r="B21" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -50212,7 +50212,7 @@
         <v>3104</v>
       </c>
       <c r="B23" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -50228,7 +50228,7 @@
         <v>3104</v>
       </c>
       <c r="B25" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -50244,7 +50244,7 @@
         <v>3104</v>
       </c>
       <c r="B27" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -50260,7 +50260,7 @@
         <v>3104</v>
       </c>
       <c r="B29" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -50268,7 +50268,7 @@
         <v>3104</v>
       </c>
       <c r="B30" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -50284,7 +50284,7 @@
         <v>3104</v>
       </c>
       <c r="B32" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -50300,7 +50300,7 @@
         <v>3104</v>
       </c>
       <c r="B34" t="s">
-        <v>3121</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -50308,7 +50308,7 @@
         <v>3102</v>
       </c>
       <c r="B36" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -50316,7 +50316,7 @@
         <v>3104</v>
       </c>
       <c r="B37" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -50324,7 +50324,7 @@
         <v>3104</v>
       </c>
       <c r="B38" t="s">
-        <v>3201</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -50332,7 +50332,7 @@
         <v>3104</v>
       </c>
       <c r="B39" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -50340,7 +50340,7 @@
         <v>3106</v>
       </c>
       <c r="B40" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -50348,7 +50348,7 @@
         <v>3104</v>
       </c>
       <c r="B41" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -50356,7 +50356,7 @@
         <v>3106</v>
       </c>
       <c r="B42" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -50364,7 +50364,7 @@
         <v>3104</v>
       </c>
       <c r="B43" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -50372,7 +50372,7 @@
         <v>3106</v>
       </c>
       <c r="B44" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -50380,7 +50380,7 @@
         <v>3104</v>
       </c>
       <c r="B45" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -50388,7 +50388,7 @@
         <v>3106</v>
       </c>
       <c r="B46" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -50396,7 +50396,7 @@
         <v>3104</v>
       </c>
       <c r="B47" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -50404,7 +50404,7 @@
         <v>3106</v>
       </c>
       <c r="B48" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -50412,7 +50412,7 @@
         <v>3102</v>
       </c>
       <c r="B50" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -50420,7 +50420,7 @@
         <v>3104</v>
       </c>
       <c r="B51" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -50428,7 +50428,7 @@
         <v>3104</v>
       </c>
       <c r="B52" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -50436,7 +50436,7 @@
         <v>3106</v>
       </c>
       <c r="B53" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -50444,7 +50444,7 @@
         <v>3104</v>
       </c>
       <c r="B54" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -50452,7 +50452,7 @@
         <v>3106</v>
       </c>
       <c r="B55" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -50460,7 +50460,7 @@
         <v>3104</v>
       </c>
       <c r="B56" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -50468,7 +50468,7 @@
         <v>3102</v>
       </c>
       <c r="B58" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -50476,7 +50476,7 @@
         <v>3104</v>
       </c>
       <c r="B59" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -50484,7 +50484,7 @@
         <v>3102</v>
       </c>
       <c r="B61" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -50492,7 +50492,7 @@
         <v>3104</v>
       </c>
       <c r="B62" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -50500,7 +50500,7 @@
         <v>3104</v>
       </c>
       <c r="B63" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -50508,7 +50508,7 @@
         <v>3106</v>
       </c>
       <c r="B64" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -50516,7 +50516,7 @@
         <v>3102</v>
       </c>
       <c r="B66" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -50524,7 +50524,7 @@
         <v>3104</v>
       </c>
       <c r="B67" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -50532,7 +50532,7 @@
         <v>3102</v>
       </c>
       <c r="B69" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -50540,7 +50540,7 @@
         <v>3104</v>
       </c>
       <c r="B70" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -50548,7 +50548,7 @@
         <v>3106</v>
       </c>
       <c r="B71" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -50556,7 +50556,7 @@
         <v>3104</v>
       </c>
       <c r="B72" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -50564,7 +50564,7 @@
         <v>3102</v>
       </c>
       <c r="B74" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -50572,7 +50572,7 @@
         <v>3104</v>
       </c>
       <c r="B75" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
     </row>
   </sheetData>
@@ -50597,18 +50597,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>821</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -50685,7 +50685,7 @@
         <v>1127</v>
       </c>
       <c r="C9" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -50696,7 +50696,7 @@
         <v>1127</v>
       </c>
       <c r="C10" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -50740,7 +50740,7 @@
         <v>1127</v>
       </c>
       <c r="C14" t="s">
-        <v>3280</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -50756,18 +50756,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -50800,7 +50800,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -50808,10 +50808,10 @@
         <v>2018</v>
       </c>
       <c r="B23" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
       <c r="C23" t="s">
-        <v>3281</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -50833,45 +50833,45 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>3282</v>
+        <v>3280</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
     </row>
   </sheetData>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="4"/>
+    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_info" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10429" uniqueCount="3304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10429" uniqueCount="3305">
   <si>
     <t>acuta</t>
   </si>
@@ -9934,12 +9939,15 @@
   </si>
   <si>
     <t>This drawing is from Pesta (1911). He labeled it &lt;em class="species"&gt;Uca gaimardi.&lt;/em&gt;</t>
+  </si>
+  <si>
+    <t>festae;festæ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -10119,7 +10127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10152,9 +10160,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10187,6 +10212,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10362,7 +10404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10372,13 +10414,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="77" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -15187,7 +15229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15196,9 +15238,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15468,7 +15510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C662"/>
   <sheetViews>
     <sheetView topLeftCell="A598" workbookViewId="0">
@@ -15477,7 +15519,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -22773,7 +22815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22783,9 +22825,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="43.75" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -25515,24 +25557,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="15"/>
-    <col min="3" max="3" width="18.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="15" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="15"/>
+    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="15" customWidth="1"/>
     <col min="5" max="6" width="21" style="15" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="15" customWidth="1"/>
-    <col min="9" max="16" width="9.125" style="15"/>
-    <col min="17" max="17" width="9.625" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="9.125" style="15"/>
+    <col min="7" max="7" width="6.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="15" customWidth="1"/>
+    <col min="9" max="16" width="9.140625" style="15"/>
+    <col min="17" max="17" width="9.5703125" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -44569,22 +44611,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -45903,7 +45945,7 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>3304</v>
       </c>
       <c r="C58" t="s">
         <v>25</v>
@@ -49220,7 +49262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49229,11 +49271,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -50075,7 +50117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -50084,7 +50126,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="8.75" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -50638,7 +50680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50647,7 +50689,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C0364C-4C28-415A-BA82-4BD285F877D1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FE7A61-4603-4580-A253-80B77369BD72}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8130" yWindow="525" windowWidth="10500" windowHeight="13155" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_info" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10485" uniqueCount="3328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10488" uniqueCount="3328">
   <si>
     <t>acuta</t>
   </si>
@@ -44902,7 +44902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
@@ -50969,10 +50969,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51140,39 +51140,39 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>3253</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3128</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>3254</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B20" s="22" t="s">
         <v>3255</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>3251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2152</v>
+        <v>2015</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>2518</v>
@@ -51180,83 +51180,94 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2519</v>
+        <v>2152</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>3260</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2011</v>
+        <v>2519</v>
       </c>
       <c r="B23" t="s">
-        <v>3259</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>3264</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2161</v>
+        <v>2011</v>
       </c>
       <c r="B24" t="s">
-        <v>1081</v>
+        <v>3259</v>
       </c>
       <c r="C24" t="s">
-        <v>1122</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>1313</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>3193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>3256</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>3265</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B30" s="22" t="s">
         <v>3255</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C30" s="22" t="s">
         <v>3251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3257</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3260</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>3258</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>3260</v>
       </c>
     </row>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E435C726-9DE3-4F6E-8CC2-9246E1B36301}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF6709-8407-48ED-B73B-63FCD18C8BB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7452" yWindow="0" windowWidth="20328" windowHeight="16548" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="0" windowWidth="23160" windowHeight="16548" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -7928,9 +7928,6 @@
     <t>typhoni;typhony</t>
   </si>
   <si>
-    <t>burgersi;bergersii</t>
-  </si>
-  <si>
     <t>lactea;laclaea;lactaea;lacteus;latea;lacteal;lacté</t>
   </si>
   <si>
@@ -10536,6 +10533,9 @@
   </si>
   <si>
     <t>Photo from Shih &lt;em&gt;et al.&lt;/em&gt; (2019), Figure 10.</t>
+  </si>
+  <si>
+    <t>burgersi;bergersii;bergersi</t>
   </si>
 </sst>
 </file>
@@ -11021,7 +11021,7 @@
         <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>98</v>
@@ -11071,7 +11071,7 @@
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D2" t="s">
         <v>106</v>
@@ -11089,7 +11089,7 @@
         <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="J2" t="s">
         <v>457</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B4" t="s">
         <v>105</v>
@@ -11168,22 +11168,22 @@
         <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="E4" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="F4" t="s">
+        <v>2669</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2669</v>
+      </c>
+      <c r="H4" t="s">
         <v>2670</v>
       </c>
-      <c r="G4" t="s">
-        <v>2670</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2671</v>
-      </c>
       <c r="I4" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="J4" t="s">
         <v>457</v>
@@ -11259,7 +11259,7 @@
         <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="D6" t="s">
         <v>674</v>
@@ -11541,7 +11541,7 @@
         <v>270</v>
       </c>
       <c r="C12" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D12" t="s">
         <v>116</v>
@@ -11556,10 +11556,10 @@
         <v>248</v>
       </c>
       <c r="H12" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>3478</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>3479</v>
       </c>
       <c r="J12" t="s">
         <v>457</v>
@@ -11976,7 +11976,7 @@
         <v>443</v>
       </c>
       <c r="G21" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="H21" t="s">
         <v>509</v>
@@ -12493,7 +12493,7 @@
         <v>415</v>
       </c>
       <c r="G32" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="H32" t="s">
         <v>652</v>
@@ -13092,7 +13092,7 @@
         <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="D45" t="s">
         <v>154</v>
@@ -13656,7 +13656,7 @@
         <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="D57" t="s">
         <v>166</v>
@@ -13750,7 +13750,7 @@
         <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="D59" t="s">
         <v>668</v>
@@ -13900,10 +13900,10 @@
         <v>1072</v>
       </c>
       <c r="F62" t="s">
+        <v>2689</v>
+      </c>
+      <c r="G62" t="s">
         <v>2690</v>
-      </c>
-      <c r="G62" t="s">
-        <v>2691</v>
       </c>
       <c r="H62" t="s">
         <v>651</v>
@@ -14220,7 +14220,7 @@
         <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="D69" t="s">
         <v>178</v>
@@ -14784,7 +14784,7 @@
         <v>105</v>
       </c>
       <c r="C81" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D81" t="s">
         <v>195</v>
@@ -14831,7 +14831,7 @@
         <v>105</v>
       </c>
       <c r="C82" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D82" t="s">
         <v>196</v>
@@ -15019,7 +15019,7 @@
         <v>270</v>
       </c>
       <c r="C86" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="D86" t="s">
         <v>200</v>
@@ -15536,7 +15536,7 @@
         <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D97" t="s">
         <v>211</v>
@@ -15677,7 +15677,7 @@
         <v>270</v>
       </c>
       <c r="C100" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D100" t="s">
         <v>216</v>
@@ -15906,13 +15906,13 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B105" t="s">
         <v>270</v>
       </c>
       <c r="C105" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D105" t="s">
         <v>300</v>
@@ -15921,16 +15921,16 @@
         <v>1107</v>
       </c>
       <c r="F105" t="s">
+        <v>3475</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3475</v>
+      </c>
+      <c r="H105" t="s">
         <v>3476</v>
       </c>
-      <c r="G105" t="s">
-        <v>3476</v>
-      </c>
-      <c r="H105" t="s">
-        <v>3477</v>
-      </c>
       <c r="I105" s="16" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="J105" t="s">
         <v>457</v>
@@ -16429,13 +16429,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B17" t="s">
         <v>990</v>
       </c>
       <c r="C17" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -16583,16 +16583,16 @@
         <v>95</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2684</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>2685</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>2686</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>2687</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -16767,7 +16767,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B14">
         <v>13.3</v>
@@ -16784,7 +16784,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B15">
         <v>7.6</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B16">
         <v>10.199999999999999</v>
@@ -16818,7 +16818,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B17">
         <v>21.5</v>
@@ -16835,7 +16835,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B18">
         <v>6.3</v>
@@ -16852,7 +16852,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B19">
         <v>7.3</v>
@@ -16869,7 +16869,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B20">
         <v>16.399999999999999</v>
@@ -17961,10 +17961,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2699</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2700</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2144</v>
@@ -17992,22 +17992,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B2" t="s">
         <v>2719</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2720</v>
       </c>
       <c r="C2" t="s">
         <v>990</v>
       </c>
       <c r="D2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="E2" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="F2" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="G2" t="s">
         <v>990</v>
@@ -18016,29 +18016,29 @@
         <v>990</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B3" t="s">
         <v>2701</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D3" t="s">
         <v>2702</v>
       </c>
-      <c r="C3" t="s">
-        <v>3340</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2703</v>
-      </c>
       <c r="E3" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="F3" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="G3" t="s">
         <v>990</v>
@@ -18047,29 +18047,29 @@
         <v>990</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D4" t="s">
         <v>2704</v>
       </c>
-      <c r="B4" t="s">
-        <v>2702</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3340</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2705</v>
-      </c>
       <c r="E4" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="F4" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="G4" t="s">
         <v>990</v>
@@ -18078,29 +18078,29 @@
         <v>990</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B5" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="C5" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="D5" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="E5" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="F5" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="G5" t="s">
         <v>990</v>
@@ -18109,29 +18109,29 @@
         <v>990</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B6" t="s">
         <v>2710</v>
       </c>
-      <c r="B6" t="s">
-        <v>2711</v>
-      </c>
       <c r="C6" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="D6" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="E6" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="F6" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="G6" t="s">
         <v>990</v>
@@ -18140,29 +18140,29 @@
         <v>990</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B7" t="s">
         <v>2706</v>
       </c>
-      <c r="B7" t="s">
-        <v>2707</v>
-      </c>
       <c r="C7" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D7" t="s">
         <v>1660</v>
       </c>
       <c r="E7" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="F7" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="G7" t="s">
         <v>990</v>
@@ -18173,22 +18173,22 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B8" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="C8" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D8" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="E8" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="F8" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="G8" t="s">
         <v>990</v>
@@ -18199,22 +18199,22 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B9" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="C9" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="D9" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="E9" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="F9" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="G9" t="s">
         <v>990</v>
@@ -18228,10 +18228,10 @@
         <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C10" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="D10" t="s">
         <v>1104</v>
@@ -18240,7 +18240,7 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="G10">
         <v>53280</v>
@@ -18254,10 +18254,10 @@
         <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C11" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="D11" t="s">
         <v>1666</v>
@@ -18266,7 +18266,7 @@
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="G11" t="s">
         <v>990</v>
@@ -18280,10 +18280,10 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C12" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
         <v>1178</v>
@@ -18292,7 +18292,7 @@
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="G12">
         <v>53288</v>
@@ -18306,10 +18306,10 @@
         <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C13" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
         <v>1660</v>
@@ -18318,7 +18318,7 @@
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="G13">
         <v>6771</v>
@@ -18332,10 +18332,10 @@
         <v>2432</v>
       </c>
       <c r="B14" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C14" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
         <v>2547</v>
@@ -18344,7 +18344,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="G14" t="s">
         <v>990</v>
@@ -18358,10 +18358,10 @@
         <v>270</v>
       </c>
       <c r="B15" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C15" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D15" t="s">
         <v>1660</v>
@@ -18370,7 +18370,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="G15">
         <v>1239987</v>
@@ -18384,10 +18384,10 @@
         <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C16" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D16" t="s">
         <v>1660</v>
@@ -18396,7 +18396,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="G16">
         <v>1239991</v>
@@ -18410,10 +18410,10 @@
         <v>272</v>
       </c>
       <c r="B17" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C17" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D17" t="s">
         <v>2545</v>
@@ -18422,7 +18422,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="G17">
         <v>1239992</v>
@@ -18436,10 +18436,10 @@
         <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C18" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D18" t="s">
         <v>2546</v>
@@ -18448,7 +18448,7 @@
         <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="G18">
         <v>1239990</v>
@@ -18462,10 +18462,10 @@
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C19" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D19" t="s">
         <v>1660</v>
@@ -18474,7 +18474,7 @@
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="G19">
         <v>1239988</v>
@@ -18488,10 +18488,10 @@
         <v>2376</v>
       </c>
       <c r="B20" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C20" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D20" t="s">
         <v>2384</v>
@@ -18500,7 +18500,7 @@
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="G20" t="s">
         <v>990</v>
@@ -18517,7 +18517,7 @@
         <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="D21" t="s">
         <v>1666</v>
@@ -18526,7 +18526,7 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="G21">
         <v>53284</v>
@@ -18543,7 +18543,7 @@
         <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="D22" t="s">
         <v>1660</v>
@@ -18552,7 +18552,7 @@
         <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="G22" t="s">
         <v>990</v>
@@ -18563,13 +18563,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="B23" t="s">
         <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="D23" t="s">
         <v>990</v>
@@ -18578,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="G23" t="s">
         <v>990</v>
@@ -18589,13 +18589,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B24" t="s">
         <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="D24" t="s">
         <v>1660</v>
@@ -18604,7 +18604,7 @@
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="G24" t="s">
         <v>990</v>
@@ -18621,7 +18621,7 @@
         <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="D25" t="s">
         <v>2546</v>
@@ -18630,7 +18630,7 @@
         <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="G25" t="s">
         <v>990</v>
@@ -18641,13 +18641,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="B26" t="s">
         <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="D26" t="s">
         <v>990</v>
@@ -18656,7 +18656,7 @@
         <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="G26" t="s">
         <v>990</v>
@@ -18667,13 +18667,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="B27" t="s">
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="D27" t="s">
         <v>990</v>
@@ -18682,7 +18682,7 @@
         <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="G27" t="s">
         <v>990</v>
@@ -18699,7 +18699,7 @@
         <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="D28" t="s">
         <v>1660</v>
@@ -18708,7 +18708,7 @@
         <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="G28" t="s">
         <v>990</v>
@@ -18725,7 +18725,7 @@
         <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="D29" t="s">
         <v>1104</v>
@@ -18734,7 +18734,7 @@
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="G29" t="s">
         <v>990</v>
@@ -18745,13 +18745,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B30" t="s">
         <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="D30" t="s">
         <v>1029</v>
@@ -18760,7 +18760,7 @@
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="G30" t="s">
         <v>990</v>
@@ -18792,10 +18792,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>563</v>
@@ -18803,10 +18803,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="C2" t="s">
         <v>990</v>
@@ -18814,68 +18814,68 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B3" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="C3" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B4" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C4" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B5" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="C5" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B6" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="C6" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B7" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="C7" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B8" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="C8" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -18883,21 +18883,21 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="C9" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B10" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="C10" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -18918,7 +18918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
@@ -19006,29 +19006,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -19050,79 +19050,79 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B15">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B18">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -19529,7 +19529,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -19540,7 +19540,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -19551,7 +19551,7 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -19562,7 +19562,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -19573,7 +19573,7 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -19584,7 +19584,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -19595,7 +19595,7 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -19606,7 +19606,7 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -19617,7 +19617,7 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -19628,7 +19628,7 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -19639,7 +19639,7 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -21872,7 +21872,7 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -22532,7 +22532,7 @@
         <v>5</v>
       </c>
       <c r="C328" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -22543,7 +22543,7 @@
         <v>6</v>
       </c>
       <c r="C329" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -22554,7 +22554,7 @@
         <v>7</v>
       </c>
       <c r="C330" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -22565,7 +22565,7 @@
         <v>8</v>
       </c>
       <c r="C331" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -23412,7 +23412,7 @@
         <v>1</v>
       </c>
       <c r="C408" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -23423,7 +23423,7 @@
         <v>2</v>
       </c>
       <c r="C409" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -23434,7 +23434,7 @@
         <v>3</v>
       </c>
       <c r="C410" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -23445,7 +23445,7 @@
         <v>4</v>
       </c>
       <c r="C411" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -23456,7 +23456,7 @@
         <v>5</v>
       </c>
       <c r="C412" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -23467,7 +23467,7 @@
         <v>6</v>
       </c>
       <c r="C413" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -23665,7 +23665,7 @@
         <v>1</v>
       </c>
       <c r="C431" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -24072,7 +24072,7 @@
         <v>5</v>
       </c>
       <c r="C468" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -24083,7 +24083,7 @@
         <v>6</v>
       </c>
       <c r="C469" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -25887,7 +25887,7 @@
         <v>1</v>
       </c>
       <c r="C633" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -25975,7 +25975,7 @@
         <v>10</v>
       </c>
       <c r="C641" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -25986,7 +25986,7 @@
         <v>11</v>
       </c>
       <c r="C642" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -25997,7 +25997,7 @@
         <v>12</v>
       </c>
       <c r="C643" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -26008,7 +26008,7 @@
         <v>13</v>
       </c>
       <c r="C644" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -26019,7 +26019,7 @@
         <v>14</v>
       </c>
       <c r="C645" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -26030,7 +26030,7 @@
         <v>15</v>
       </c>
       <c r="C646" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -26041,7 +26041,7 @@
         <v>16</v>
       </c>
       <c r="C647" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -26052,7 +26052,7 @@
         <v>17</v>
       </c>
       <c r="C648" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -26063,7 +26063,7 @@
         <v>18</v>
       </c>
       <c r="C649" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -26074,7 +26074,7 @@
         <v>19</v>
       </c>
       <c r="C650" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -26085,7 +26085,7 @@
         <v>20</v>
       </c>
       <c r="C651" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -26096,7 +26096,7 @@
         <v>21</v>
       </c>
       <c r="C652" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -26360,7 +26360,7 @@
         <v>5</v>
       </c>
       <c r="C676" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -26371,7 +26371,7 @@
         <v>6</v>
       </c>
       <c r="C677" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -26382,216 +26382,216 @@
         <v>7</v>
       </c>
       <c r="C678" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B679">
         <v>1</v>
       </c>
       <c r="C679" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B680">
         <v>2</v>
       </c>
       <c r="C680" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B681">
         <v>3</v>
       </c>
       <c r="C681" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B682">
         <v>4</v>
       </c>
       <c r="C682" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B683">
         <v>5</v>
       </c>
       <c r="C683" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B684">
         <v>6</v>
       </c>
       <c r="C684" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B685">
         <v>7</v>
       </c>
       <c r="C685" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B686">
         <v>8</v>
       </c>
       <c r="C686" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B687">
         <v>9</v>
       </c>
       <c r="C687" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B688">
         <v>10</v>
       </c>
       <c r="C688" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B689">
         <v>11</v>
       </c>
       <c r="C689" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B690">
         <v>12</v>
       </c>
       <c r="C690" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B691">
         <v>13</v>
       </c>
       <c r="C691" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B692">
         <v>14</v>
       </c>
       <c r="C692" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B693">
         <v>15</v>
       </c>
       <c r="C693" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B694">
         <v>16</v>
       </c>
       <c r="C694" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B695">
         <v>17</v>
       </c>
       <c r="C695" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B696">
         <v>18</v>
       </c>
       <c r="C696" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="B697">
         <v>1</v>
       </c>
       <c r="C697" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -26712,7 +26712,7 @@
         <v>2</v>
       </c>
       <c r="C708" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
@@ -26925,10 +26925,10 @@
         <v>555</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>557</v>
@@ -26954,7 +26954,7 @@
         <v>456</v>
       </c>
       <c r="D2" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="E2" t="s">
         <v>556</v>
@@ -26989,7 +26989,7 @@
         <v>456</v>
       </c>
       <c r="D3" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="E3" t="s">
         <v>562</v>
@@ -27024,7 +27024,7 @@
         <v>456</v>
       </c>
       <c r="D4" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="E4" t="s">
         <v>566</v>
@@ -27059,7 +27059,7 @@
         <v>456</v>
       </c>
       <c r="D5" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="E5" t="s">
         <v>567</v>
@@ -27094,7 +27094,7 @@
         <v>456</v>
       </c>
       <c r="D6" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="E6" t="s">
         <v>569</v>
@@ -27129,7 +27129,7 @@
         <v>456</v>
       </c>
       <c r="D7" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="E7" t="s">
         <v>570</v>
@@ -27164,7 +27164,7 @@
         <v>456</v>
       </c>
       <c r="D8" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="E8" t="s">
         <v>572</v>
@@ -27199,7 +27199,7 @@
         <v>456</v>
       </c>
       <c r="D9" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="E9" t="s">
         <v>573</v>
@@ -27234,7 +27234,7 @@
         <v>456</v>
       </c>
       <c r="D10" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="E10" t="s">
         <v>575</v>
@@ -27269,7 +27269,7 @@
         <v>456</v>
       </c>
       <c r="D11" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="E11" t="s">
         <v>576</v>
@@ -27304,7 +27304,7 @@
         <v>456</v>
       </c>
       <c r="D12" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="E12" t="s">
         <v>577</v>
@@ -27339,7 +27339,7 @@
         <v>456</v>
       </c>
       <c r="D13" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="E13" t="s">
         <v>578</v>
@@ -27374,7 +27374,7 @@
         <v>456</v>
       </c>
       <c r="D14" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="E14" t="s">
         <v>579</v>
@@ -27409,7 +27409,7 @@
         <v>582</v>
       </c>
       <c r="D15" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="E15" t="s">
         <v>583</v>
@@ -27444,7 +27444,7 @@
         <v>582</v>
       </c>
       <c r="D16" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="E16" t="s">
         <v>584</v>
@@ -27479,7 +27479,7 @@
         <v>582</v>
       </c>
       <c r="D17" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="E17" t="s">
         <v>578</v>
@@ -27514,7 +27514,7 @@
         <v>582</v>
       </c>
       <c r="D18" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="E18" t="s">
         <v>618</v>
@@ -27549,7 +27549,7 @@
         <v>582</v>
       </c>
       <c r="D19" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="E19" t="s">
         <v>586</v>
@@ -27584,7 +27584,7 @@
         <v>582</v>
       </c>
       <c r="D20" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="E20" t="s">
         <v>587</v>
@@ -27619,7 +27619,7 @@
         <v>582</v>
       </c>
       <c r="D21" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="E21" t="s">
         <v>588</v>
@@ -27654,7 +27654,7 @@
         <v>582</v>
       </c>
       <c r="D22" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="E22" t="s">
         <v>579</v>
@@ -27689,7 +27689,7 @@
         <v>582</v>
       </c>
       <c r="D23" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="E23" t="s">
         <v>569</v>
@@ -27724,7 +27724,7 @@
         <v>582</v>
       </c>
       <c r="D24" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="E24" t="s">
         <v>624</v>
@@ -27759,7 +27759,7 @@
         <v>582</v>
       </c>
       <c r="D25" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="E25" t="s">
         <v>591</v>
@@ -27794,7 +27794,7 @@
         <v>582</v>
       </c>
       <c r="D26" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="E26" t="s">
         <v>623</v>
@@ -27829,7 +27829,7 @@
         <v>582</v>
       </c>
       <c r="D27" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="E27" t="s">
         <v>592</v>
@@ -27864,7 +27864,7 @@
         <v>582</v>
       </c>
       <c r="D28" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="E28" t="s">
         <v>622</v>
@@ -27899,7 +27899,7 @@
         <v>582</v>
       </c>
       <c r="D29" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="E29" t="s">
         <v>586</v>
@@ -27934,7 +27934,7 @@
         <v>582</v>
       </c>
       <c r="D30" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="E30" t="s">
         <v>577</v>
@@ -27969,7 +27969,7 @@
         <v>582</v>
       </c>
       <c r="D31" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="E31" t="s">
         <v>575</v>
@@ -28004,7 +28004,7 @@
         <v>582</v>
       </c>
       <c r="D32" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="E32" t="s">
         <v>573</v>
@@ -28039,7 +28039,7 @@
         <v>582</v>
       </c>
       <c r="D33" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="E33" t="s">
         <v>586</v>
@@ -28074,7 +28074,7 @@
         <v>582</v>
       </c>
       <c r="D34" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="E34" t="s">
         <v>579</v>
@@ -28109,7 +28109,7 @@
         <v>582</v>
       </c>
       <c r="D35" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="E35" t="s">
         <v>625</v>
@@ -28144,7 +28144,7 @@
         <v>582</v>
       </c>
       <c r="D36" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="E36" t="s">
         <v>626</v>
@@ -28179,7 +28179,7 @@
         <v>582</v>
       </c>
       <c r="D37" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="E37" t="s">
         <v>595</v>
@@ -28214,7 +28214,7 @@
         <v>582</v>
       </c>
       <c r="D38" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="E38" t="s">
         <v>596</v>
@@ -28249,7 +28249,7 @@
         <v>582</v>
       </c>
       <c r="D39" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="E39" t="s">
         <v>627</v>
@@ -28284,7 +28284,7 @@
         <v>582</v>
       </c>
       <c r="D40" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="E40" t="s">
         <v>628</v>
@@ -28319,7 +28319,7 @@
         <v>582</v>
       </c>
       <c r="D41" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="E41" t="s">
         <v>597</v>
@@ -28354,7 +28354,7 @@
         <v>582</v>
       </c>
       <c r="D42" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>629</v>
@@ -28389,7 +28389,7 @@
         <v>582</v>
       </c>
       <c r="D43" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="E43" t="s">
         <v>579</v>
@@ -28424,7 +28424,7 @@
         <v>582</v>
       </c>
       <c r="D44" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="E44" t="s">
         <v>598</v>
@@ -28459,7 +28459,7 @@
         <v>582</v>
       </c>
       <c r="D45" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="E45" t="s">
         <v>576</v>
@@ -28494,7 +28494,7 @@
         <v>582</v>
       </c>
       <c r="D46" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="E46" t="s">
         <v>630</v>
@@ -28529,7 +28529,7 @@
         <v>582</v>
       </c>
       <c r="D47" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="E47" t="s">
         <v>631</v>
@@ -28564,7 +28564,7 @@
         <v>582</v>
       </c>
       <c r="D48" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="E48" t="s">
         <v>632</v>
@@ -28599,7 +28599,7 @@
         <v>582</v>
       </c>
       <c r="D49" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="E49" t="s">
         <v>633</v>
@@ -28634,7 +28634,7 @@
         <v>582</v>
       </c>
       <c r="D50" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="E50" t="s">
         <v>569</v>
@@ -28669,7 +28669,7 @@
         <v>582</v>
       </c>
       <c r="D51" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="E51" t="s">
         <v>634</v>
@@ -28704,7 +28704,7 @@
         <v>582</v>
       </c>
       <c r="D52" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="E52" t="s">
         <v>570</v>
@@ -28739,7 +28739,7 @@
         <v>582</v>
       </c>
       <c r="D53" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="E53" t="s">
         <v>575</v>
@@ -28774,7 +28774,7 @@
         <v>582</v>
       </c>
       <c r="D54" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="E54" t="s">
         <v>575</v>
@@ -28809,7 +28809,7 @@
         <v>582</v>
       </c>
       <c r="D55" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="E55" t="s">
         <v>562</v>
@@ -28844,7 +28844,7 @@
         <v>582</v>
       </c>
       <c r="D56" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="E56" t="s">
         <v>602</v>
@@ -28879,7 +28879,7 @@
         <v>582</v>
       </c>
       <c r="D57" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="E57" t="s">
         <v>603</v>
@@ -28914,7 +28914,7 @@
         <v>582</v>
       </c>
       <c r="D58" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="E58" t="s">
         <v>604</v>
@@ -28949,7 +28949,7 @@
         <v>582</v>
       </c>
       <c r="D59" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="E59" t="s">
         <v>605</v>
@@ -28984,7 +28984,7 @@
         <v>582</v>
       </c>
       <c r="D60" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="E60" t="s">
         <v>606</v>
@@ -29019,7 +29019,7 @@
         <v>582</v>
       </c>
       <c r="D61" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="E61" t="s">
         <v>607</v>
@@ -29054,7 +29054,7 @@
         <v>582</v>
       </c>
       <c r="D62" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="E62" t="s">
         <v>608</v>
@@ -29089,7 +29089,7 @@
         <v>582</v>
       </c>
       <c r="D63" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="E63" t="s">
         <v>602</v>
@@ -29124,7 +29124,7 @@
         <v>582</v>
       </c>
       <c r="D64" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="E64" t="s">
         <v>573</v>
@@ -29159,7 +29159,7 @@
         <v>582</v>
       </c>
       <c r="D65" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="E65" t="s">
         <v>631</v>
@@ -29194,7 +29194,7 @@
         <v>611</v>
       </c>
       <c r="D66" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="E66" t="s">
         <v>572</v>
@@ -29229,7 +29229,7 @@
         <v>611</v>
       </c>
       <c r="D67" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="E67" t="s">
         <v>588</v>
@@ -29264,7 +29264,7 @@
         <v>611</v>
       </c>
       <c r="D68" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="E68" t="s">
         <v>591</v>
@@ -29299,7 +29299,7 @@
         <v>611</v>
       </c>
       <c r="D69" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="E69" t="s">
         <v>569</v>
@@ -29334,7 +29334,7 @@
         <v>611</v>
       </c>
       <c r="D70" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="E70" t="s">
         <v>612</v>
@@ -29369,7 +29369,7 @@
         <v>611</v>
       </c>
       <c r="D71" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="E71" t="s">
         <v>602</v>
@@ -29404,7 +29404,7 @@
         <v>611</v>
       </c>
       <c r="D72" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="E72" t="s">
         <v>635</v>
@@ -29439,7 +29439,7 @@
         <v>611</v>
       </c>
       <c r="D73" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="E73" t="s">
         <v>613</v>
@@ -29474,7 +29474,7 @@
         <v>611</v>
       </c>
       <c r="D74" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="E74" t="s">
         <v>636</v>
@@ -29509,7 +29509,7 @@
         <v>611</v>
       </c>
       <c r="D75" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="E75" t="s">
         <v>614</v>
@@ -29544,7 +29544,7 @@
         <v>615</v>
       </c>
       <c r="D76" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="E76" t="s">
         <v>576</v>
@@ -29579,7 +29579,7 @@
         <v>615</v>
       </c>
       <c r="D77" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="E77" t="s">
         <v>637</v>
@@ -29614,7 +29614,7 @@
         <v>616</v>
       </c>
       <c r="D78" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="E78" t="s">
         <v>638</v>
@@ -29649,7 +29649,7 @@
         <v>616</v>
       </c>
       <c r="D79" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="E79" t="s">
         <v>639</v>
@@ -29684,7 +29684,7 @@
         <v>616</v>
       </c>
       <c r="D80" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="E80" t="s">
         <v>640</v>
@@ -29719,7 +29719,7 @@
         <v>617</v>
       </c>
       <c r="D81" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="E81" t="s">
         <v>575</v>
@@ -29754,7 +29754,7 @@
         <v>617</v>
       </c>
       <c r="D82" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="E82" t="s">
         <v>612</v>
@@ -29789,7 +29789,7 @@
         <v>617</v>
       </c>
       <c r="D83" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="E83" t="s">
         <v>586</v>
@@ -29824,7 +29824,7 @@
         <v>617</v>
       </c>
       <c r="D84" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="E84" t="s">
         <v>598</v>
@@ -29859,7 +29859,7 @@
         <v>617</v>
       </c>
       <c r="D85" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="E85" t="s">
         <v>607</v>
@@ -29894,10 +29894,10 @@
         <v>611</v>
       </c>
       <c r="D86" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="E86" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="F86">
         <v>768</v>
@@ -29909,13 +29909,13 @@
         <v>558</v>
       </c>
       <c r="I86" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="J86" t="s">
+        <v>2693</v>
+      </c>
+      <c r="K86" t="s">
         <v>2694</v>
-      </c>
-      <c r="K86" t="s">
-        <v>2695</v>
       </c>
     </row>
   </sheetData>
@@ -30000,7 +30000,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -30029,7 +30029,7 @@
         <v>82</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -30087,7 +30087,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -30116,7 +30116,7 @@
         <v>91</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -30145,7 +30145,7 @@
         <v>741</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -30203,7 +30203,7 @@
         <v>78</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -30232,7 +30232,7 @@
         <v>91</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -30261,7 +30261,7 @@
         <v>81</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -30290,7 +30290,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -30348,7 +30348,7 @@
         <v>91</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -30377,7 +30377,7 @@
         <v>81</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -30406,7 +30406,7 @@
         <v>78</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -30522,7 +30522,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -30551,7 +30551,7 @@
         <v>59</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -30609,7 +30609,7 @@
         <v>29</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -30638,7 +30638,7 @@
         <v>62</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -30667,7 +30667,7 @@
         <v>63</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -30696,7 +30696,7 @@
         <v>88</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -30899,7 +30899,7 @@
         <v>63</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -30928,7 +30928,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -31073,7 +31073,7 @@
         <v>91</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -31102,7 +31102,7 @@
         <v>82</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -31305,7 +31305,7 @@
         <v>29</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -31334,7 +31334,7 @@
         <v>30</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -31479,7 +31479,7 @@
         <v>22</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -31516,7 +31516,7 @@
         <v>728</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>916</v>
@@ -31528,7 +31528,7 @@
         <v>1294</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>720</v>
@@ -31537,7 +31537,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -31566,7 +31566,7 @@
         <v>13</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -31595,7 +31595,7 @@
         <v>13</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -31943,7 +31943,7 @@
         <v>13</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -31972,7 +31972,7 @@
         <v>62</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -32001,7 +32001,7 @@
         <v>62</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -32030,7 +32030,7 @@
         <v>62</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -32059,7 +32059,7 @@
         <v>62</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -32088,7 +32088,7 @@
         <v>62</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -32117,7 +32117,7 @@
         <v>46</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -32146,7 +32146,7 @@
         <v>52</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -32204,7 +32204,7 @@
         <v>93</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -32233,7 +32233,7 @@
         <v>93</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -32349,7 +32349,7 @@
         <v>59</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -32378,7 +32378,7 @@
         <v>59</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -32436,7 +32436,7 @@
         <v>27</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -32465,7 +32465,7 @@
         <v>27</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -32494,7 +32494,7 @@
         <v>67</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -32523,7 +32523,7 @@
         <v>67</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -32668,7 +32668,7 @@
         <v>46</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -32697,7 +32697,7 @@
         <v>87</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -32726,7 +32726,7 @@
         <v>65</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -32755,7 +32755,7 @@
         <v>65</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -32784,7 +32784,7 @@
         <v>65</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -32842,7 +32842,7 @@
         <v>91</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -32958,7 +32958,7 @@
         <v>83</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -32987,7 +32987,7 @@
         <v>83</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -33016,7 +33016,7 @@
         <v>83</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -33045,7 +33045,7 @@
         <v>86</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -33074,7 +33074,7 @@
         <v>86</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -33103,7 +33103,7 @@
         <v>86</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -33132,7 +33132,7 @@
         <v>4</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -33161,7 +33161,7 @@
         <v>4</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -33190,7 +33190,7 @@
         <v>4</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -33219,7 +33219,7 @@
         <v>61</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -33248,7 +33248,7 @@
         <v>61</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -33277,7 +33277,7 @@
         <v>54</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -33306,7 +33306,7 @@
         <v>54</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -33335,7 +33335,7 @@
         <v>54</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -33364,7 +33364,7 @@
         <v>40</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -33393,7 +33393,7 @@
         <v>40</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -33422,7 +33422,7 @@
         <v>40</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -33451,7 +33451,7 @@
         <v>23</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -33480,7 +33480,7 @@
         <v>23</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -33509,7 +33509,7 @@
         <v>23</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -33538,7 +33538,7 @@
         <v>35</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -33567,7 +33567,7 @@
         <v>9</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -33596,7 +33596,7 @@
         <v>31</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -33625,7 +33625,7 @@
         <v>3</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -33654,7 +33654,7 @@
         <v>33</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -33683,7 +33683,7 @@
         <v>64</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -33712,7 +33712,7 @@
         <v>94</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -33741,7 +33741,7 @@
         <v>29</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -33770,7 +33770,7 @@
         <v>68</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -33799,7 +33799,7 @@
         <v>74</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -33828,7 +33828,7 @@
         <v>30</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -33857,7 +33857,7 @@
         <v>5</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -33886,7 +33886,7 @@
         <v>79</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -33915,7 +33915,7 @@
         <v>16</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -33944,7 +33944,7 @@
         <v>19</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -33973,7 +33973,7 @@
         <v>42</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -34002,7 +34002,7 @@
         <v>57</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -34031,7 +34031,7 @@
         <v>80</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -34147,7 +34147,7 @@
         <v>46</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -34263,7 +34263,7 @@
         <v>88</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -34379,7 +34379,7 @@
         <v>2487</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -34553,7 +34553,7 @@
         <v>66</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -34582,7 +34582,7 @@
         <v>66</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -34640,7 +34640,7 @@
         <v>32</v>
       </c>
       <c r="I162" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -34698,7 +34698,7 @@
         <v>2487</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -34727,7 +34727,7 @@
         <v>2487</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -34756,7 +34756,7 @@
         <v>2487</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -34930,7 +34930,7 @@
         <v>82</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -34988,7 +34988,7 @@
         <v>78</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -35017,7 +35017,7 @@
         <v>62</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -35133,7 +35133,7 @@
         <v>1</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -35162,7 +35162,7 @@
         <v>1</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -35191,7 +35191,7 @@
         <v>1</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -35307,7 +35307,7 @@
         <v>2487</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -35336,7 +35336,7 @@
         <v>2487</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -35365,7 +35365,7 @@
         <v>2487</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -35568,7 +35568,7 @@
         <v>81</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -35597,7 +35597,7 @@
         <v>81</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -35626,7 +35626,7 @@
         <v>81</v>
       </c>
       <c r="I196" s="9" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -35655,7 +35655,7 @@
         <v>88</v>
       </c>
       <c r="I197" s="9" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -35684,7 +35684,7 @@
         <v>88</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -35713,7 +35713,7 @@
         <v>88</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -35945,7 +35945,7 @@
         <v>741</v>
       </c>
       <c r="I207" s="9" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -35974,7 +35974,7 @@
         <v>741</v>
       </c>
       <c r="I208" s="9" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -36003,7 +36003,7 @@
         <v>741</v>
       </c>
       <c r="I209" s="9" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -36032,7 +36032,7 @@
         <v>741</v>
       </c>
       <c r="I210" s="9" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -36061,7 +36061,7 @@
         <v>741</v>
       </c>
       <c r="I211" s="9" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -36090,7 +36090,7 @@
         <v>741</v>
       </c>
       <c r="I212" s="9" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -36119,7 +36119,7 @@
         <v>741</v>
       </c>
       <c r="I213" s="9" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -36148,7 +36148,7 @@
         <v>741</v>
       </c>
       <c r="I214" s="9" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -36177,7 +36177,7 @@
         <v>741</v>
       </c>
       <c r="I215" s="9" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -36293,7 +36293,7 @@
         <v>22</v>
       </c>
       <c r="I219" s="9" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -36322,7 +36322,7 @@
         <v>39</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -36351,7 +36351,7 @@
         <v>44</v>
       </c>
       <c r="I221" s="9" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -36380,7 +36380,7 @@
         <v>44</v>
       </c>
       <c r="I222" s="9" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -36409,7 +36409,7 @@
         <v>44</v>
       </c>
       <c r="I223" s="9" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -36438,7 +36438,7 @@
         <v>44</v>
       </c>
       <c r="I224" s="9" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -36467,7 +36467,7 @@
         <v>44</v>
       </c>
       <c r="I225" s="9" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -36496,7 +36496,7 @@
         <v>44</v>
       </c>
       <c r="I226" s="9" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -36525,7 +36525,7 @@
         <v>44</v>
       </c>
       <c r="I227" s="9" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -36554,7 +36554,7 @@
         <v>90</v>
       </c>
       <c r="I228" s="9" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -36583,7 +36583,7 @@
         <v>90</v>
       </c>
       <c r="I229" s="9" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -36612,7 +36612,7 @@
         <v>90</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -36641,7 +36641,7 @@
         <v>90</v>
       </c>
       <c r="I231" s="9" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -36670,7 +36670,7 @@
         <v>90</v>
       </c>
       <c r="I232" s="9" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -36699,7 +36699,7 @@
         <v>90</v>
       </c>
       <c r="I233" s="9" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -36728,7 +36728,7 @@
         <v>90</v>
       </c>
       <c r="I234" s="9" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -37105,7 +37105,7 @@
         <v>62</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -37134,7 +37134,7 @@
         <v>48</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -37163,7 +37163,7 @@
         <v>63</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -37192,7 +37192,7 @@
         <v>63</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -37221,7 +37221,7 @@
         <v>63</v>
       </c>
       <c r="I251" s="9" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -37250,7 +37250,7 @@
         <v>63</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -37279,7 +37279,7 @@
         <v>58</v>
       </c>
       <c r="I253" s="9" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -37308,7 +37308,7 @@
         <v>22</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -37337,7 +37337,7 @@
         <v>67</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -37366,7 +37366,7 @@
         <v>950</v>
       </c>
       <c r="I256" s="9" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -37395,7 +37395,7 @@
         <v>66</v>
       </c>
       <c r="I257" s="9" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -37424,7 +37424,7 @@
         <v>2</v>
       </c>
       <c r="I258" s="9" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -37453,7 +37453,7 @@
         <v>13</v>
       </c>
       <c r="I259" s="9" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -37482,7 +37482,7 @@
         <v>81</v>
       </c>
       <c r="I260" s="9" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -37511,7 +37511,7 @@
         <v>91</v>
       </c>
       <c r="I261" s="9" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -37540,7 +37540,7 @@
         <v>78</v>
       </c>
       <c r="I262" s="9" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -37569,7 +37569,7 @@
         <v>88</v>
       </c>
       <c r="I263" s="9" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -37627,7 +37627,7 @@
         <v>1</v>
       </c>
       <c r="I265" s="9" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -37656,7 +37656,7 @@
         <v>39</v>
       </c>
       <c r="I266" s="9" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -37685,7 +37685,7 @@
         <v>38</v>
       </c>
       <c r="I267" s="9" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -37714,7 +37714,7 @@
         <v>12</v>
       </c>
       <c r="I268" s="9" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -37743,7 +37743,7 @@
         <v>15</v>
       </c>
       <c r="I269" s="9" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -37772,7 +37772,7 @@
         <v>45</v>
       </c>
       <c r="I270" s="9" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -37801,7 +37801,7 @@
         <v>46</v>
       </c>
       <c r="I271" s="9" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -37830,7 +37830,7 @@
         <v>36</v>
       </c>
       <c r="I272" s="9" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -37859,7 +37859,7 @@
         <v>61</v>
       </c>
       <c r="I273" s="9" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -37888,7 +37888,7 @@
         <v>33</v>
       </c>
       <c r="I274" s="9" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -37917,7 +37917,7 @@
         <v>51</v>
       </c>
       <c r="I275" s="9" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -37946,7 +37946,7 @@
         <v>65</v>
       </c>
       <c r="I276" s="9" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -37975,7 +37975,7 @@
         <v>92</v>
       </c>
       <c r="I277" s="9" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -38004,7 +38004,7 @@
         <v>82</v>
       </c>
       <c r="I278" s="9" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -38033,7 +38033,7 @@
         <v>29</v>
       </c>
       <c r="I279" s="9" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -38062,7 +38062,7 @@
         <v>62</v>
       </c>
       <c r="I280" s="9" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -38091,7 +38091,7 @@
         <v>74</v>
       </c>
       <c r="I281" s="9" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -38120,7 +38120,7 @@
         <v>25</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -38149,7 +38149,7 @@
         <v>13</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -38178,7 +38178,7 @@
         <v>59</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -38207,7 +38207,7 @@
         <v>59</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -38236,7 +38236,7 @@
         <v>59</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -38265,7 +38265,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -38294,7 +38294,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -38323,7 +38323,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -38352,7 +38352,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -38381,7 +38381,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -38410,7 +38410,7 @@
         <v>56</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -38439,7 +38439,7 @@
         <v>56</v>
       </c>
       <c r="I293" s="9" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -38468,7 +38468,7 @@
         <v>56</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -38497,7 +38497,7 @@
         <v>56</v>
       </c>
       <c r="I295" s="9" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -38526,7 +38526,7 @@
         <v>56</v>
       </c>
       <c r="I296" s="9" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -38555,7 +38555,7 @@
         <v>56</v>
       </c>
       <c r="I297" s="9" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -38584,7 +38584,7 @@
         <v>56</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -38613,7 +38613,7 @@
         <v>56</v>
       </c>
       <c r="I299" s="9" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -38642,7 +38642,7 @@
         <v>56</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -38671,7 +38671,7 @@
         <v>56</v>
       </c>
       <c r="I301" s="9" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -38700,7 +38700,7 @@
         <v>56</v>
       </c>
       <c r="I302" s="9" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -38729,7 +38729,7 @@
         <v>56</v>
       </c>
       <c r="I303" s="9" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -38758,7 +38758,7 @@
         <v>56</v>
       </c>
       <c r="I304" s="9" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -38787,7 +38787,7 @@
         <v>62</v>
       </c>
       <c r="I305" s="9" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -38816,7 +38816,7 @@
         <v>23</v>
       </c>
       <c r="I306" s="9" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -38845,7 +38845,7 @@
         <v>23</v>
       </c>
       <c r="I307" s="9" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -38874,7 +38874,7 @@
         <v>23</v>
       </c>
       <c r="I308" s="9" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -38903,7 +38903,7 @@
         <v>23</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -38932,7 +38932,7 @@
         <v>23</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -38961,7 +38961,7 @@
         <v>88</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -38990,7 +38990,7 @@
         <v>88</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -39019,7 +39019,7 @@
         <v>88</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -39048,7 +39048,7 @@
         <v>88</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -39077,7 +39077,7 @@
         <v>88</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -39106,7 +39106,7 @@
         <v>88</v>
       </c>
       <c r="I316" s="9" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -39132,10 +39132,10 @@
         <v>720</v>
       </c>
       <c r="H317" s="9" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="I317" s="9" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -39161,10 +39161,10 @@
         <v>720</v>
       </c>
       <c r="H318" s="9" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="I318" s="9" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -39193,7 +39193,7 @@
         <v>22</v>
       </c>
       <c r="I319" s="9" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -39222,7 +39222,7 @@
         <v>22</v>
       </c>
       <c r="I320" s="9" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -39251,7 +39251,7 @@
         <v>22</v>
       </c>
       <c r="I321" s="9" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -39280,7 +39280,7 @@
         <v>22</v>
       </c>
       <c r="I322" s="9" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -39309,7 +39309,7 @@
         <v>22</v>
       </c>
       <c r="I323" s="9" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -39338,7 +39338,7 @@
         <v>22</v>
       </c>
       <c r="I324" s="9" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -39367,7 +39367,7 @@
         <v>22</v>
       </c>
       <c r="I325" s="9" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -39396,7 +39396,7 @@
         <v>22</v>
       </c>
       <c r="I326" s="9" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -39425,7 +39425,7 @@
         <v>2</v>
       </c>
       <c r="I327" s="9" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -39454,7 +39454,7 @@
         <v>2</v>
       </c>
       <c r="I328" s="9" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -39483,7 +39483,7 @@
         <v>26</v>
       </c>
       <c r="I329" s="9" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -39512,7 +39512,7 @@
         <v>26</v>
       </c>
       <c r="I330" s="9" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -39541,7 +39541,7 @@
         <v>26</v>
       </c>
       <c r="I331" s="9" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -39570,7 +39570,7 @@
         <v>26</v>
       </c>
       <c r="I332" s="9" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -39599,7 +39599,7 @@
         <v>26</v>
       </c>
       <c r="I333" s="9" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -39628,7 +39628,7 @@
         <v>26</v>
       </c>
       <c r="I334" s="9" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -39657,7 +39657,7 @@
         <v>69</v>
       </c>
       <c r="I335" s="9" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -39686,7 +39686,7 @@
         <v>69</v>
       </c>
       <c r="I336" s="9" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -39715,7 +39715,7 @@
         <v>69</v>
       </c>
       <c r="I337" s="9" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -39744,7 +39744,7 @@
         <v>69</v>
       </c>
       <c r="I338" s="9" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -39773,7 +39773,7 @@
         <v>69</v>
       </c>
       <c r="I339" s="9" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -39802,7 +39802,7 @@
         <v>69</v>
       </c>
       <c r="I340" s="9" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -39831,7 +39831,7 @@
         <v>70</v>
       </c>
       <c r="I341" s="9" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -39860,7 +39860,7 @@
         <v>70</v>
       </c>
       <c r="I342" s="9" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -39889,7 +39889,7 @@
         <v>70</v>
       </c>
       <c r="I343" s="9" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -39918,7 +39918,7 @@
         <v>70</v>
       </c>
       <c r="I344" s="9" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -39947,7 +39947,7 @@
         <v>70</v>
       </c>
       <c r="I345" s="9" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -39976,7 +39976,7 @@
         <v>49</v>
       </c>
       <c r="I346" s="9" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -40005,7 +40005,7 @@
         <v>49</v>
       </c>
       <c r="I347" s="9" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -40034,7 +40034,7 @@
         <v>49</v>
       </c>
       <c r="I348" s="9" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -40063,7 +40063,7 @@
         <v>49</v>
       </c>
       <c r="I349" s="9" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -40092,7 +40092,7 @@
         <v>1</v>
       </c>
       <c r="I350" s="9" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -40121,7 +40121,7 @@
         <v>1</v>
       </c>
       <c r="I351" s="9" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -40150,7 +40150,7 @@
         <v>1</v>
       </c>
       <c r="I352" s="9" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -40179,7 +40179,7 @@
         <v>1</v>
       </c>
       <c r="I353" s="9" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -40208,7 +40208,7 @@
         <v>59</v>
       </c>
       <c r="I354" s="9" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -40237,7 +40237,7 @@
         <v>59</v>
       </c>
       <c r="I355" s="9" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -40266,7 +40266,7 @@
         <v>59</v>
       </c>
       <c r="I356" s="9" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -40295,7 +40295,7 @@
         <v>5</v>
       </c>
       <c r="I357" s="9" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -40324,7 +40324,7 @@
         <v>33</v>
       </c>
       <c r="I358" s="9" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -40353,7 +40353,7 @@
         <v>33</v>
       </c>
       <c r="I359" s="9" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -40382,7 +40382,7 @@
         <v>60</v>
       </c>
       <c r="I360" s="9" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -40411,7 +40411,7 @@
         <v>60</v>
       </c>
       <c r="I361" s="9" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -40440,7 +40440,7 @@
         <v>60</v>
       </c>
       <c r="I362" s="9" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -40469,7 +40469,7 @@
         <v>60</v>
       </c>
       <c r="I363" s="9" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -40498,7 +40498,7 @@
         <v>60</v>
       </c>
       <c r="I364" s="9" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -40527,7 +40527,7 @@
         <v>13</v>
       </c>
       <c r="I365" s="9" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -40556,7 +40556,7 @@
         <v>13</v>
       </c>
       <c r="I366" s="9" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -40585,7 +40585,7 @@
         <v>13</v>
       </c>
       <c r="I367" s="9" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -40614,7 +40614,7 @@
         <v>58</v>
       </c>
       <c r="I368" s="9" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -40643,7 +40643,7 @@
         <v>58</v>
       </c>
       <c r="I369" s="9" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -40672,7 +40672,7 @@
         <v>81</v>
       </c>
       <c r="I370" s="9" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -40701,7 +40701,7 @@
         <v>78</v>
       </c>
       <c r="I371" s="9" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -40730,7 +40730,7 @@
         <v>78</v>
       </c>
       <c r="I372" s="9" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -40759,7 +40759,7 @@
         <v>46</v>
       </c>
       <c r="I373" s="9" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -40788,7 +40788,7 @@
         <v>15</v>
       </c>
       <c r="I374" s="9" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -40817,7 +40817,7 @@
         <v>15</v>
       </c>
       <c r="I375" s="9" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -40846,7 +40846,7 @@
         <v>12</v>
       </c>
       <c r="I376" s="9" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -40875,7 +40875,7 @@
         <v>9</v>
       </c>
       <c r="I377" s="9" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -40904,7 +40904,7 @@
         <v>62</v>
       </c>
       <c r="I378" s="9" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -40933,7 +40933,7 @@
         <v>41</v>
       </c>
       <c r="I379" s="9" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -40962,7 +40962,7 @@
         <v>17</v>
       </c>
       <c r="I380" s="9" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -40991,7 +40991,7 @@
         <v>74</v>
       </c>
       <c r="I381" s="9" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -41020,7 +41020,7 @@
         <v>74</v>
       </c>
       <c r="I382" s="9" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -41049,7 +41049,7 @@
         <v>27</v>
       </c>
       <c r="I383" s="9" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -41078,7 +41078,7 @@
         <v>55</v>
       </c>
       <c r="I384" s="9" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -41136,7 +41136,7 @@
         <v>10</v>
       </c>
       <c r="I386" s="9" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -41165,7 +41165,7 @@
         <v>35</v>
       </c>
       <c r="I387" s="9" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -41194,7 +41194,7 @@
         <v>80</v>
       </c>
       <c r="I388" s="9" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -41223,7 +41223,7 @@
         <v>80</v>
       </c>
       <c r="I389" s="9" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -41252,7 +41252,7 @@
         <v>57</v>
       </c>
       <c r="I390" s="9" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -41281,7 +41281,7 @@
         <v>67</v>
       </c>
       <c r="I391" s="9" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -41310,7 +41310,7 @@
         <v>6</v>
       </c>
       <c r="I392" s="9" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -41339,7 +41339,7 @@
         <v>9</v>
       </c>
       <c r="I393" s="9" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -41368,7 +41368,7 @@
         <v>63</v>
       </c>
       <c r="I394" s="9" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -41397,7 +41397,7 @@
         <v>82</v>
       </c>
       <c r="I395" s="9" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -41426,7 +41426,7 @@
         <v>40</v>
       </c>
       <c r="I396" s="9" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -41455,7 +41455,7 @@
         <v>68</v>
       </c>
       <c r="I397" s="9" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -41484,7 +41484,7 @@
         <v>66</v>
       </c>
       <c r="I398" s="9" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -41513,7 +41513,7 @@
         <v>0</v>
       </c>
       <c r="I399" s="9" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -41542,7 +41542,7 @@
         <v>85</v>
       </c>
       <c r="I400" s="9" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -41600,7 +41600,7 @@
         <v>67</v>
       </c>
       <c r="I402" s="9" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -41629,7 +41629,7 @@
         <v>20</v>
       </c>
       <c r="I403" s="9" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -41658,7 +41658,7 @@
         <v>2</v>
       </c>
       <c r="I404" s="9" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -41687,7 +41687,7 @@
         <v>27</v>
       </c>
       <c r="I405" s="9" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -41716,7 +41716,7 @@
         <v>22</v>
       </c>
       <c r="I406" s="9" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -41745,7 +41745,7 @@
         <v>58</v>
       </c>
       <c r="I407" s="9" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -41774,7 +41774,7 @@
         <v>11</v>
       </c>
       <c r="I408" s="9" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -41803,7 +41803,7 @@
         <v>26</v>
       </c>
       <c r="I409" s="9" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -41832,7 +41832,7 @@
         <v>13</v>
       </c>
       <c r="I410" s="9" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -41861,7 +41861,7 @@
         <v>88</v>
       </c>
       <c r="I411" s="9" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -41890,7 +41890,7 @@
         <v>70</v>
       </c>
       <c r="I412" s="9" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -41919,7 +41919,7 @@
         <v>6</v>
       </c>
       <c r="I413" s="9" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -41948,7 +41948,7 @@
         <v>70</v>
       </c>
       <c r="I414" s="9" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -41977,7 +41977,7 @@
         <v>43</v>
       </c>
       <c r="I415" s="9" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -42006,7 +42006,7 @@
         <v>60</v>
       </c>
       <c r="I416" s="9" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -42035,7 +42035,7 @@
         <v>69</v>
       </c>
       <c r="I417" s="9" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -42064,7 +42064,7 @@
         <v>81</v>
       </c>
       <c r="I418" s="9" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -42093,7 +42093,7 @@
         <v>28</v>
       </c>
       <c r="I419" s="9" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -42122,7 +42122,7 @@
         <v>78</v>
       </c>
       <c r="I420" s="9" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -42151,7 +42151,7 @@
         <v>8</v>
       </c>
       <c r="I421" s="9" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -42180,7 +42180,7 @@
         <v>950</v>
       </c>
       <c r="I422" s="9" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -42209,7 +42209,7 @@
         <v>32</v>
       </c>
       <c r="I423" s="9" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -42238,7 +42238,7 @@
         <v>91</v>
       </c>
       <c r="I424" s="9" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -42267,7 +42267,7 @@
         <v>18</v>
       </c>
       <c r="I425" s="9" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -42296,7 +42296,7 @@
         <v>93</v>
       </c>
       <c r="I426" s="9" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -42325,7 +42325,7 @@
         <v>8</v>
       </c>
       <c r="I427" s="9" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -42354,7 +42354,7 @@
         <v>950</v>
       </c>
       <c r="I428" s="9" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -42383,7 +42383,7 @@
         <v>32</v>
       </c>
       <c r="I429" s="9" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -42412,7 +42412,7 @@
         <v>91</v>
       </c>
       <c r="I430" s="9" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -42441,7 +42441,7 @@
         <v>18</v>
       </c>
       <c r="I431" s="9" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -42470,7 +42470,7 @@
         <v>93</v>
       </c>
       <c r="I432" s="9" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -42499,7 +42499,7 @@
         <v>55</v>
       </c>
       <c r="I433" s="9" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -42528,7 +42528,7 @@
         <v>75</v>
       </c>
       <c r="I434" s="9" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -42557,7 +42557,7 @@
         <v>50</v>
       </c>
       <c r="I435" s="9" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -42586,7 +42586,7 @@
         <v>61</v>
       </c>
       <c r="I436" s="9" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -42615,7 +42615,7 @@
         <v>46</v>
       </c>
       <c r="I437" s="9" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -42644,7 +42644,7 @@
         <v>36</v>
       </c>
       <c r="I438" s="9" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -42673,7 +42673,7 @@
         <v>33</v>
       </c>
       <c r="I439" s="9" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -42702,7 +42702,7 @@
         <v>45</v>
       </c>
       <c r="I440" s="9" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -42731,7 +42731,7 @@
         <v>64</v>
       </c>
       <c r="I441" s="9" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -42760,7 +42760,7 @@
         <v>57</v>
       </c>
       <c r="I442" s="9" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
@@ -42789,7 +42789,7 @@
         <v>9</v>
       </c>
       <c r="I443" s="9" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -42818,7 +42818,7 @@
         <v>10</v>
       </c>
       <c r="I444" s="9" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -42847,7 +42847,7 @@
         <v>23</v>
       </c>
       <c r="I445" s="9" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -42876,7 +42876,7 @@
         <v>92</v>
       </c>
       <c r="I446" s="9" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -42905,7 +42905,7 @@
         <v>76</v>
       </c>
       <c r="I447" s="9" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -42934,7 +42934,7 @@
         <v>29</v>
       </c>
       <c r="I448" s="9" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -42963,7 +42963,7 @@
         <v>31</v>
       </c>
       <c r="I449" s="9" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -42992,7 +42992,7 @@
         <v>65</v>
       </c>
       <c r="I450" s="9" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -43021,7 +43021,7 @@
         <v>48</v>
       </c>
       <c r="I451" s="9" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -43050,7 +43050,7 @@
         <v>63</v>
       </c>
       <c r="I452" s="9" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -43079,7 +43079,7 @@
         <v>51</v>
       </c>
       <c r="I453" s="9" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -43108,7 +43108,7 @@
         <v>12</v>
       </c>
       <c r="I454" s="9" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -43137,7 +43137,7 @@
         <v>15</v>
       </c>
       <c r="I455" s="9" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -43166,7 +43166,7 @@
         <v>84</v>
       </c>
       <c r="I456" s="9" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
@@ -43195,7 +43195,7 @@
         <v>7</v>
       </c>
       <c r="I457" s="9" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -43224,7 +43224,7 @@
         <v>94</v>
       </c>
       <c r="I458" s="9" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
@@ -43253,7 +43253,7 @@
         <v>72</v>
       </c>
       <c r="I459" s="9" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
@@ -43282,7 +43282,7 @@
         <v>73</v>
       </c>
       <c r="I460" s="9" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.3">
@@ -43311,7 +43311,7 @@
         <v>79</v>
       </c>
       <c r="I461" s="9" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.3">
@@ -43340,7 +43340,7 @@
         <v>87</v>
       </c>
       <c r="I462" s="9" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.3">
@@ -43369,7 +43369,7 @@
         <v>3</v>
       </c>
       <c r="I463" s="9" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.3">
@@ -43398,7 +43398,7 @@
         <v>19</v>
       </c>
       <c r="I464" s="9" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -43427,7 +43427,7 @@
         <v>1</v>
       </c>
       <c r="I465" s="9" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -43456,7 +43456,7 @@
         <v>49</v>
       </c>
       <c r="I466" s="9" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -43485,7 +43485,7 @@
         <v>59</v>
       </c>
       <c r="I467" s="9" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -43514,7 +43514,7 @@
         <v>39</v>
       </c>
       <c r="I468" s="9" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -43543,7 +43543,7 @@
         <v>38</v>
       </c>
       <c r="I469" s="9" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -43572,7 +43572,7 @@
         <v>71</v>
       </c>
       <c r="I470" s="9" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -43601,7 +43601,7 @@
         <v>52</v>
       </c>
       <c r="I471" s="9" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -43630,7 +43630,7 @@
         <v>80</v>
       </c>
       <c r="I472" s="9" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -43659,7 +43659,7 @@
         <v>41</v>
       </c>
       <c r="I473" s="9" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -43688,7 +43688,7 @@
         <v>62</v>
       </c>
       <c r="I474" s="9" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -43717,7 +43717,7 @@
         <v>4</v>
       </c>
       <c r="I475" s="9" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -43746,7 +43746,7 @@
         <v>16</v>
       </c>
       <c r="I476" s="9" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
@@ -43775,7 +43775,7 @@
         <v>14</v>
       </c>
       <c r="I477" s="9" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
@@ -43804,7 +43804,7 @@
         <v>40</v>
       </c>
       <c r="I478" s="9" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
@@ -43833,7 +43833,7 @@
         <v>68</v>
       </c>
       <c r="I479" s="9" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
@@ -43862,7 +43862,7 @@
         <v>83</v>
       </c>
       <c r="I480" s="9" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
@@ -43891,7 +43891,7 @@
         <v>42</v>
       </c>
       <c r="I481" s="9" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
@@ -43920,7 +43920,7 @@
         <v>35</v>
       </c>
       <c r="I482" s="9" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
@@ -43949,7 +43949,7 @@
         <v>17</v>
       </c>
       <c r="I483" s="9" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
@@ -43978,7 +43978,7 @@
         <v>77</v>
       </c>
       <c r="I484" s="9" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
@@ -44007,7 +44007,7 @@
         <v>54</v>
       </c>
       <c r="I485" s="9" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
@@ -44036,7 +44036,7 @@
         <v>30</v>
       </c>
       <c r="I486" s="9" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.3">
@@ -44065,7 +44065,7 @@
         <v>25</v>
       </c>
       <c r="I487" s="9" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.3">
@@ -44094,7 +44094,7 @@
         <v>5</v>
       </c>
       <c r="I488" s="9" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.3">
@@ -44123,7 +44123,7 @@
         <v>74</v>
       </c>
       <c r="I489" s="9" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.3">
@@ -44152,7 +44152,7 @@
         <v>25</v>
       </c>
       <c r="I490" s="9" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.3">
@@ -44181,7 +44181,7 @@
         <v>21</v>
       </c>
       <c r="I491" s="9" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.3">
@@ -44210,7 +44210,7 @@
         <v>82</v>
       </c>
       <c r="I492" s="9" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.3">
@@ -44239,7 +44239,7 @@
         <v>86</v>
       </c>
       <c r="I493" s="9" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.3">
@@ -44268,7 +44268,7 @@
         <v>58</v>
       </c>
       <c r="I494" s="9" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.3">
@@ -44297,7 +44297,7 @@
         <v>46</v>
       </c>
       <c r="I495" s="9" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.3">
@@ -44326,7 +44326,7 @@
         <v>91</v>
       </c>
       <c r="I496" s="9" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.3">
@@ -44355,7 +44355,7 @@
         <v>41</v>
       </c>
       <c r="I497" s="9" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.3">
@@ -44384,7 +44384,7 @@
         <v>15</v>
       </c>
       <c r="I498" s="9" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.3">
@@ -44413,7 +44413,7 @@
         <v>17</v>
       </c>
       <c r="I499" s="9" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.3">
@@ -44442,7 +44442,7 @@
         <v>82</v>
       </c>
       <c r="I500" s="9" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.3">
@@ -44471,7 +44471,7 @@
         <v>27</v>
       </c>
       <c r="I501" s="9" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.3">
@@ -44500,7 +44500,7 @@
         <v>58</v>
       </c>
       <c r="I502" s="9" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.3">
@@ -44529,7 +44529,7 @@
         <v>91</v>
       </c>
       <c r="I503" s="9" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.3">
@@ -44558,7 +44558,7 @@
         <v>26</v>
       </c>
       <c r="I504" s="9" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.3">
@@ -44587,7 +44587,7 @@
         <v>13</v>
       </c>
       <c r="I505" s="9" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.3">
@@ -44616,7 +44616,7 @@
         <v>88</v>
       </c>
       <c r="I506" s="9" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.3">
@@ -44645,7 +44645,7 @@
         <v>15</v>
       </c>
       <c r="I507" s="9" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.3">
@@ -44674,7 +44674,7 @@
         <v>55</v>
       </c>
       <c r="I508" s="9" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.3">
@@ -44703,7 +44703,7 @@
         <v>80</v>
       </c>
       <c r="I509" s="9" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.3">
@@ -44732,7 +44732,7 @@
         <v>38</v>
       </c>
       <c r="I510" s="9" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.3">
@@ -44761,7 +44761,7 @@
         <v>63</v>
       </c>
       <c r="I511" s="9" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.3">
@@ -44790,7 +44790,7 @@
         <v>68</v>
       </c>
       <c r="I512" s="9" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.3">
@@ -44819,7 +44819,7 @@
         <v>13</v>
       </c>
       <c r="I513" s="9" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.3">
@@ -44848,7 +44848,7 @@
         <v>59</v>
       </c>
       <c r="I514" s="9" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.3">
@@ -44877,7 +44877,7 @@
         <v>60</v>
       </c>
       <c r="I515" s="9" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.3">
@@ -44906,7 +44906,7 @@
         <v>35</v>
       </c>
       <c r="I516" s="9" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.3">
@@ -44935,7 +44935,7 @@
         <v>15</v>
       </c>
       <c r="I517" s="9" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.3">
@@ -44964,7 +44964,7 @@
         <v>80</v>
       </c>
       <c r="I518" s="9" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.3">
@@ -44993,7 +44993,7 @@
         <v>55</v>
       </c>
       <c r="I519" s="9" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.3">
@@ -45022,7 +45022,7 @@
         <v>10</v>
       </c>
       <c r="I520" s="9" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.3">
@@ -45051,7 +45051,7 @@
         <v>46</v>
       </c>
       <c r="I521" s="9" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.3">
@@ -45080,7 +45080,7 @@
         <v>46</v>
       </c>
       <c r="I522" s="9" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.3">
@@ -45109,7 +45109,7 @@
         <v>46</v>
       </c>
       <c r="I523" s="9" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.3">
@@ -45138,7 +45138,7 @@
         <v>46</v>
       </c>
       <c r="I524" s="9" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.3">
@@ -45167,7 +45167,7 @@
         <v>46</v>
       </c>
       <c r="I525" s="9" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.3">
@@ -45196,7 +45196,7 @@
         <v>46</v>
       </c>
       <c r="I526" s="9" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.3">
@@ -45225,7 +45225,7 @@
         <v>46</v>
       </c>
       <c r="I527" s="9" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.3">
@@ -45254,7 +45254,7 @@
         <v>46</v>
       </c>
       <c r="I528" s="9" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.3">
@@ -45283,7 +45283,7 @@
         <v>46</v>
       </c>
       <c r="I529" s="9" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.3">
@@ -45312,7 +45312,7 @@
         <v>46</v>
       </c>
       <c r="I530" s="9" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.3">
@@ -45341,7 +45341,7 @@
         <v>46</v>
       </c>
       <c r="I531" s="9" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.3">
@@ -45370,7 +45370,7 @@
         <v>46</v>
       </c>
       <c r="I532" s="9" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.3">
@@ -45399,7 +45399,7 @@
         <v>46</v>
       </c>
       <c r="I533" s="9" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.3">
@@ -45428,7 +45428,7 @@
         <v>46</v>
       </c>
       <c r="I534" s="9" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.3">
@@ -45457,7 +45457,7 @@
         <v>65</v>
       </c>
       <c r="I535" s="9" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.3">
@@ -45486,7 +45486,7 @@
         <v>65</v>
       </c>
       <c r="I536" s="9" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.3">
@@ -45515,7 +45515,7 @@
         <v>59</v>
       </c>
       <c r="I537" s="9" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.3">
@@ -45544,7 +45544,7 @@
         <v>59</v>
       </c>
       <c r="I538" s="9" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.3">
@@ -45573,7 +45573,7 @@
         <v>59</v>
       </c>
       <c r="I539" s="9" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.3">
@@ -45602,7 +45602,7 @@
         <v>59</v>
       </c>
       <c r="I540" s="9" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.3">
@@ -45631,7 +45631,7 @@
         <v>66</v>
       </c>
       <c r="I541" s="9" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.3">
@@ -45660,7 +45660,7 @@
         <v>6</v>
       </c>
       <c r="I542" s="9" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.3">
@@ -45689,7 +45689,7 @@
         <v>20</v>
       </c>
       <c r="I543" s="9" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.3">
@@ -45718,7 +45718,7 @@
         <v>741</v>
       </c>
       <c r="I544" s="9" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.3">
@@ -45747,7 +45747,7 @@
         <v>741</v>
       </c>
       <c r="I545" s="9" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.3">
@@ -45776,7 +45776,7 @@
         <v>741</v>
       </c>
       <c r="I546" s="9" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.3">
@@ -45805,7 +45805,7 @@
         <v>741</v>
       </c>
       <c r="I547" s="9" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.3">
@@ -45834,7 +45834,7 @@
         <v>65</v>
       </c>
       <c r="I548" s="9" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.3">
@@ -45892,7 +45892,7 @@
         <v>65</v>
       </c>
       <c r="I550" s="9" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.3">
@@ -45921,7 +45921,7 @@
         <v>47</v>
       </c>
       <c r="I551" s="9" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.3">
@@ -45950,7 +45950,7 @@
         <v>10</v>
       </c>
       <c r="I552" s="9" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.3">
@@ -45958,19 +45958,19 @@
         <v>728</v>
       </c>
       <c r="B553" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C553" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C553" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D553" s="9">
         <v>1984</v>
       </c>
       <c r="E553" s="9" t="s">
+        <v>3433</v>
+      </c>
+      <c r="F553" s="9" t="s">
         <v>3434</v>
-      </c>
-      <c r="F553" s="9" t="s">
-        <v>3435</v>
       </c>
       <c r="G553" s="9" t="s">
         <v>720</v>
@@ -45979,7 +45979,7 @@
         <v>71</v>
       </c>
       <c r="I553" s="9" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.3">
@@ -45987,19 +45987,19 @@
         <v>728</v>
       </c>
       <c r="B554" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C554" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C554" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D554" s="9">
         <v>1984</v>
       </c>
       <c r="E554" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F554" s="9" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="G554" s="9" t="s">
         <v>720</v>
@@ -46008,7 +46008,7 @@
         <v>71</v>
       </c>
       <c r="I554" s="9" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.3">
@@ -46016,19 +46016,19 @@
         <v>728</v>
       </c>
       <c r="B555" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C555" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C555" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D555" s="9">
         <v>1984</v>
       </c>
       <c r="E555" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F555" s="9" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="G555" s="9" t="s">
         <v>720</v>
@@ -46037,7 +46037,7 @@
         <v>71</v>
       </c>
       <c r="I555" s="9" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.3">
@@ -46045,19 +46045,19 @@
         <v>728</v>
       </c>
       <c r="B556" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C556" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C556" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D556" s="9">
         <v>1984</v>
       </c>
       <c r="E556" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F556" s="9" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="G556" s="9" t="s">
         <v>720</v>
@@ -46066,7 +46066,7 @@
         <v>71</v>
       </c>
       <c r="I556" s="9" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.3">
@@ -46074,19 +46074,19 @@
         <v>728</v>
       </c>
       <c r="B557" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C557" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C557" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D557" s="9">
         <v>1984</v>
       </c>
       <c r="E557" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F557" s="9" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="G557" s="9" t="s">
         <v>720</v>
@@ -46095,7 +46095,7 @@
         <v>71</v>
       </c>
       <c r="I557" s="9" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.3">
@@ -46103,19 +46103,19 @@
         <v>728</v>
       </c>
       <c r="B558" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C558" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C558" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D558" s="9">
         <v>1984</v>
       </c>
       <c r="E558" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F558" s="9" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="G558" s="9" t="s">
         <v>720</v>
@@ -46124,7 +46124,7 @@
         <v>71</v>
       </c>
       <c r="I558" s="9" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.3">
@@ -46132,19 +46132,19 @@
         <v>728</v>
       </c>
       <c r="B559" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C559" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C559" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D559" s="9">
         <v>1984</v>
       </c>
       <c r="E559" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F559" s="9" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="G559" s="9" t="s">
         <v>720</v>
@@ -46153,7 +46153,7 @@
         <v>71</v>
       </c>
       <c r="I559" s="9" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.3">
@@ -46161,19 +46161,19 @@
         <v>728</v>
       </c>
       <c r="B560" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C560" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C560" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D560" s="9">
         <v>1984</v>
       </c>
       <c r="E560" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F560" s="9" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="G560" s="9" t="s">
         <v>720</v>
@@ -46182,7 +46182,7 @@
         <v>71</v>
       </c>
       <c r="I560" s="9" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.3">
@@ -46190,19 +46190,19 @@
         <v>728</v>
       </c>
       <c r="B561" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C561" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C561" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D561" s="9">
         <v>1984</v>
       </c>
       <c r="E561" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F561" s="9" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="G561" s="9" t="s">
         <v>720</v>
@@ -46211,7 +46211,7 @@
         <v>71</v>
       </c>
       <c r="I561" s="9" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.3">
@@ -46219,19 +46219,19 @@
         <v>728</v>
       </c>
       <c r="B562" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C562" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C562" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D562" s="9">
         <v>1984</v>
       </c>
       <c r="E562" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F562" s="9" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="G562" s="9" t="s">
         <v>720</v>
@@ -46240,7 +46240,7 @@
         <v>71</v>
       </c>
       <c r="I562" s="9" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.3">
@@ -46248,19 +46248,19 @@
         <v>728</v>
       </c>
       <c r="B563" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C563" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C563" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D563" s="9">
         <v>1984</v>
       </c>
       <c r="E563" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F563" s="9" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="G563" s="9" t="s">
         <v>720</v>
@@ -46269,7 +46269,7 @@
         <v>71</v>
       </c>
       <c r="I563" s="9" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.3">
@@ -46277,19 +46277,19 @@
         <v>728</v>
       </c>
       <c r="B564" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C564" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C564" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D564" s="9">
         <v>1984</v>
       </c>
       <c r="E564" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F564" s="9" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="G564" s="9" t="s">
         <v>720</v>
@@ -46298,7 +46298,7 @@
         <v>71</v>
       </c>
       <c r="I564" s="9" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.3">
@@ -46306,19 +46306,19 @@
         <v>728</v>
       </c>
       <c r="B565" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C565" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C565" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D565" s="9">
         <v>1984</v>
       </c>
       <c r="E565" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F565" s="9" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="G565" s="9" t="s">
         <v>720</v>
@@ -46327,7 +46327,7 @@
         <v>71</v>
       </c>
       <c r="I565" s="9" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.3">
@@ -46335,19 +46335,19 @@
         <v>728</v>
       </c>
       <c r="B566" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C566" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C566" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D566" s="9">
         <v>1984</v>
       </c>
       <c r="E566" s="9" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="F566" s="9" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="G566" s="9" t="s">
         <v>720</v>
@@ -46356,7 +46356,7 @@
         <v>71</v>
       </c>
       <c r="I566" s="9" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.3">
@@ -46364,10 +46364,10 @@
         <v>728</v>
       </c>
       <c r="B567" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C567" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C567" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D567" s="9">
         <v>1984</v>
@@ -46376,7 +46376,7 @@
         <v>1299</v>
       </c>
       <c r="F567" s="9" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="G567" s="9" t="s">
         <v>720</v>
@@ -46385,7 +46385,7 @@
         <v>38</v>
       </c>
       <c r="I567" s="9" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.3">
@@ -46393,10 +46393,10 @@
         <v>728</v>
       </c>
       <c r="B568" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C568" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C568" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D568" s="9">
         <v>1984</v>
@@ -46405,7 +46405,7 @@
         <v>1299</v>
       </c>
       <c r="F568" s="9" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="G568" s="9" t="s">
         <v>720</v>
@@ -46414,7 +46414,7 @@
         <v>38</v>
       </c>
       <c r="I568" s="9" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.3">
@@ -46422,10 +46422,10 @@
         <v>728</v>
       </c>
       <c r="B569" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C569" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C569" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D569" s="9">
         <v>1984</v>
@@ -46434,7 +46434,7 @@
         <v>1299</v>
       </c>
       <c r="F569" s="9" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="G569" s="9" t="s">
         <v>720</v>
@@ -46443,7 +46443,7 @@
         <v>38</v>
       </c>
       <c r="I569" s="9" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.3">
@@ -46451,10 +46451,10 @@
         <v>728</v>
       </c>
       <c r="B570" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C570" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C570" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D570" s="9">
         <v>1984</v>
@@ -46463,7 +46463,7 @@
         <v>1299</v>
       </c>
       <c r="F570" s="9" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G570" s="9" t="s">
         <v>720</v>
@@ -46472,7 +46472,7 @@
         <v>38</v>
       </c>
       <c r="I570" s="9" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.3">
@@ -46480,10 +46480,10 @@
         <v>728</v>
       </c>
       <c r="B571" s="9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C571" s="9" t="s">
         <v>3432</v>
-      </c>
-      <c r="C571" s="9" t="s">
-        <v>3433</v>
       </c>
       <c r="D571" s="9">
         <v>1984</v>
@@ -46492,7 +46492,7 @@
         <v>1299</v>
       </c>
       <c r="F571" s="9" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="G571" s="9" t="s">
         <v>720</v>
@@ -46501,7 +46501,7 @@
         <v>38</v>
       </c>
       <c r="I571" s="9" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.3">
@@ -46530,7 +46530,7 @@
         <v>89</v>
       </c>
       <c r="I572" s="9" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.3">
@@ -46559,7 +46559,7 @@
         <v>65</v>
       </c>
       <c r="I573" s="9" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.3">
@@ -46588,7 +46588,7 @@
         <v>82</v>
       </c>
       <c r="I574" s="9" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.3">
@@ -46617,7 +46617,7 @@
         <v>17</v>
       </c>
       <c r="I575" s="9" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.3">
@@ -46646,7 +46646,7 @@
         <v>89</v>
       </c>
       <c r="I576" s="9" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.3">
@@ -46675,7 +46675,7 @@
         <v>65</v>
       </c>
       <c r="I577" s="9" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.3">
@@ -46704,7 +46704,7 @@
         <v>82</v>
       </c>
       <c r="I578" s="9" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.3">
@@ -46733,7 +46733,7 @@
         <v>17</v>
       </c>
       <c r="I579" s="9" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.3">
@@ -46762,7 +46762,7 @@
         <v>89</v>
       </c>
       <c r="I580" s="9" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.3">
@@ -46791,7 +46791,7 @@
         <v>89</v>
       </c>
       <c r="I581" s="9" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.3">
@@ -46820,7 +46820,7 @@
         <v>89</v>
       </c>
       <c r="I582" s="9" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.3">
@@ -46878,7 +46878,7 @@
         <v>2</v>
       </c>
       <c r="I584" s="9" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.3">
@@ -46907,7 +46907,7 @@
         <v>257</v>
       </c>
       <c r="I585" s="9" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.3">
@@ -46936,7 +46936,7 @@
         <v>257</v>
       </c>
       <c r="I586" s="9" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.3">
@@ -46965,7 +46965,7 @@
         <v>257</v>
       </c>
       <c r="I587" s="9" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.3">
@@ -46994,7 +46994,7 @@
         <v>257</v>
       </c>
       <c r="I588" s="9" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.3">
@@ -47023,7 +47023,7 @@
         <v>256</v>
       </c>
       <c r="I589" s="9" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.3">
@@ -47052,7 +47052,7 @@
         <v>256</v>
       </c>
       <c r="I590" s="9" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.3">
@@ -47081,7 +47081,7 @@
         <v>256</v>
       </c>
       <c r="I591" s="9" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.3">
@@ -47110,7 +47110,7 @@
         <v>256</v>
       </c>
       <c r="I592" s="9" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.3">
@@ -47139,7 +47139,7 @@
         <v>256</v>
       </c>
       <c r="I593" s="9" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.3">
@@ -47168,7 +47168,7 @@
         <v>256</v>
       </c>
       <c r="I594" s="9" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.3">
@@ -47197,7 +47197,7 @@
         <v>256</v>
       </c>
       <c r="I595" s="9" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.3">
@@ -47226,7 +47226,7 @@
         <v>258</v>
       </c>
       <c r="I596" s="9" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.3">
@@ -47255,7 +47255,7 @@
         <v>258</v>
       </c>
       <c r="I597" s="9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.3">
@@ -47284,7 +47284,7 @@
         <v>258</v>
       </c>
       <c r="I598" s="9" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.3">
@@ -47313,7 +47313,7 @@
         <v>258</v>
       </c>
       <c r="I599" s="9" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.3">
@@ -47342,7 +47342,7 @@
         <v>258</v>
       </c>
       <c r="I600" s="9" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.3">
@@ -47371,7 +47371,7 @@
         <v>39</v>
       </c>
       <c r="I601" s="9" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.3">
@@ -47400,7 +47400,7 @@
         <v>39</v>
       </c>
       <c r="I602" s="9" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.3">
@@ -47429,7 +47429,7 @@
         <v>39</v>
       </c>
       <c r="I603" s="9" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.3">
@@ -47458,7 +47458,7 @@
         <v>39</v>
       </c>
       <c r="I604" s="9" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.3">
@@ -47487,7 +47487,7 @@
         <v>39</v>
       </c>
       <c r="I605" s="9" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.3">
@@ -47516,7 +47516,7 @@
         <v>39</v>
       </c>
       <c r="I606" s="9" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.3">
@@ -47545,7 +47545,7 @@
         <v>39</v>
       </c>
       <c r="I607" s="9" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.3">
@@ -47574,7 +47574,7 @@
         <v>49</v>
       </c>
       <c r="I608" s="9" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.3">
@@ -47603,7 +47603,7 @@
         <v>49</v>
       </c>
       <c r="I609" s="9" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.3">
@@ -47632,7 +47632,7 @@
         <v>49</v>
       </c>
       <c r="I610" s="9" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.3">
@@ -47661,7 +47661,7 @@
         <v>59</v>
       </c>
       <c r="I611" s="9" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.3">
@@ -47690,7 +47690,7 @@
         <v>59</v>
       </c>
       <c r="I612" s="9" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.3">
@@ -47719,7 +47719,7 @@
         <v>59</v>
       </c>
       <c r="I613" s="9" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.3">
@@ -47748,7 +47748,7 @@
         <v>59</v>
       </c>
       <c r="I614" s="9" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.3">
@@ -47777,7 +47777,7 @@
         <v>264</v>
       </c>
       <c r="I615" s="9" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.3">
@@ -47806,7 +47806,7 @@
         <v>260</v>
       </c>
       <c r="I616" s="9" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.3">
@@ -47835,7 +47835,7 @@
         <v>950</v>
       </c>
       <c r="I617" s="9" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.3">
@@ -47864,7 +47864,7 @@
         <v>2255</v>
       </c>
       <c r="I618" s="9" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.3">
@@ -47893,7 +47893,7 @@
         <v>2255</v>
       </c>
       <c r="I619" s="9" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.3">
@@ -47922,7 +47922,7 @@
         <v>2255</v>
       </c>
       <c r="I620" s="9" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.3">
@@ -47951,7 +47951,7 @@
         <v>2255</v>
       </c>
       <c r="I621" s="9" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.3">
@@ -47980,7 +47980,7 @@
         <v>2255</v>
       </c>
       <c r="I622" s="9" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.3">
@@ -48009,7 +48009,7 @@
         <v>2255</v>
       </c>
       <c r="I623" s="9" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.3">
@@ -48038,7 +48038,7 @@
         <v>15</v>
       </c>
       <c r="I624" s="9" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.3">
@@ -48067,7 +48067,7 @@
         <v>15</v>
       </c>
       <c r="I625" s="9" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.3">
@@ -48096,7 +48096,7 @@
         <v>15</v>
       </c>
       <c r="I626" s="9" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.3">
@@ -48104,10 +48104,10 @@
         <v>728</v>
       </c>
       <c r="B627" s="9" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C627" s="9" t="s">
         <v>2645</v>
-      </c>
-      <c r="C627" s="9" t="s">
-        <v>2646</v>
       </c>
       <c r="D627" s="9">
         <v>2014</v>
@@ -48116,7 +48116,7 @@
         <v>2001</v>
       </c>
       <c r="F627" s="9" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="G627" s="9" t="s">
         <v>720</v>
@@ -48125,7 +48125,7 @@
         <v>258</v>
       </c>
       <c r="I627" s="9" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.3">
@@ -48133,10 +48133,10 @@
         <v>728</v>
       </c>
       <c r="B628" s="9" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C628" s="9" t="s">
         <v>2645</v>
-      </c>
-      <c r="C628" s="9" t="s">
-        <v>2646</v>
       </c>
       <c r="D628" s="9">
         <v>2014</v>
@@ -48145,7 +48145,7 @@
         <v>2001</v>
       </c>
       <c r="F628" s="9" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="G628" s="9" t="s">
         <v>720</v>
@@ -48154,7 +48154,7 @@
         <v>258</v>
       </c>
       <c r="I628" s="9" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.3">
@@ -48162,10 +48162,10 @@
         <v>728</v>
       </c>
       <c r="B629" s="9" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C629" s="9" t="s">
         <v>2645</v>
-      </c>
-      <c r="C629" s="9" t="s">
-        <v>2646</v>
       </c>
       <c r="D629" s="9">
         <v>2014</v>
@@ -48174,7 +48174,7 @@
         <v>2001</v>
       </c>
       <c r="F629" s="9" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="G629" s="9" t="s">
         <v>720</v>
@@ -48183,7 +48183,7 @@
         <v>258</v>
       </c>
       <c r="I629" s="9" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.3">
@@ -48191,10 +48191,10 @@
         <v>728</v>
       </c>
       <c r="B630" s="9" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C630" s="9" t="s">
         <v>2645</v>
-      </c>
-      <c r="C630" s="9" t="s">
-        <v>2646</v>
       </c>
       <c r="D630" s="9">
         <v>2014</v>
@@ -48203,7 +48203,7 @@
         <v>2001</v>
       </c>
       <c r="F630" s="9" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="G630" s="9" t="s">
         <v>720</v>
@@ -48212,7 +48212,7 @@
         <v>258</v>
       </c>
       <c r="I630" s="9" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.3">
@@ -48220,10 +48220,10 @@
         <v>728</v>
       </c>
       <c r="B631" s="9" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C631" s="9" t="s">
         <v>2645</v>
-      </c>
-      <c r="C631" s="9" t="s">
-        <v>2646</v>
       </c>
       <c r="D631" s="9">
         <v>2014</v>
@@ -48232,7 +48232,7 @@
         <v>2001</v>
       </c>
       <c r="F631" s="9" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="G631" s="9" t="s">
         <v>720</v>
@@ -48241,10 +48241,10 @@
         <v>258</v>
       </c>
       <c r="I631" s="9" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="Z631" s="9" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.3">
@@ -48273,7 +48273,7 @@
         <v>28</v>
       </c>
       <c r="I632" s="9" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.3">
@@ -48302,7 +48302,7 @@
         <v>43</v>
       </c>
       <c r="I633" s="9" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.3">
@@ -48331,7 +48331,7 @@
         <v>6</v>
       </c>
       <c r="I634" s="9" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.3">
@@ -48360,7 +48360,7 @@
         <v>61</v>
       </c>
       <c r="I635" s="9" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.3">
@@ -48368,7 +48368,7 @@
         <v>728</v>
       </c>
       <c r="B636" s="9" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="C636" s="9" t="s">
         <v>2037</v>
@@ -48377,19 +48377,19 @@
         <v>2018</v>
       </c>
       <c r="E636" s="9" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="F636" s="9" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="G636" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H636" s="9" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="I636" s="9" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.3">
@@ -48397,7 +48397,7 @@
         <v>728</v>
       </c>
       <c r="B637" s="9" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="C637" s="9" t="s">
         <v>2037</v>
@@ -48406,19 +48406,19 @@
         <v>2018</v>
       </c>
       <c r="E637" s="9" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="F637" s="9" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="G637" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H637" s="9" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="I637" s="9" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.3">
@@ -48426,7 +48426,7 @@
         <v>728</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="C638" s="9" t="s">
         <v>2037</v>
@@ -48435,19 +48435,19 @@
         <v>2018</v>
       </c>
       <c r="E638" s="9" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="F638" s="9" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="G638" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H638" s="9" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="I638" s="9" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.3">
@@ -48455,7 +48455,7 @@
         <v>728</v>
       </c>
       <c r="B639" s="9" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="C639" s="9" t="s">
         <v>2037</v>
@@ -48467,7 +48467,7 @@
         <v>356</v>
       </c>
       <c r="F639" s="9" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="G639" s="9" t="s">
         <v>720</v>
@@ -48476,7 +48476,7 @@
         <v>88</v>
       </c>
       <c r="I639" s="9" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.3">
@@ -48484,7 +48484,7 @@
         <v>728</v>
       </c>
       <c r="B640" s="9" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="C640" s="9" t="s">
         <v>2037</v>
@@ -48496,7 +48496,7 @@
         <v>356</v>
       </c>
       <c r="F640" s="9" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="G640" s="9" t="s">
         <v>720</v>
@@ -48505,7 +48505,7 @@
         <v>88</v>
       </c>
       <c r="I640" s="9" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.3">
@@ -48513,7 +48513,7 @@
         <v>728</v>
       </c>
       <c r="B641" s="9" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="C641" s="9" t="s">
         <v>2037</v>
@@ -48522,19 +48522,19 @@
         <v>2019</v>
       </c>
       <c r="E641" s="9" t="s">
+        <v>3482</v>
+      </c>
+      <c r="F641" s="9" t="s">
         <v>3483</v>
-      </c>
-      <c r="F641" s="9" t="s">
-        <v>3484</v>
       </c>
       <c r="G641" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H641" s="9" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="I641" s="9" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.3">
@@ -48563,7 +48563,7 @@
         <v>93</v>
       </c>
       <c r="I642" s="9" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.3">
@@ -48592,7 +48592,7 @@
         <v>78</v>
       </c>
       <c r="I643" s="9" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.3">
@@ -48621,7 +48621,7 @@
         <v>62</v>
       </c>
       <c r="I644" s="9" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.3">
@@ -48650,7 +48650,7 @@
         <v>82</v>
       </c>
       <c r="I645" s="9" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.3">
@@ -48679,7 +48679,7 @@
         <v>15</v>
       </c>
       <c r="I646" s="9" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.3">
@@ -48690,7 +48690,7 @@
         <v>741</v>
       </c>
       <c r="C647" s="9" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D647" s="9">
         <v>2009</v>
@@ -48699,7 +48699,7 @@
         <v>744</v>
       </c>
       <c r="F647" s="11" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="G647" s="9" t="s">
         <v>721</v>
@@ -48708,7 +48708,7 @@
         <v>81</v>
       </c>
       <c r="I647" s="9" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.3">
@@ -48737,7 +48737,7 @@
         <v>256</v>
       </c>
       <c r="I648" s="9" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.3">
@@ -48795,7 +48795,7 @@
         <v>15</v>
       </c>
       <c r="I650" s="9" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.3">
@@ -48824,7 +48824,7 @@
         <v>741</v>
       </c>
       <c r="I651" s="9" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.3">
@@ -48853,7 +48853,7 @@
         <v>63</v>
       </c>
       <c r="I652" s="9" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.3">
@@ -48882,7 +48882,7 @@
         <v>2</v>
       </c>
       <c r="I653" s="9" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.3">
@@ -48911,7 +48911,7 @@
         <v>27</v>
       </c>
       <c r="I654" s="9" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.3">
@@ -48969,7 +48969,7 @@
         <v>81</v>
       </c>
       <c r="I656" s="9" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.3">
@@ -49056,7 +49056,7 @@
         <v>62</v>
       </c>
       <c r="I659" s="9" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.3">
@@ -49085,7 +49085,7 @@
         <v>2</v>
       </c>
       <c r="I660" s="9" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.3">
@@ -49114,7 +49114,7 @@
         <v>81</v>
       </c>
       <c r="I661" s="9" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.3">
@@ -49143,7 +49143,7 @@
         <v>81</v>
       </c>
       <c r="I662" s="9" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.3">
@@ -49172,7 +49172,7 @@
         <v>13</v>
       </c>
       <c r="I663" s="9" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.3">
@@ -49201,7 +49201,7 @@
         <v>741</v>
       </c>
       <c r="I664" s="9" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.3">
@@ -49230,7 +49230,7 @@
         <v>741</v>
       </c>
       <c r="I665" s="9" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.3">
@@ -49259,7 +49259,7 @@
         <v>81</v>
       </c>
       <c r="I666" s="9" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.3">
@@ -49288,7 +49288,7 @@
         <v>91</v>
       </c>
       <c r="I667" s="9" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.3">
@@ -49317,7 +49317,7 @@
         <v>81</v>
       </c>
       <c r="I668" s="9" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.3">
@@ -49375,7 +49375,7 @@
         <v>81</v>
       </c>
       <c r="I670" s="9" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.3">
@@ -49404,7 +49404,7 @@
         <v>1</v>
       </c>
       <c r="I671" s="9" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.3">
@@ -49491,7 +49491,7 @@
         <v>39</v>
       </c>
       <c r="I674" s="9" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.3">
@@ -49520,7 +49520,7 @@
         <v>2</v>
       </c>
       <c r="I675" s="9" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.3">
@@ -49549,7 +49549,7 @@
         <v>8</v>
       </c>
       <c r="I676" s="9" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.3">
@@ -49578,7 +49578,7 @@
         <v>28</v>
       </c>
       <c r="I677" s="9" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.3">
@@ -49607,7 +49607,7 @@
         <v>63</v>
       </c>
       <c r="I678" s="9" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.3">
@@ -49636,7 +49636,7 @@
         <v>91</v>
       </c>
       <c r="I679" s="9" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.3">
@@ -49665,7 +49665,7 @@
         <v>91</v>
       </c>
       <c r="I680" s="9" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.3">
@@ -49694,7 +49694,7 @@
         <v>15</v>
       </c>
       <c r="I681" s="9" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.3">
@@ -49723,7 +49723,7 @@
         <v>91</v>
       </c>
       <c r="I682" s="9" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.3">
@@ -49884,8 +49884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49927,7 +49927,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -49965,7 +49965,7 @@
         <v>990</v>
       </c>
       <c r="G3" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -50016,22 +50016,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E6" t="s">
         <v>2666</v>
       </c>
-      <c r="B6" t="s">
-        <v>2666</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2666</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>2668</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2667</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2669</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>990</v>
@@ -50057,7 +50057,7 @@
         <v>1127</v>
       </c>
       <c r="G7" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -50080,7 +50080,7 @@
         <v>1128</v>
       </c>
       <c r="G8" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -50088,7 +50088,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -50195,7 +50195,7 @@
         <v>1130</v>
       </c>
       <c r="G13" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -50218,7 +50218,7 @@
         <v>1223</v>
       </c>
       <c r="G14" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -50494,7 +50494,7 @@
         <v>1219</v>
       </c>
       <c r="G26" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -50540,7 +50540,7 @@
         <v>1132</v>
       </c>
       <c r="G28" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -50548,7 +50548,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>2628</v>
+        <v>3497</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -50632,7 +50632,7 @@
         <v>990</v>
       </c>
       <c r="G32" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -50640,7 +50640,7 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -50701,7 +50701,7 @@
         <v>990</v>
       </c>
       <c r="G35" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -50839,7 +50839,7 @@
         <v>990</v>
       </c>
       <c r="G41" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -50954,7 +50954,7 @@
         <v>990</v>
       </c>
       <c r="G46" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -51000,7 +51000,7 @@
         <v>1257</v>
       </c>
       <c r="G48" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -51069,7 +51069,7 @@
         <v>990</v>
       </c>
       <c r="G51" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -51092,7 +51092,7 @@
         <v>1114</v>
       </c>
       <c r="G52" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -51100,7 +51100,7 @@
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
@@ -51161,7 +51161,7 @@
         <v>1267</v>
       </c>
       <c r="G55" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -51207,7 +51207,7 @@
         <v>990</v>
       </c>
       <c r="G57" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -51215,7 +51215,7 @@
         <v>950</v>
       </c>
       <c r="B58" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="C58" t="s">
         <v>950</v>
@@ -51238,7 +51238,7 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
@@ -51391,7 +51391,7 @@
         <v>1120</v>
       </c>
       <c r="G65" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -51399,7 +51399,7 @@
         <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -51437,7 +51437,7 @@
         <v>1139</v>
       </c>
       <c r="G67" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -51460,7 +51460,7 @@
         <v>1258</v>
       </c>
       <c r="G68" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -51483,7 +51483,7 @@
         <v>1151</v>
       </c>
       <c r="G69" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -51529,7 +51529,7 @@
         <v>990</v>
       </c>
       <c r="G71" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -51552,7 +51552,7 @@
         <v>1187</v>
       </c>
       <c r="G72" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -51667,7 +51667,7 @@
         <v>1215</v>
       </c>
       <c r="G77" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -51690,7 +51690,7 @@
         <v>990</v>
       </c>
       <c r="G78" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -51782,7 +51782,7 @@
         <v>2284</v>
       </c>
       <c r="G82" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -51920,7 +51920,7 @@
         <v>990</v>
       </c>
       <c r="G88" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -51951,7 +51951,7 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
@@ -52012,7 +52012,7 @@
         <v>1571</v>
       </c>
       <c r="G92" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -52058,7 +52058,7 @@
         <v>1010</v>
       </c>
       <c r="G94" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -52081,7 +52081,7 @@
         <v>1261</v>
       </c>
       <c r="G95" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -52127,7 +52127,7 @@
         <v>1769</v>
       </c>
       <c r="G97" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -52265,7 +52265,7 @@
         <v>990</v>
       </c>
       <c r="G103" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -52288,7 +52288,7 @@
         <v>1145</v>
       </c>
       <c r="G104" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -52380,7 +52380,7 @@
         <v>1262</v>
       </c>
       <c r="G108" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -52403,7 +52403,7 @@
         <v>990</v>
       </c>
       <c r="G109" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -52426,7 +52426,7 @@
         <v>990</v>
       </c>
       <c r="G110" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -52446,10 +52446,10 @@
         <v>1178</v>
       </c>
       <c r="F111" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="G111" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -52495,7 +52495,7 @@
         <v>1747</v>
       </c>
       <c r="G113" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -52518,7 +52518,7 @@
         <v>1004</v>
       </c>
       <c r="G114" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -52541,7 +52541,7 @@
         <v>2279</v>
       </c>
       <c r="G115" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -52633,7 +52633,7 @@
         <v>1197</v>
       </c>
       <c r="G119" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -52679,7 +52679,7 @@
         <v>1662</v>
       </c>
       <c r="G121" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -52702,7 +52702,7 @@
         <v>990</v>
       </c>
       <c r="G122" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -52710,7 +52710,7 @@
         <v>967</v>
       </c>
       <c r="B123" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
@@ -52725,7 +52725,7 @@
         <v>1202</v>
       </c>
       <c r="G123" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -52817,7 +52817,7 @@
         <v>990</v>
       </c>
       <c r="G127" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -52840,7 +52840,7 @@
         <v>2520</v>
       </c>
       <c r="G128" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -52886,7 +52886,7 @@
         <v>990</v>
       </c>
       <c r="G130" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -52932,7 +52932,7 @@
         <v>1759</v>
       </c>
       <c r="G132" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -53070,7 +53070,7 @@
         <v>1974</v>
       </c>
       <c r="G138" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -53093,7 +53093,7 @@
         <v>990</v>
       </c>
       <c r="G139" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -53162,7 +53162,7 @@
         <v>1568</v>
       </c>
       <c r="G142" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -53185,7 +53185,7 @@
         <v>1243</v>
       </c>
       <c r="G143" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -53208,7 +53208,7 @@
         <v>990</v>
       </c>
       <c r="G144" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -53254,7 +53254,7 @@
         <v>1244</v>
       </c>
       <c r="G146" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -53277,7 +53277,7 @@
         <v>990</v>
       </c>
       <c r="G147" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -53308,7 +53308,7 @@
         <v>62</v>
       </c>
       <c r="B149" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="C149" t="s">
         <v>62</v>
@@ -53369,7 +53369,7 @@
         <v>990</v>
       </c>
       <c r="G151" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -53392,7 +53392,7 @@
         <v>1121</v>
       </c>
       <c r="G152" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -53423,7 +53423,7 @@
         <v>65</v>
       </c>
       <c r="B154" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C154" t="s">
         <v>65</v>
@@ -53461,7 +53461,7 @@
         <v>1210</v>
       </c>
       <c r="G155" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -53599,7 +53599,7 @@
         <v>1245</v>
       </c>
       <c r="G161" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -53645,7 +53645,7 @@
         <v>1246</v>
       </c>
       <c r="G163" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -53699,7 +53699,7 @@
         <v>71</v>
       </c>
       <c r="B166" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="C166" t="s">
         <v>71</v>
@@ -53737,7 +53737,7 @@
         <v>1136</v>
       </c>
       <c r="G167" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -53760,7 +53760,7 @@
         <v>990</v>
       </c>
       <c r="G168" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -53783,7 +53783,7 @@
         <v>1670</v>
       </c>
       <c r="G169" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -53791,7 +53791,7 @@
         <v>73</v>
       </c>
       <c r="B170" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C170" t="s">
         <v>73</v>
@@ -53806,7 +53806,7 @@
         <v>1115</v>
       </c>
       <c r="G170" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -54044,7 +54044,7 @@
         <v>81</v>
       </c>
       <c r="B181" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C181" t="s">
         <v>81</v>
@@ -54067,7 +54067,7 @@
         <v>82</v>
       </c>
       <c r="B182" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="C182" t="s">
         <v>82</v>
@@ -54105,7 +54105,7 @@
         <v>990</v>
       </c>
       <c r="G183" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -54136,7 +54136,7 @@
         <v>84</v>
       </c>
       <c r="B185" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="C185" t="s">
         <v>84</v>
@@ -54243,7 +54243,7 @@
         <v>990</v>
       </c>
       <c r="G189" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -54312,7 +54312,7 @@
         <v>990</v>
       </c>
       <c r="G192" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -54335,18 +54335,18 @@
         <v>990</v>
       </c>
       <c r="G193" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B194" t="s">
         <v>1497</v>
       </c>
       <c r="C194" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="D194" t="s">
         <v>300</v>
@@ -54355,10 +54355,10 @@
         <v>1107</v>
       </c>
       <c r="F194" t="s">
+        <v>3479</v>
+      </c>
+      <c r="G194" t="s">
         <v>3480</v>
-      </c>
-      <c r="G194" t="s">
-        <v>3481</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -54519,7 +54519,7 @@
         <v>1123</v>
       </c>
       <c r="G201" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -54542,7 +54542,7 @@
         <v>990</v>
       </c>
       <c r="G202" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
   </sheetData>
@@ -54943,7 +54943,7 @@
         <v>2241</v>
       </c>
       <c r="E22" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -55067,7 +55067,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B30" t="s">
         <v>2157</v>
@@ -55079,7 +55079,7 @@
         <v>2316</v>
       </c>
       <c r="E30" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -55220,7 +55220,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B39" t="s">
         <v>2158</v>
@@ -55232,7 +55232,7 @@
         <v>2333</v>
       </c>
       <c r="E39" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -55373,7 +55373,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B48" t="s">
         <v>2159</v>
@@ -55385,7 +55385,7 @@
         <v>2202</v>
       </c>
       <c r="E48" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -55516,7 +55516,7 @@
         <v>2454</v>
       </c>
       <c r="B12" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -55532,7 +55532,7 @@
         <v>2454</v>
       </c>
       <c r="B14" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -55716,7 +55716,7 @@
         <v>2454</v>
       </c>
       <c r="B38" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -55812,7 +55812,7 @@
         <v>2454</v>
       </c>
       <c r="B51" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -55884,7 +55884,7 @@
         <v>2454</v>
       </c>
       <c r="B62" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -55916,7 +55916,7 @@
         <v>2454</v>
       </c>
       <c r="B67" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF6709-8407-48ED-B73B-63FCD18C8BB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB7FBD-8A61-4F4A-9360-D5EFECC624C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="0" windowWidth="23160" windowHeight="16548" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31320" yWindow="336" windowWidth="20472" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11156" uniqueCount="3498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11172" uniqueCount="3503">
   <si>
     <t>acuta</t>
   </si>
@@ -10536,6 +10536,21 @@
   </si>
   <si>
     <t>burgersi;bergersii;bergersi</t>
+  </si>
+  <si>
+    <t>Brown1979</t>
+  </si>
+  <si>
+    <t>Brown et al.</t>
+  </si>
+  <si>
+    <t>Brown_Uca_pugilator1</t>
+  </si>
+  <si>
+    <t>Brown_Uca_pugilator2</t>
+  </si>
+  <si>
+    <t>This drawing is from Brown &lt;em&gt;et al.&lt;/em&gt; (1979).</t>
   </si>
 </sst>
 </file>
@@ -29926,10 +29941,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Z687"/>
+  <dimension ref="A1:Z689"/>
   <sheetViews>
-    <sheetView topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="F641" sqref="F641"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="B547" sqref="B547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45871,28 +45886,28 @@
         <v>728</v>
       </c>
       <c r="B550" s="9" t="s">
-        <v>1955</v>
+        <v>3498</v>
       </c>
       <c r="C550" s="9" t="s">
-        <v>2019</v>
+        <v>3499</v>
       </c>
       <c r="D550" s="9">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E550" s="9" t="s">
-        <v>1279</v>
+        <v>892</v>
       </c>
       <c r="F550" s="9" t="s">
-        <v>2022</v>
+        <v>3500</v>
       </c>
       <c r="G550" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H550" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I550" s="9" t="s">
-        <v>3266</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.3">
@@ -45900,28 +45915,28 @@
         <v>728</v>
       </c>
       <c r="B551" s="9" t="s">
-        <v>1955</v>
+        <v>3498</v>
       </c>
       <c r="C551" s="9" t="s">
-        <v>2019</v>
+        <v>3499</v>
       </c>
       <c r="D551" s="9">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E551" s="9" t="s">
-        <v>167</v>
+        <v>892</v>
       </c>
       <c r="F551" s="9" t="s">
-        <v>2020</v>
+        <v>3501</v>
       </c>
       <c r="G551" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H551" s="9" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I551" s="9" t="s">
-        <v>3269</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.3">
@@ -45938,19 +45953,19 @@
         <v>1981</v>
       </c>
       <c r="E552" s="9" t="s">
-        <v>120</v>
+        <v>1279</v>
       </c>
       <c r="F552" s="9" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G552" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H552" s="9" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I552" s="9" t="s">
-        <v>3151</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.3">
@@ -45958,28 +45973,28 @@
         <v>728</v>
       </c>
       <c r="B553" s="9" t="s">
-        <v>3431</v>
+        <v>1955</v>
       </c>
       <c r="C553" s="9" t="s">
-        <v>3432</v>
+        <v>2019</v>
       </c>
       <c r="D553" s="9">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="E553" s="9" t="s">
-        <v>3433</v>
+        <v>167</v>
       </c>
       <c r="F553" s="9" t="s">
-        <v>3434</v>
+        <v>2020</v>
       </c>
       <c r="G553" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H553" s="9" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I553" s="9" t="s">
-        <v>3455</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.3">
@@ -45987,28 +46002,28 @@
         <v>728</v>
       </c>
       <c r="B554" s="9" t="s">
-        <v>3431</v>
+        <v>1955</v>
       </c>
       <c r="C554" s="9" t="s">
-        <v>3432</v>
+        <v>2019</v>
       </c>
       <c r="D554" s="9">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="E554" s="9" t="s">
-        <v>3433</v>
+        <v>120</v>
       </c>
       <c r="F554" s="9" t="s">
-        <v>3436</v>
+        <v>2021</v>
       </c>
       <c r="G554" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H554" s="9" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I554" s="9" t="s">
-        <v>3456</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.3">
@@ -46028,7 +46043,7 @@
         <v>3433</v>
       </c>
       <c r="F555" s="9" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="G555" s="9" t="s">
         <v>720</v>
@@ -46037,7 +46052,7 @@
         <v>71</v>
       </c>
       <c r="I555" s="9" t="s">
-        <v>3453</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.3">
@@ -46057,7 +46072,7 @@
         <v>3433</v>
       </c>
       <c r="F556" s="9" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="G556" s="9" t="s">
         <v>720</v>
@@ -46066,7 +46081,7 @@
         <v>71</v>
       </c>
       <c r="I556" s="9" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.3">
@@ -46086,7 +46101,7 @@
         <v>3433</v>
       </c>
       <c r="F557" s="9" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="G557" s="9" t="s">
         <v>720</v>
@@ -46095,7 +46110,7 @@
         <v>71</v>
       </c>
       <c r="I557" s="9" t="s">
-        <v>3457</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.3">
@@ -46115,7 +46130,7 @@
         <v>3433</v>
       </c>
       <c r="F558" s="9" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="G558" s="9" t="s">
         <v>720</v>
@@ -46124,7 +46139,7 @@
         <v>71</v>
       </c>
       <c r="I558" s="9" t="s">
-        <v>3458</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.3">
@@ -46144,7 +46159,7 @@
         <v>3433</v>
       </c>
       <c r="F559" s="9" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="G559" s="9" t="s">
         <v>720</v>
@@ -46153,7 +46168,7 @@
         <v>71</v>
       </c>
       <c r="I559" s="9" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.3">
@@ -46173,7 +46188,7 @@
         <v>3433</v>
       </c>
       <c r="F560" s="9" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
       <c r="G560" s="9" t="s">
         <v>720</v>
@@ -46182,7 +46197,7 @@
         <v>71</v>
       </c>
       <c r="I560" s="9" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.3">
@@ -46202,7 +46217,7 @@
         <v>3433</v>
       </c>
       <c r="F561" s="9" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="G561" s="9" t="s">
         <v>720</v>
@@ -46211,7 +46226,7 @@
         <v>71</v>
       </c>
       <c r="I561" s="9" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.3">
@@ -46231,7 +46246,7 @@
         <v>3433</v>
       </c>
       <c r="F562" s="9" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="G562" s="9" t="s">
         <v>720</v>
@@ -46240,7 +46255,7 @@
         <v>71</v>
       </c>
       <c r="I562" s="9" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.3">
@@ -46260,7 +46275,7 @@
         <v>3433</v>
       </c>
       <c r="F563" s="9" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="G563" s="9" t="s">
         <v>720</v>
@@ -46269,7 +46284,7 @@
         <v>71</v>
       </c>
       <c r="I563" s="9" t="s">
-        <v>3465</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.3">
@@ -46289,7 +46304,7 @@
         <v>3433</v>
       </c>
       <c r="F564" s="9" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="G564" s="9" t="s">
         <v>720</v>
@@ -46298,7 +46313,7 @@
         <v>71</v>
       </c>
       <c r="I564" s="9" t="s">
-        <v>3466</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.3">
@@ -46318,7 +46333,7 @@
         <v>3433</v>
       </c>
       <c r="F565" s="9" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="G565" s="9" t="s">
         <v>720</v>
@@ -46327,7 +46342,7 @@
         <v>71</v>
       </c>
       <c r="I565" s="9" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.3">
@@ -46347,7 +46362,7 @@
         <v>3433</v>
       </c>
       <c r="F566" s="9" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="G566" s="9" t="s">
         <v>720</v>
@@ -46356,7 +46371,7 @@
         <v>71</v>
       </c>
       <c r="I566" s="9" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.3">
@@ -46373,19 +46388,19 @@
         <v>1984</v>
       </c>
       <c r="E567" s="9" t="s">
-        <v>1299</v>
+        <v>3433</v>
       </c>
       <c r="F567" s="9" t="s">
-        <v>3435</v>
+        <v>3447</v>
       </c>
       <c r="G567" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H567" s="9" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I567" s="9" t="s">
-        <v>3463</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.3">
@@ -46402,19 +46417,19 @@
         <v>1984</v>
       </c>
       <c r="E568" s="9" t="s">
-        <v>1299</v>
+        <v>3433</v>
       </c>
       <c r="F568" s="9" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="G568" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H568" s="9" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I568" s="9" t="s">
-        <v>3464</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.3">
@@ -46434,7 +46449,7 @@
         <v>1299</v>
       </c>
       <c r="F569" s="9" t="s">
-        <v>3450</v>
+        <v>3435</v>
       </c>
       <c r="G569" s="9" t="s">
         <v>720</v>
@@ -46443,7 +46458,7 @@
         <v>38</v>
       </c>
       <c r="I569" s="9" t="s">
-        <v>3470</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.3">
@@ -46463,7 +46478,7 @@
         <v>1299</v>
       </c>
       <c r="F570" s="9" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="G570" s="9" t="s">
         <v>720</v>
@@ -46472,7 +46487,7 @@
         <v>38</v>
       </c>
       <c r="I570" s="9" t="s">
-        <v>3471</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.3">
@@ -46492,7 +46507,7 @@
         <v>1299</v>
       </c>
       <c r="F571" s="9" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="G571" s="9" t="s">
         <v>720</v>
@@ -46501,7 +46516,7 @@
         <v>38</v>
       </c>
       <c r="I571" s="9" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.3">
@@ -46509,28 +46524,28 @@
         <v>728</v>
       </c>
       <c r="B572" s="9" t="s">
-        <v>1957</v>
+        <v>3431</v>
       </c>
       <c r="C572" s="9" t="s">
-        <v>2023</v>
+        <v>3432</v>
       </c>
       <c r="D572" s="9">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="E572" s="9" t="s">
-        <v>222</v>
+        <v>1299</v>
       </c>
       <c r="F572" s="9" t="s">
-        <v>2024</v>
+        <v>3451</v>
       </c>
       <c r="G572" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H572" s="9" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="I572" s="9" t="s">
-        <v>3270</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.3">
@@ -46538,28 +46553,28 @@
         <v>728</v>
       </c>
       <c r="B573" s="9" t="s">
-        <v>1957</v>
+        <v>3431</v>
       </c>
       <c r="C573" s="9" t="s">
-        <v>2023</v>
+        <v>3432</v>
       </c>
       <c r="D573" s="9">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="E573" s="9" t="s">
-        <v>1279</v>
+        <v>1299</v>
       </c>
       <c r="F573" s="9" t="s">
-        <v>2025</v>
+        <v>3452</v>
       </c>
       <c r="G573" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H573" s="9" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="I573" s="9" t="s">
-        <v>3267</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.3">
@@ -46576,19 +46591,19 @@
         <v>1987</v>
       </c>
       <c r="E574" s="9" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F574" s="9" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="G574" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H574" s="9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I574" s="9" t="s">
-        <v>2814</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.3">
@@ -46605,19 +46620,19 @@
         <v>1987</v>
       </c>
       <c r="E575" s="9" t="s">
-        <v>130</v>
+        <v>1279</v>
       </c>
       <c r="F575" s="9" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="G575" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H575" s="9" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I575" s="9" t="s">
-        <v>3239</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.3">
@@ -46634,19 +46649,19 @@
         <v>1987</v>
       </c>
       <c r="E576" s="9" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F576" s="9" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="G576" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H576" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I576" s="9" t="s">
-        <v>3271</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.3">
@@ -46663,19 +46678,19 @@
         <v>1987</v>
       </c>
       <c r="E577" s="9" t="s">
-        <v>1279</v>
+        <v>130</v>
       </c>
       <c r="F577" s="9" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="G577" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H577" s="9" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I577" s="9" t="s">
-        <v>3268</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.3">
@@ -46692,19 +46707,19 @@
         <v>1987</v>
       </c>
       <c r="E578" s="9" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F578" s="9" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G578" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H578" s="9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I578" s="9" t="s">
-        <v>2815</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.3">
@@ -46721,19 +46736,19 @@
         <v>1987</v>
       </c>
       <c r="E579" s="9" t="s">
-        <v>130</v>
+        <v>1279</v>
       </c>
       <c r="F579" s="9" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="G579" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H579" s="9" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I579" s="9" t="s">
-        <v>3274</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.3">
@@ -46750,19 +46765,19 @@
         <v>1987</v>
       </c>
       <c r="E580" s="9" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F580" s="9" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="G580" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H580" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I580" s="9" t="s">
-        <v>3272</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.3">
@@ -46779,19 +46794,19 @@
         <v>1987</v>
       </c>
       <c r="E581" s="9" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="F581" s="9" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="G581" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H581" s="9" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I581" s="9" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.3">
@@ -46811,7 +46826,7 @@
         <v>222</v>
       </c>
       <c r="F582" s="9" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="G582" s="9" t="s">
         <v>720</v>
@@ -46820,7 +46835,7 @@
         <v>89</v>
       </c>
       <c r="I582" s="9" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.3">
@@ -46828,28 +46843,28 @@
         <v>728</v>
       </c>
       <c r="B583" s="9" t="s">
-        <v>2367</v>
+        <v>1957</v>
       </c>
       <c r="C583" s="9" t="s">
-        <v>2368</v>
+        <v>2023</v>
       </c>
       <c r="D583" s="9">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E583" s="9" t="s">
-        <v>2369</v>
+        <v>222</v>
       </c>
       <c r="F583" s="9" t="s">
-        <v>2370</v>
+        <v>2033</v>
       </c>
       <c r="G583" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H583" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I583" s="9" t="s">
-        <v>2371</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.3">
@@ -46857,28 +46872,28 @@
         <v>728</v>
       </c>
       <c r="B584" s="9" t="s">
-        <v>2142</v>
+        <v>1957</v>
       </c>
       <c r="C584" s="9" t="s">
-        <v>2552</v>
+        <v>2023</v>
       </c>
       <c r="D584" s="9">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="E584" s="9" t="s">
-        <v>713</v>
+        <v>222</v>
       </c>
       <c r="F584" s="9" t="s">
-        <v>725</v>
+        <v>2034</v>
       </c>
       <c r="G584" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H584" s="9" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="I584" s="9" t="s">
-        <v>3095</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.3">
@@ -46886,28 +46901,28 @@
         <v>728</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>1968</v>
+        <v>2367</v>
       </c>
       <c r="C585" s="9" t="s">
-        <v>1996</v>
+        <v>2368</v>
       </c>
       <c r="D585" s="9">
-        <v>2010</v>
+        <v>1988</v>
       </c>
       <c r="E585" s="9" t="s">
-        <v>271</v>
+        <v>2369</v>
       </c>
       <c r="F585" s="9" t="s">
-        <v>1984</v>
+        <v>2370</v>
       </c>
       <c r="G585" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H585" s="9" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="I585" s="9" t="s">
-        <v>3275</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.3">
@@ -46915,28 +46930,28 @@
         <v>728</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>1968</v>
+        <v>2142</v>
       </c>
       <c r="C586" s="9" t="s">
-        <v>1996</v>
+        <v>2552</v>
       </c>
       <c r="D586" s="9">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="E586" s="9" t="s">
-        <v>271</v>
+        <v>713</v>
       </c>
       <c r="F586" s="9" t="s">
-        <v>1985</v>
+        <v>725</v>
       </c>
       <c r="G586" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H586" s="9" t="s">
-        <v>257</v>
+        <v>2</v>
       </c>
       <c r="I586" s="9" t="s">
-        <v>3276</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.3">
@@ -46956,7 +46971,7 @@
         <v>271</v>
       </c>
       <c r="F587" s="9" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="G587" s="9" t="s">
         <v>720</v>
@@ -46965,7 +46980,7 @@
         <v>257</v>
       </c>
       <c r="I587" s="9" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.3">
@@ -46985,7 +47000,7 @@
         <v>271</v>
       </c>
       <c r="F588" s="9" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="G588" s="9" t="s">
         <v>720</v>
@@ -46994,7 +47009,7 @@
         <v>257</v>
       </c>
       <c r="I588" s="9" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.3">
@@ -47011,19 +47026,19 @@
         <v>2010</v>
       </c>
       <c r="E589" s="9" t="s">
-        <v>1988</v>
+        <v>271</v>
       </c>
       <c r="F589" s="9" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="G589" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H589" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I589" s="9" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.3">
@@ -47040,19 +47055,19 @@
         <v>2010</v>
       </c>
       <c r="E590" s="9" t="s">
-        <v>1988</v>
+        <v>271</v>
       </c>
       <c r="F590" s="9" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="G590" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H590" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I590" s="9" t="s">
-        <v>3280</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.3">
@@ -47072,7 +47087,7 @@
         <v>1988</v>
       </c>
       <c r="F591" s="9" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="G591" s="9" t="s">
         <v>720</v>
@@ -47081,7 +47096,7 @@
         <v>256</v>
       </c>
       <c r="I591" s="9" t="s">
-        <v>3281</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.3">
@@ -47101,7 +47116,7 @@
         <v>1988</v>
       </c>
       <c r="F592" s="9" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G592" s="9" t="s">
         <v>720</v>
@@ -47110,7 +47125,7 @@
         <v>256</v>
       </c>
       <c r="I592" s="9" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.3">
@@ -47130,7 +47145,7 @@
         <v>1988</v>
       </c>
       <c r="F593" s="9" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G593" s="9" t="s">
         <v>720</v>
@@ -47139,7 +47154,7 @@
         <v>256</v>
       </c>
       <c r="I593" s="9" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.3">
@@ -47159,7 +47174,7 @@
         <v>1988</v>
       </c>
       <c r="F594" s="9" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G594" s="9" t="s">
         <v>720</v>
@@ -47168,7 +47183,7 @@
         <v>256</v>
       </c>
       <c r="I594" s="9" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.3">
@@ -47188,7 +47203,7 @@
         <v>1988</v>
       </c>
       <c r="F595" s="9" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G595" s="9" t="s">
         <v>720</v>
@@ -47197,7 +47212,7 @@
         <v>256</v>
       </c>
       <c r="I595" s="9" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.3">
@@ -47214,19 +47229,19 @@
         <v>2010</v>
       </c>
       <c r="E596" s="9" t="s">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="F596" s="9" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="G596" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H596" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I596" s="9" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.3">
@@ -47243,19 +47258,19 @@
         <v>2010</v>
       </c>
       <c r="E597" s="9" t="s">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="F597" s="9" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="G597" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H597" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I597" s="9" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.3">
@@ -47275,7 +47290,7 @@
         <v>2001</v>
       </c>
       <c r="F598" s="9" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G598" s="9" t="s">
         <v>720</v>
@@ -47284,7 +47299,7 @@
         <v>258</v>
       </c>
       <c r="I598" s="9" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.3">
@@ -47304,7 +47319,7 @@
         <v>2001</v>
       </c>
       <c r="F599" s="9" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G599" s="9" t="s">
         <v>720</v>
@@ -47313,7 +47328,7 @@
         <v>258</v>
       </c>
       <c r="I599" s="9" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.3">
@@ -47333,7 +47348,7 @@
         <v>2001</v>
       </c>
       <c r="F600" s="9" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="G600" s="9" t="s">
         <v>720</v>
@@ -47342,7 +47357,7 @@
         <v>258</v>
       </c>
       <c r="I600" s="9" t="s">
-        <v>3289</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.3">
@@ -47359,19 +47374,19 @@
         <v>2010</v>
       </c>
       <c r="E601" s="9" t="s">
-        <v>1529</v>
+        <v>2001</v>
       </c>
       <c r="F601" s="9" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="G601" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H601" s="9" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="I601" s="9" t="s">
-        <v>2847</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.3">
@@ -47388,19 +47403,19 @@
         <v>2010</v>
       </c>
       <c r="E602" s="9" t="s">
-        <v>1529</v>
+        <v>2001</v>
       </c>
       <c r="F602" s="9" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G602" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H602" s="9" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="I602" s="9" t="s">
-        <v>2848</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.3">
@@ -47420,7 +47435,7 @@
         <v>1529</v>
       </c>
       <c r="F603" s="9" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G603" s="9" t="s">
         <v>720</v>
@@ -47449,7 +47464,7 @@
         <v>1529</v>
       </c>
       <c r="F604" s="9" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G604" s="9" t="s">
         <v>720</v>
@@ -47478,7 +47493,7 @@
         <v>1529</v>
       </c>
       <c r="F605" s="9" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G605" s="9" t="s">
         <v>720</v>
@@ -47487,7 +47502,7 @@
         <v>39</v>
       </c>
       <c r="I605" s="9" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.3">
@@ -47507,7 +47522,7 @@
         <v>1529</v>
       </c>
       <c r="F606" s="9" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G606" s="9" t="s">
         <v>720</v>
@@ -47516,7 +47531,7 @@
         <v>39</v>
       </c>
       <c r="I606" s="9" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.3">
@@ -47536,7 +47551,7 @@
         <v>1529</v>
       </c>
       <c r="F607" s="9" t="s">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="G607" s="9" t="s">
         <v>720</v>
@@ -47545,7 +47560,7 @@
         <v>39</v>
       </c>
       <c r="I607" s="9" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.3">
@@ -47562,19 +47577,19 @@
         <v>2010</v>
       </c>
       <c r="E608" s="9" t="s">
-        <v>2009</v>
+        <v>1529</v>
       </c>
       <c r="F608" s="9" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G608" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H608" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I608" s="9" t="s">
-        <v>3124</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.3">
@@ -47591,19 +47606,19 @@
         <v>2010</v>
       </c>
       <c r="E609" s="9" t="s">
-        <v>2009</v>
+        <v>1529</v>
       </c>
       <c r="F609" s="9" t="s">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="G609" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H609" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I609" s="9" t="s">
-        <v>3125</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.3">
@@ -47623,7 +47638,7 @@
         <v>2009</v>
       </c>
       <c r="F610" s="9" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G610" s="9" t="s">
         <v>720</v>
@@ -47632,7 +47647,7 @@
         <v>49</v>
       </c>
       <c r="I610" s="9" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.3">
@@ -47649,19 +47664,19 @@
         <v>2010</v>
       </c>
       <c r="E611" s="9" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F611" s="9" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G611" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H611" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I611" s="9" t="s">
-        <v>2915</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.3">
@@ -47678,19 +47693,19 @@
         <v>2010</v>
       </c>
       <c r="E612" s="9" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F612" s="9" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G612" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H612" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I612" s="9" t="s">
-        <v>2915</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.3">
@@ -47710,7 +47725,7 @@
         <v>2013</v>
       </c>
       <c r="F613" s="9" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G613" s="9" t="s">
         <v>720</v>
@@ -47719,7 +47734,7 @@
         <v>59</v>
       </c>
       <c r="I613" s="9" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.3">
@@ -47739,7 +47754,7 @@
         <v>2013</v>
       </c>
       <c r="F614" s="9" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G614" s="9" t="s">
         <v>720</v>
@@ -47748,7 +47763,7 @@
         <v>59</v>
       </c>
       <c r="I614" s="9" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.3">
@@ -47756,28 +47771,28 @@
         <v>728</v>
       </c>
       <c r="B615" s="9" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="C615" s="9" t="s">
-        <v>2035</v>
+        <v>1996</v>
       </c>
       <c r="D615" s="9">
         <v>2010</v>
       </c>
       <c r="E615" s="9" t="s">
-        <v>268</v>
+        <v>2013</v>
       </c>
       <c r="F615" s="9" t="s">
-        <v>2036</v>
+        <v>2016</v>
       </c>
       <c r="G615" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H615" s="9" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="I615" s="9" t="s">
-        <v>3290</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.3">
@@ -47785,28 +47800,28 @@
         <v>728</v>
       </c>
       <c r="B616" s="9" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C616" s="9" t="s">
-        <v>2037</v>
+        <v>1996</v>
       </c>
       <c r="D616" s="9">
         <v>2010</v>
       </c>
       <c r="E616" s="9" t="s">
-        <v>269</v>
+        <v>2013</v>
       </c>
       <c r="F616" s="9" t="s">
-        <v>2040</v>
+        <v>2017</v>
       </c>
       <c r="G616" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H616" s="9" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="I616" s="9" t="s">
-        <v>3291</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.3">
@@ -47814,28 +47829,28 @@
         <v>728</v>
       </c>
       <c r="B617" s="9" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="C617" s="9" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D617" s="9">
         <v>2010</v>
       </c>
       <c r="E617" s="9" t="s">
-        <v>2038</v>
+        <v>268</v>
       </c>
       <c r="F617" s="9" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="G617" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H617" s="9" t="s">
-        <v>950</v>
+        <v>264</v>
       </c>
       <c r="I617" s="9" t="s">
-        <v>3196</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.3">
@@ -47843,28 +47858,28 @@
         <v>728</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>2257</v>
+        <v>1967</v>
       </c>
       <c r="C618" s="9" t="s">
         <v>2037</v>
       </c>
       <c r="D618" s="9">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E618" s="9" t="s">
-        <v>2256</v>
+        <v>269</v>
       </c>
       <c r="F618" s="9" t="s">
-        <v>2265</v>
+        <v>2040</v>
       </c>
       <c r="G618" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H618" s="9" t="s">
-        <v>2255</v>
+        <v>260</v>
       </c>
       <c r="I618" s="9" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.3">
@@ -47872,28 +47887,28 @@
         <v>728</v>
       </c>
       <c r="B619" s="9" t="s">
-        <v>2257</v>
+        <v>1967</v>
       </c>
       <c r="C619" s="9" t="s">
         <v>2037</v>
       </c>
       <c r="D619" s="9">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E619" s="9" t="s">
-        <v>2256</v>
+        <v>2038</v>
       </c>
       <c r="F619" s="9" t="s">
-        <v>2269</v>
+        <v>2039</v>
       </c>
       <c r="G619" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H619" s="9" t="s">
-        <v>2255</v>
+        <v>950</v>
       </c>
       <c r="I619" s="9" t="s">
-        <v>3293</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.3">
@@ -47913,7 +47928,7 @@
         <v>2256</v>
       </c>
       <c r="F620" s="9" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="G620" s="9" t="s">
         <v>720</v>
@@ -47922,7 +47937,7 @@
         <v>2255</v>
       </c>
       <c r="I620" s="9" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.3">
@@ -47942,7 +47957,7 @@
         <v>2256</v>
       </c>
       <c r="F621" s="9" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="G621" s="9" t="s">
         <v>720</v>
@@ -47951,7 +47966,7 @@
         <v>2255</v>
       </c>
       <c r="I621" s="9" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.3">
@@ -47971,7 +47986,7 @@
         <v>2256</v>
       </c>
       <c r="F622" s="9" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="G622" s="9" t="s">
         <v>720</v>
@@ -47980,7 +47995,7 @@
         <v>2255</v>
       </c>
       <c r="I622" s="9" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.3">
@@ -48000,7 +48015,7 @@
         <v>2256</v>
       </c>
       <c r="F623" s="9" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="G623" s="9" t="s">
         <v>720</v>
@@ -48009,7 +48024,7 @@
         <v>2255</v>
       </c>
       <c r="I623" s="9" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.3">
@@ -48026,19 +48041,19 @@
         <v>2013</v>
       </c>
       <c r="E624" s="9" t="s">
-        <v>2267</v>
+        <v>2256</v>
       </c>
       <c r="F624" s="9" t="s">
-        <v>2266</v>
+        <v>2272</v>
       </c>
       <c r="G624" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H624" s="9" t="s">
-        <v>15</v>
+        <v>2255</v>
       </c>
       <c r="I624" s="9" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.3">
@@ -48055,19 +48070,19 @@
         <v>2013</v>
       </c>
       <c r="E625" s="9" t="s">
-        <v>2267</v>
+        <v>2256</v>
       </c>
       <c r="F625" s="9" t="s">
-        <v>2268</v>
+        <v>2273</v>
       </c>
       <c r="G625" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H625" s="9" t="s">
-        <v>15</v>
+        <v>2255</v>
       </c>
       <c r="I625" s="9" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.3">
@@ -48087,7 +48102,7 @@
         <v>2267</v>
       </c>
       <c r="F626" s="9" t="s">
-        <v>2274</v>
+        <v>2266</v>
       </c>
       <c r="G626" s="9" t="s">
         <v>720</v>
@@ -48096,7 +48111,7 @@
         <v>15</v>
       </c>
       <c r="I626" s="9" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.3">
@@ -48104,28 +48119,28 @@
         <v>728</v>
       </c>
       <c r="B627" s="9" t="s">
-        <v>2644</v>
+        <v>2257</v>
       </c>
       <c r="C627" s="9" t="s">
-        <v>2645</v>
+        <v>2037</v>
       </c>
       <c r="D627" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E627" s="9" t="s">
-        <v>2001</v>
+        <v>2267</v>
       </c>
       <c r="F627" s="9" t="s">
-        <v>2650</v>
+        <v>2268</v>
       </c>
       <c r="G627" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H627" s="9" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="I627" s="9" t="s">
-        <v>2658</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.3">
@@ -48133,28 +48148,28 @@
         <v>728</v>
       </c>
       <c r="B628" s="9" t="s">
-        <v>2644</v>
+        <v>2257</v>
       </c>
       <c r="C628" s="9" t="s">
-        <v>2645</v>
+        <v>2037</v>
       </c>
       <c r="D628" s="9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E628" s="9" t="s">
-        <v>2001</v>
+        <v>2267</v>
       </c>
       <c r="F628" s="9" t="s">
-        <v>2651</v>
+        <v>2274</v>
       </c>
       <c r="G628" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H628" s="9" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="I628" s="9" t="s">
-        <v>2659</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.3">
@@ -48174,7 +48189,7 @@
         <v>2001</v>
       </c>
       <c r="F629" s="9" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="G629" s="9" t="s">
         <v>720</v>
@@ -48183,7 +48198,7 @@
         <v>258</v>
       </c>
       <c r="I629" s="9" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.3">
@@ -48203,7 +48218,7 @@
         <v>2001</v>
       </c>
       <c r="F630" s="9" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="G630" s="9" t="s">
         <v>720</v>
@@ -48212,7 +48227,7 @@
         <v>258</v>
       </c>
       <c r="I630" s="9" t="s">
-        <v>2656</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.3">
@@ -48232,7 +48247,7 @@
         <v>2001</v>
       </c>
       <c r="F631" s="9" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="G631" s="9" t="s">
         <v>720</v>
@@ -48241,10 +48256,7 @@
         <v>258</v>
       </c>
       <c r="I631" s="9" t="s">
-        <v>2657</v>
-      </c>
-      <c r="Z631" s="9" t="s">
-        <v>3084</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.3">
@@ -48252,28 +48264,28 @@
         <v>728</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>2384</v>
+        <v>2644</v>
       </c>
       <c r="C632" s="9" t="s">
-        <v>2037</v>
+        <v>2645</v>
       </c>
       <c r="D632" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E632" s="9" t="s">
-        <v>144</v>
+        <v>2001</v>
       </c>
       <c r="F632" s="9" t="s">
-        <v>2385</v>
+        <v>2653</v>
       </c>
       <c r="G632" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H632" s="9" t="s">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="I632" s="9" t="s">
-        <v>3189</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.3">
@@ -48281,28 +48293,31 @@
         <v>728</v>
       </c>
       <c r="B633" s="9" t="s">
-        <v>2384</v>
+        <v>2644</v>
       </c>
       <c r="C633" s="9" t="s">
-        <v>2037</v>
+        <v>2645</v>
       </c>
       <c r="D633" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E633" s="9" t="s">
-        <v>2387</v>
+        <v>2001</v>
       </c>
       <c r="F633" s="9" t="s">
-        <v>2386</v>
+        <v>2654</v>
       </c>
       <c r="G633" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H633" s="9" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="I633" s="9" t="s">
-        <v>3187</v>
+        <v>2657</v>
+      </c>
+      <c r="Z633" s="9" t="s">
+        <v>3084</v>
       </c>
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.3">
@@ -48319,19 +48334,19 @@
         <v>2015</v>
       </c>
       <c r="E634" s="9" t="s">
-        <v>2388</v>
+        <v>144</v>
       </c>
       <c r="F634" s="9" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="G634" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H634" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I634" s="9" t="s">
-        <v>3167</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.3">
@@ -48348,19 +48363,19 @@
         <v>2015</v>
       </c>
       <c r="E635" s="9" t="s">
-        <v>1401</v>
+        <v>2387</v>
       </c>
       <c r="F635" s="9" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="G635" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H635" s="9" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I635" s="9" t="s">
-        <v>3207</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.3">
@@ -48368,28 +48383,28 @@
         <v>728</v>
       </c>
       <c r="B636" s="9" t="s">
-        <v>2666</v>
+        <v>2384</v>
       </c>
       <c r="C636" s="9" t="s">
         <v>2037</v>
       </c>
       <c r="D636" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E636" s="9" t="s">
-        <v>2667</v>
+        <v>2388</v>
       </c>
       <c r="F636" s="9" t="s">
-        <v>2672</v>
+        <v>2389</v>
       </c>
       <c r="G636" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H636" s="9" t="s">
-        <v>2665</v>
+        <v>6</v>
       </c>
       <c r="I636" s="9" t="s">
-        <v>3303</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.3">
@@ -48397,28 +48412,28 @@
         <v>728</v>
       </c>
       <c r="B637" s="9" t="s">
-        <v>2666</v>
+        <v>2384</v>
       </c>
       <c r="C637" s="9" t="s">
         <v>2037</v>
       </c>
       <c r="D637" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E637" s="9" t="s">
-        <v>2667</v>
+        <v>1401</v>
       </c>
       <c r="F637" s="9" t="s">
-        <v>2674</v>
+        <v>2390</v>
       </c>
       <c r="G637" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H637" s="9" t="s">
-        <v>2665</v>
+        <v>61</v>
       </c>
       <c r="I637" s="9" t="s">
-        <v>3304</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.3">
@@ -48438,7 +48453,7 @@
         <v>2667</v>
       </c>
       <c r="F638" s="9" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="G638" s="9" t="s">
         <v>720</v>
@@ -48447,7 +48462,7 @@
         <v>2665</v>
       </c>
       <c r="I638" s="9" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.3">
@@ -48464,19 +48479,19 @@
         <v>2018</v>
       </c>
       <c r="E639" s="9" t="s">
-        <v>356</v>
+        <v>2667</v>
       </c>
       <c r="F639" s="9" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="G639" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H639" s="9" t="s">
-        <v>88</v>
+        <v>2665</v>
       </c>
       <c r="I639" s="9" t="s">
-        <v>2954</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.3">
@@ -48493,19 +48508,19 @@
         <v>2018</v>
       </c>
       <c r="E640" s="9" t="s">
-        <v>356</v>
+        <v>2667</v>
       </c>
       <c r="F640" s="9" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="G640" s="9" t="s">
         <v>720</v>
       </c>
       <c r="H640" s="9" t="s">
-        <v>88</v>
+        <v>2665</v>
       </c>
       <c r="I640" s="9" t="s">
-        <v>2955</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.3">
@@ -48513,86 +48528,86 @@
         <v>728</v>
       </c>
       <c r="B641" s="9" t="s">
-        <v>3478</v>
+        <v>2666</v>
       </c>
       <c r="C641" s="9" t="s">
         <v>2037</v>
       </c>
       <c r="D641" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E641" s="9" t="s">
-        <v>3482</v>
+        <v>356</v>
       </c>
       <c r="F641" s="9" t="s">
-        <v>3483</v>
+        <v>2673</v>
       </c>
       <c r="G641" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H641" s="9" t="s">
-        <v>3474</v>
+        <v>88</v>
       </c>
       <c r="I641" s="9" t="s">
-        <v>3484</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" s="9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B642" s="9" t="s">
-        <v>741</v>
+        <v>2666</v>
       </c>
       <c r="C642" s="9" t="s">
-        <v>729</v>
+        <v>2037</v>
       </c>
       <c r="D642" s="9">
-        <v>1973</v>
+        <v>2018</v>
       </c>
       <c r="E642" s="9" t="s">
-        <v>744</v>
+        <v>356</v>
       </c>
       <c r="F642" s="9" t="s">
-        <v>740</v>
+        <v>2676</v>
       </c>
       <c r="G642" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H642" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I642" s="9" t="s">
-        <v>3203</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" s="9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B643" s="9" t="s">
-        <v>741</v>
+        <v>3478</v>
       </c>
       <c r="C643" s="9" t="s">
-        <v>770</v>
+        <v>2037</v>
       </c>
       <c r="D643" s="9">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="E643" s="9" t="s">
-        <v>744</v>
+        <v>3482</v>
       </c>
       <c r="F643" s="9" t="s">
-        <v>792</v>
+        <v>3483</v>
       </c>
       <c r="G643" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H643" s="9" t="s">
-        <v>78</v>
+        <v>3474</v>
       </c>
       <c r="I643" s="9" t="s">
-        <v>2857</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.3">
@@ -48603,25 +48618,25 @@
         <v>741</v>
       </c>
       <c r="C644" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D644" s="9">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="E644" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F644" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G644" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H644" s="9" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I644" s="9" t="s">
-        <v>3306</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.3">
@@ -48632,25 +48647,25 @@
         <v>741</v>
       </c>
       <c r="C645" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D645" s="9">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E645" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F645" s="9" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="G645" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H645" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I645" s="9" t="s">
-        <v>2816</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.3">
@@ -48661,25 +48676,25 @@
         <v>741</v>
       </c>
       <c r="C646" s="9" t="s">
-        <v>780</v>
+        <v>730</v>
       </c>
       <c r="D646" s="9">
-        <v>1990</v>
+        <v>1965</v>
       </c>
       <c r="E646" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="F646" s="11" t="s">
-        <v>779</v>
+      <c r="F646" s="9" t="s">
+        <v>742</v>
       </c>
       <c r="G646" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H646" s="9" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I646" s="9" t="s">
-        <v>3300</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.3">
@@ -48690,25 +48705,25 @@
         <v>741</v>
       </c>
       <c r="C647" s="9" t="s">
-        <v>2639</v>
+        <v>771</v>
       </c>
       <c r="D647" s="9">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="E647" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="F647" s="11" t="s">
-        <v>2640</v>
+      <c r="F647" s="9" t="s">
+        <v>778</v>
       </c>
       <c r="G647" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H647" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I647" s="9" t="s">
-        <v>2863</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.3">
@@ -48719,25 +48734,25 @@
         <v>741</v>
       </c>
       <c r="C648" s="9" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="D648" s="9">
-        <v>1977</v>
+        <v>1990</v>
       </c>
       <c r="E648" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="F648" s="9" t="s">
-        <v>775</v>
+      <c r="F648" s="11" t="s">
+        <v>779</v>
       </c>
       <c r="G648" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H648" s="9" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="I648" s="9" t="s">
-        <v>3307</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.3">
@@ -48748,25 +48763,25 @@
         <v>741</v>
       </c>
       <c r="C649" s="9" t="s">
-        <v>768</v>
+        <v>2639</v>
       </c>
       <c r="D649" s="9">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="E649" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="F649" s="9" t="s">
-        <v>777</v>
+      <c r="F649" s="11" t="s">
+        <v>2640</v>
       </c>
       <c r="G649" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H649" s="9" t="s">
-        <v>741</v>
+        <v>81</v>
       </c>
       <c r="I649" s="9" t="s">
-        <v>776</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.3">
@@ -48777,25 +48792,25 @@
         <v>741</v>
       </c>
       <c r="C650" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D650" s="9">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="E650" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F650" s="9" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="G650" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H650" s="9" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="I650" s="9" t="s">
-        <v>3301</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.3">
@@ -48806,16 +48821,16 @@
         <v>741</v>
       </c>
       <c r="C651" s="9" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
       <c r="D651" s="9">
-        <v>1984</v>
+        <v>1994</v>
       </c>
       <c r="E651" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F651" s="9" t="s">
-        <v>747</v>
+        <v>777</v>
       </c>
       <c r="G651" s="9" t="s">
         <v>721</v>
@@ -48824,7 +48839,7 @@
         <v>741</v>
       </c>
       <c r="I651" s="9" t="s">
-        <v>2858</v>
+        <v>776</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.3">
@@ -48835,25 +48850,25 @@
         <v>741</v>
       </c>
       <c r="C652" s="9" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="D652" s="9">
-        <v>1977</v>
+        <v>1986</v>
       </c>
       <c r="E652" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F652" s="9" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="G652" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H652" s="9" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I652" s="9" t="s">
-        <v>2945</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.3">
@@ -48864,25 +48879,25 @@
         <v>741</v>
       </c>
       <c r="C653" s="9" t="s">
-        <v>2374</v>
+        <v>746</v>
       </c>
       <c r="D653" s="9">
-        <v>2015</v>
+        <v>1984</v>
       </c>
       <c r="E653" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F653" s="9" t="s">
-        <v>2375</v>
+        <v>747</v>
       </c>
       <c r="G653" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H653" s="9" t="s">
-        <v>2</v>
+        <v>741</v>
       </c>
       <c r="I653" s="9" t="s">
-        <v>3096</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.3">
@@ -48893,25 +48908,25 @@
         <v>741</v>
       </c>
       <c r="C654" s="9" t="s">
-        <v>2048</v>
+        <v>790</v>
       </c>
       <c r="D654" s="9">
-        <v>2004</v>
+        <v>1977</v>
       </c>
       <c r="E654" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F654" s="9" t="s">
-        <v>2049</v>
+        <v>791</v>
       </c>
       <c r="G654" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H654" s="9" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I654" s="9" t="s">
-        <v>3181</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.3">
@@ -48922,25 +48937,25 @@
         <v>741</v>
       </c>
       <c r="C655" s="9" t="s">
-        <v>738</v>
+        <v>2374</v>
       </c>
       <c r="D655" s="9">
-        <v>1986</v>
+        <v>2015</v>
       </c>
       <c r="E655" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F655" s="9" t="s">
-        <v>750</v>
+        <v>2375</v>
       </c>
       <c r="G655" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H655" s="9" t="s">
-        <v>741</v>
+        <v>2</v>
       </c>
       <c r="I655" s="9" t="s">
-        <v>751</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.3">
@@ -48951,25 +48966,25 @@
         <v>741</v>
       </c>
       <c r="C656" s="9" t="s">
-        <v>731</v>
+        <v>2048</v>
       </c>
       <c r="D656" s="9">
-        <v>1969</v>
+        <v>2004</v>
       </c>
       <c r="E656" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F656" s="9" t="s">
-        <v>752</v>
+        <v>2049</v>
       </c>
       <c r="G656" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H656" s="9" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I656" s="9" t="s">
-        <v>2864</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.3">
@@ -48980,16 +48995,16 @@
         <v>741</v>
       </c>
       <c r="C657" s="9" t="s">
-        <v>772</v>
+        <v>738</v>
       </c>
       <c r="D657" s="9">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="E657" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F657" s="9" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="G657" s="9" t="s">
         <v>721</v>
@@ -48998,7 +49013,7 @@
         <v>741</v>
       </c>
       <c r="I657" s="9" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.3">
@@ -49009,25 +49024,25 @@
         <v>741</v>
       </c>
       <c r="C658" s="9" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D658" s="9">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E658" s="9" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F658" s="9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G658" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H658" s="9" t="s">
-        <v>741</v>
+        <v>81</v>
       </c>
       <c r="I658" s="9" t="s">
-        <v>755</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.3">
@@ -49038,25 +49053,25 @@
         <v>741</v>
       </c>
       <c r="C659" s="9" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="D659" s="9">
-        <v>1990</v>
+        <v>2002</v>
       </c>
       <c r="E659" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F659" s="9" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G659" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H659" s="9" t="s">
-        <v>62</v>
+        <v>741</v>
       </c>
       <c r="I659" s="9" t="s">
-        <v>2932</v>
+        <v>783</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.3">
@@ -49067,25 +49082,25 @@
         <v>741</v>
       </c>
       <c r="C660" s="9" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D660" s="9">
-        <v>1990</v>
+        <v>1968</v>
       </c>
       <c r="E660" s="9" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="F660" s="9" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="G660" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H660" s="9" t="s">
-        <v>2</v>
+        <v>741</v>
       </c>
       <c r="I660" s="9" t="s">
-        <v>3097</v>
+        <v>755</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.3">
@@ -49096,25 +49111,25 @@
         <v>741</v>
       </c>
       <c r="C661" s="9" t="s">
-        <v>737</v>
+        <v>784</v>
       </c>
       <c r="D661" s="9">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="E661" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F661" s="9" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
       <c r="G661" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H661" s="9" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I661" s="9" t="s">
-        <v>2865</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.3">
@@ -49125,25 +49140,25 @@
         <v>741</v>
       </c>
       <c r="C662" s="9" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="D662" s="9">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="E662" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F662" s="9" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G662" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H662" s="9" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="I662" s="9" t="s">
-        <v>2866</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.3">
@@ -49154,25 +49169,25 @@
         <v>741</v>
       </c>
       <c r="C663" s="9" t="s">
-        <v>786</v>
+        <v>737</v>
       </c>
       <c r="D663" s="9">
-        <v>1969</v>
+        <v>2007</v>
       </c>
       <c r="E663" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F663" s="9" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
       <c r="G663" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H663" s="9" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="I663" s="9" t="s">
-        <v>2829</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.3">
@@ -49183,25 +49198,25 @@
         <v>741</v>
       </c>
       <c r="C664" s="9" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="D664" s="9">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="E664" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F664" s="9" t="s">
-        <v>795</v>
+        <v>758</v>
       </c>
       <c r="G664" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H664" s="9" t="s">
-        <v>741</v>
+        <v>81</v>
       </c>
       <c r="I664" s="9" t="s">
-        <v>3308</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.3">
@@ -49212,25 +49227,25 @@
         <v>741</v>
       </c>
       <c r="C665" s="9" t="s">
-        <v>2043</v>
-      </c>
-      <c r="D665" s="9" t="s">
-        <v>2052</v>
+        <v>786</v>
+      </c>
+      <c r="D665" s="9">
+        <v>1969</v>
       </c>
       <c r="E665" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F665" s="9" t="s">
-        <v>2053</v>
+        <v>787</v>
       </c>
       <c r="G665" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H665" s="9" t="s">
-        <v>741</v>
+        <v>13</v>
       </c>
       <c r="I665" s="9" t="s">
-        <v>3309</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.3">
@@ -49241,25 +49256,25 @@
         <v>741</v>
       </c>
       <c r="C666" s="9" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="D666" s="9">
-        <v>1984</v>
+        <v>1999</v>
       </c>
       <c r="E666" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F666" s="9" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="G666" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H666" s="9" t="s">
-        <v>81</v>
+        <v>741</v>
       </c>
       <c r="I666" s="9" t="s">
-        <v>2867</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.3">
@@ -49270,25 +49285,25 @@
         <v>741</v>
       </c>
       <c r="C667" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="D667" s="9">
-        <v>2000</v>
+        <v>2043</v>
+      </c>
+      <c r="D667" s="9" t="s">
+        <v>2052</v>
       </c>
       <c r="E667" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F667" s="9" t="s">
-        <v>743</v>
+        <v>2053</v>
       </c>
       <c r="G667" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H667" s="9" t="s">
-        <v>91</v>
+        <v>741</v>
       </c>
       <c r="I667" s="9" t="s">
-        <v>2843</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.3">
@@ -49299,16 +49314,16 @@
         <v>741</v>
       </c>
       <c r="C668" s="9" t="s">
-        <v>733</v>
+        <v>789</v>
       </c>
       <c r="D668" s="9">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="E668" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F668" s="9" t="s">
-        <v>759</v>
+        <v>788</v>
       </c>
       <c r="G668" s="9" t="s">
         <v>721</v>
@@ -49317,7 +49332,7 @@
         <v>81</v>
       </c>
       <c r="I668" s="9" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.3">
@@ -49328,25 +49343,25 @@
         <v>741</v>
       </c>
       <c r="C669" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D669" s="9">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E669" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F669" s="9" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="G669" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H669" s="9" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I669" s="9" t="s">
-        <v>2041</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.3">
@@ -49360,13 +49375,13 @@
         <v>733</v>
       </c>
       <c r="D670" s="9">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="E670" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F670" s="9" t="s">
-        <v>2042</v>
+        <v>759</v>
       </c>
       <c r="G670" s="9" t="s">
         <v>721</v>
@@ -49375,7 +49390,7 @@
         <v>81</v>
       </c>
       <c r="I670" s="9" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.3">
@@ -49386,25 +49401,25 @@
         <v>741</v>
       </c>
       <c r="C671" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D671" s="9">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E671" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F671" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G671" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H671" s="9" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I671" s="9" t="s">
-        <v>3310</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.3">
@@ -49415,25 +49430,25 @@
         <v>741</v>
       </c>
       <c r="C672" s="9" t="s">
-        <v>773</v>
+        <v>733</v>
       </c>
       <c r="D672" s="9">
-        <v>1981</v>
+        <v>2013</v>
       </c>
       <c r="E672" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="F672" s="12" t="s">
-        <v>793</v>
+      <c r="F672" s="9" t="s">
+        <v>2042</v>
       </c>
       <c r="G672" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H672" s="9" t="s">
-        <v>741</v>
+        <v>81</v>
       </c>
       <c r="I672" s="9" t="s">
-        <v>794</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.3">
@@ -49444,25 +49459,25 @@
         <v>741</v>
       </c>
       <c r="C673" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="D673" s="9" t="s">
-        <v>2052</v>
+        <v>734</v>
+      </c>
+      <c r="D673" s="9">
+        <v>1986</v>
       </c>
       <c r="E673" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="F673" s="12" t="s">
-        <v>2050</v>
+      <c r="F673" s="9" t="s">
+        <v>761</v>
       </c>
       <c r="G673" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H673" s="9" t="s">
-        <v>741</v>
+        <v>1</v>
       </c>
       <c r="I673" s="9" t="s">
-        <v>2051</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.3">
@@ -49473,25 +49488,25 @@
         <v>741</v>
       </c>
       <c r="C674" s="9" t="s">
-        <v>145</v>
+        <v>773</v>
       </c>
       <c r="D674" s="9">
-        <v>2004</v>
+        <v>1981</v>
       </c>
       <c r="E674" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="F674" s="9" t="s">
-        <v>762</v>
+      <c r="F674" s="12" t="s">
+        <v>793</v>
       </c>
       <c r="G674" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H674" s="9" t="s">
-        <v>39</v>
+        <v>741</v>
       </c>
       <c r="I674" s="9" t="s">
-        <v>2851</v>
+        <v>794</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.3">
@@ -49502,25 +49517,25 @@
         <v>741</v>
       </c>
       <c r="C675" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D675" s="9">
-        <v>2004</v>
+        <v>773</v>
+      </c>
+      <c r="D675" s="9" t="s">
+        <v>2052</v>
       </c>
       <c r="E675" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="F675" s="9" t="s">
-        <v>763</v>
+      <c r="F675" s="12" t="s">
+        <v>2050</v>
       </c>
       <c r="G675" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H675" s="9" t="s">
-        <v>2</v>
+        <v>741</v>
       </c>
       <c r="I675" s="9" t="s">
-        <v>3098</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.3">
@@ -49540,16 +49555,16 @@
         <v>744</v>
       </c>
       <c r="F676" s="9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G676" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H676" s="9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I676" s="9" t="s">
-        <v>3193</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.3">
@@ -49569,16 +49584,16 @@
         <v>744</v>
       </c>
       <c r="F677" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G677" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H677" s="9" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I677" s="9" t="s">
-        <v>3190</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.3">
@@ -49589,25 +49604,25 @@
         <v>741</v>
       </c>
       <c r="C678" s="9" t="s">
-        <v>2044</v>
+        <v>145</v>
       </c>
       <c r="D678" s="9">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="E678" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F678" s="9" t="s">
-        <v>2045</v>
+        <v>764</v>
       </c>
       <c r="G678" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H678" s="9" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I678" s="9" t="s">
-        <v>2935</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.3">
@@ -49618,25 +49633,25 @@
         <v>741</v>
       </c>
       <c r="C679" s="9" t="s">
-        <v>2044</v>
+        <v>145</v>
       </c>
       <c r="D679" s="9">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="E679" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F679" s="9" t="s">
-        <v>2046</v>
+        <v>765</v>
       </c>
       <c r="G679" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H679" s="9" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I679" s="9" t="s">
-        <v>2830</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.3">
@@ -49656,16 +49671,16 @@
         <v>744</v>
       </c>
       <c r="F680" s="9" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="G680" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H680" s="9" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I680" s="9" t="s">
-        <v>2831</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.3">
@@ -49676,25 +49691,25 @@
         <v>741</v>
       </c>
       <c r="C681" s="9" t="s">
-        <v>735</v>
+        <v>2044</v>
       </c>
       <c r="D681" s="9">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="E681" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F681" s="9" t="s">
-        <v>745</v>
+        <v>2046</v>
       </c>
       <c r="G681" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H681" s="9" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="I681" s="9" t="s">
-        <v>3302</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.3">
@@ -49705,16 +49720,16 @@
         <v>741</v>
       </c>
       <c r="C682" s="9" t="s">
-        <v>736</v>
+        <v>2044</v>
       </c>
       <c r="D682" s="9">
-        <v>1965</v>
+        <v>2011</v>
       </c>
       <c r="E682" s="9" t="s">
         <v>744</v>
       </c>
       <c r="F682" s="9" t="s">
-        <v>766</v>
+        <v>2047</v>
       </c>
       <c r="G682" s="9" t="s">
         <v>721</v>
@@ -49723,65 +49738,65 @@
         <v>91</v>
       </c>
       <c r="I682" s="9" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" s="9" t="s">
-        <v>797</v>
+        <v>727</v>
       </c>
       <c r="B683" s="9" t="s">
         <v>741</v>
       </c>
       <c r="C683" s="9" t="s">
-        <v>2553</v>
+        <v>735</v>
       </c>
       <c r="D683" s="9">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="E683" s="9" t="s">
-        <v>796</v>
+        <v>744</v>
       </c>
       <c r="F683" s="9" t="s">
-        <v>829</v>
+        <v>745</v>
       </c>
       <c r="G683" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H683" s="9" t="s">
-        <v>741</v>
+        <v>15</v>
       </c>
       <c r="I683" s="9" t="s">
-        <v>813</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" s="9" t="s">
-        <v>797</v>
+        <v>727</v>
       </c>
       <c r="B684" s="9" t="s">
         <v>741</v>
       </c>
       <c r="C684" s="9" t="s">
-        <v>800</v>
+        <v>736</v>
       </c>
       <c r="D684" s="9">
-        <v>2004</v>
+        <v>1965</v>
       </c>
       <c r="E684" s="9" t="s">
-        <v>799</v>
+        <v>744</v>
       </c>
       <c r="F684" s="9" t="s">
-        <v>803</v>
+        <v>766</v>
       </c>
       <c r="G684" s="9" t="s">
         <v>721</v>
       </c>
       <c r="H684" s="9" t="s">
-        <v>741</v>
+        <v>91</v>
       </c>
       <c r="I684" s="9" t="s">
-        <v>810</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.3">
@@ -49792,25 +49807,25 @@
         <v>741</v>
       </c>
       <c r="C685" s="9" t="s">
-        <v>798</v>
+        <v>2553</v>
       </c>
       <c r="D685" s="9">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="E685" s="9" t="s">
-        <v>827</v>
+        <v>796</v>
       </c>
       <c r="F685" s="9" t="s">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="G685" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H685" s="9" t="s">
         <v>741</v>
       </c>
       <c r="I685" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.3">
@@ -49821,16 +49836,16 @@
         <v>741</v>
       </c>
       <c r="C686" s="9" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D686" s="9">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E686" s="9" t="s">
-        <v>828</v>
+        <v>799</v>
       </c>
       <c r="F686" s="9" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G686" s="9" t="s">
         <v>721</v>
@@ -49839,7 +49854,7 @@
         <v>741</v>
       </c>
       <c r="I686" s="9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.3">
@@ -49850,24 +49865,82 @@
         <v>741</v>
       </c>
       <c r="C687" s="9" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D687" s="9">
         <v>2005</v>
       </c>
       <c r="E687" s="9" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
       <c r="F687" s="9" t="s">
-        <v>830</v>
+        <v>801</v>
       </c>
       <c r="G687" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H687" s="9" t="s">
         <v>741</v>
       </c>
       <c r="I687" s="9" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A688" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="B688" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C688" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="D688" s="9">
+        <v>2005</v>
+      </c>
+      <c r="E688" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="F688" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="G688" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="H688" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="I688" s="9" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A689" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="B689" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C689" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="D689" s="9">
+        <v>2005</v>
+      </c>
+      <c r="E689" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="F689" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="G689" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="H689" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="I689" s="9" t="s">
         <v>814</v>
       </c>
     </row>
@@ -49884,7 +49957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB7FBD-8A61-4F4A-9360-D5EFECC624C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB25D91E-2FD7-4101-A162-A92800024E69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31320" yWindow="336" windowWidth="20472" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="36" windowWidth="20472" windowHeight="15600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11172" uniqueCount="3503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11172" uniqueCount="3504">
   <si>
     <t>acuta</t>
   </si>
@@ -10551,6 +10551,9 @@
   </si>
   <si>
     <t>This drawing is from Brown &lt;em&gt;et al.&lt;/em&gt; (1979).</t>
+  </si>
+  <si>
+    <t>crassipes;crasipes</t>
   </si>
 </sst>
 </file>
@@ -29943,7 +29946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+    <sheetView topLeftCell="A541" workbookViewId="0">
       <selection activeCell="B547" sqref="B547"/>
     </sheetView>
   </sheetViews>
@@ -49957,8 +49960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50828,7 +50831,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>3503</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>

--- a/data/Species DB.xlsx
+++ b/data/Species DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6797A4-C571-4E5B-AB3D-99C251DDAE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84485BD4-B0B3-4426-808A-869EC7EC5B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="108" windowWidth="18240" windowHeight="16572" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="84" yWindow="24" windowWidth="18240" windowHeight="16572" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -17178,7 +17178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7951029-2498-4E57-BAA0-E3E88F91FE9E}">
   <dimension ref="A1:E776"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B483" sqref="B483"/>
     </sheetView>
@@ -60532,8 +60532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
